--- a/configs/mintoc_gravity_turn_20T_1.xlsx
+++ b/configs/mintoc_gravity_turn_20T_1.xlsx
@@ -435,6898 +435,6898 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9935243442284932</v>
+        <v>0.993524344229187</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0002804066168505375</v>
+        <v>0.0002804066168724193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1.989079997810749</v>
+        <v>1.989079997857008</v>
       </c>
       <c r="B3">
-        <v>21731.40341142472</v>
+        <v>21731.40341141822</v>
       </c>
       <c r="C3">
-        <v>34.707959968597</v>
+        <v>34.70795996945594</v>
       </c>
       <c r="D3">
-        <v>34.29976646845353</v>
+        <v>34.29976647007516</v>
       </c>
       <c r="E3">
-        <v>0.9913571316622107</v>
+        <v>0.9913571316632643</v>
       </c>
       <c r="F3">
-        <v>4.676996636035861E-07</v>
+        <v>4.676996636660014E-07</v>
       </c>
       <c r="G3">
-        <v>0.104553638911003</v>
+        <v>0.1045536389199025</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3.978159995621497</v>
+        <v>3.978159995714015</v>
       </c>
       <c r="B4">
-        <v>21463.39272283807</v>
+        <v>21463.39272282504</v>
       </c>
       <c r="C4">
-        <v>69.73167290748582</v>
+        <v>69.73167290924995</v>
       </c>
       <c r="D4">
-        <v>137.192936662683</v>
+        <v>137.1929366691232</v>
       </c>
       <c r="E4">
-        <v>0.9892645089136438</v>
+        <v>0.9892645089150202</v>
       </c>
       <c r="F4">
-        <v>2.768091968910991E-06</v>
+        <v>2.768091969278074E-06</v>
       </c>
       <c r="G4">
-        <v>0.1540807314218258</v>
+        <v>0.1540807314348098</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>5.967239993432246</v>
+        <v>5.967239993571023</v>
       </c>
       <c r="B5">
-        <v>21195.94776908691</v>
+        <v>21195.94776906728</v>
       </c>
       <c r="C5">
-        <v>104.744084780026</v>
+        <v>104.7440847827165</v>
       </c>
       <c r="D5">
-        <v>308.050325113152</v>
+        <v>308.050325127482</v>
       </c>
       <c r="E5">
-        <v>0.9866710901248459</v>
+        <v>0.9866710901266439</v>
       </c>
       <c r="F5">
-        <v>7.816563037829272E-06</v>
+        <v>7.816563038861981E-06</v>
       </c>
       <c r="G5">
-        <v>0.1930664673010947</v>
+        <v>0.1930664673172313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>7.956319991242995</v>
+        <v>7.956319991428031</v>
       </c>
       <c r="B6">
-        <v>20929.20393901072</v>
+        <v>20929.20393898442</v>
       </c>
       <c r="C6">
-        <v>139.4075986181693</v>
+        <v>139.4075986217908</v>
       </c>
       <c r="D6">
-        <v>545.5325989216963</v>
+        <v>545.5325989467973</v>
       </c>
       <c r="E6">
-        <v>0.9833621235474748</v>
+        <v>0.9833621235498518</v>
       </c>
       <c r="F6">
-        <v>1.629058552821716E-05</v>
+        <v>1.629058553036194E-05</v>
       </c>
       <c r="G6">
-        <v>0.2264871159116321</v>
+        <v>0.2264871159304246</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>9.945399989053744</v>
+        <v>9.945399989285038</v>
       </c>
       <c r="B7">
-        <v>20663.35467899671</v>
+        <v>20663.35467896358</v>
       </c>
       <c r="C7">
-        <v>173.4242117921954</v>
+        <v>173.424211796745</v>
       </c>
       <c r="D7">
-        <v>847.6552519484194</v>
+        <v>847.6552519869441</v>
       </c>
       <c r="E7">
-        <v>0.9790663650637081</v>
+        <v>0.9790663650668388</v>
       </c>
       <c r="F7">
-        <v>2.872976065507108E-05</v>
+        <v>2.872976065884034E-05</v>
       </c>
       <c r="G7">
-        <v>0.2563658167329028</v>
+        <v>0.2563658167540325</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>11.93447998686449</v>
+        <v>11.93447998714205</v>
       </c>
       <c r="B8">
-        <v>20398.66676553732</v>
+        <v>20398.66676549718</v>
       </c>
       <c r="C8">
-        <v>206.5516420297845</v>
+        <v>206.5516420352592</v>
       </c>
       <c r="D8">
-        <v>1211.902449228006</v>
+        <v>1211.902449282357</v>
       </c>
       <c r="E8">
-        <v>0.973412947757475</v>
+        <v>0.9734129477616819</v>
       </c>
       <c r="F8">
-        <v>4.55709425563412E-05</v>
+        <v>4.557094256229982E-05</v>
       </c>
       <c r="G8">
-        <v>0.2837801714601395</v>
+        <v>0.2837801714833816</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>13.92355998467524</v>
+        <v>13.92355998499905</v>
       </c>
       <c r="B9">
-        <v>20135.50723798118</v>
+        <v>20135.50723793378</v>
       </c>
       <c r="C9">
-        <v>238.6067293761951</v>
+        <v>238.6067293826077</v>
       </c>
       <c r="D9">
-        <v>1635.353757096533</v>
+        <v>1635.353757168871</v>
       </c>
       <c r="E9">
-        <v>0.9658880376952943</v>
+        <v>0.9658880377009944</v>
       </c>
       <c r="F9">
-        <v>6.716811243511024E-05</v>
+        <v>6.716811244386541E-05</v>
       </c>
       <c r="G9">
-        <v>0.3093896741434671</v>
+        <v>0.3093896741686525</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>15.91263998248599</v>
+        <v>15.91263998285606</v>
       </c>
       <c r="B10">
-        <v>19874.38204927518</v>
+        <v>19874.38204922017</v>
       </c>
       <c r="C10">
-        <v>269.4565436991226</v>
+        <v>269.4565437065152</v>
       </c>
       <c r="D10">
-        <v>2114.796792619971</v>
+        <v>2114.796792712239</v>
       </c>
       <c r="E10">
-        <v>0.9557894871925211</v>
+        <v>0.9557894872002627</v>
       </c>
       <c r="F10">
-        <v>9.380687568670841E-05</v>
+        <v>9.380687569890495E-05</v>
       </c>
       <c r="G10">
-        <v>0.3336345175293536</v>
+        <v>0.3336345175563484</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>17.90171998029674</v>
+        <v>17.90171998071307</v>
       </c>
       <c r="B11">
-        <v>19615.98697607199</v>
+        <v>19615.98697600887</v>
       </c>
       <c r="C11">
-        <v>298.9990706986208</v>
+        <v>298.9990707070741</v>
       </c>
       <c r="D11">
-        <v>2646.820751752449</v>
+        <v>2646.820751866483</v>
       </c>
       <c r="E11">
-        <v>0.94220089996725</v>
+        <v>0.9422008999778182</v>
       </c>
       <c r="F11">
-        <v>0.000125713687584838</v>
+        <v>0.0001257136876011515</v>
       </c>
       <c r="G11">
-        <v>0.3568259950255551</v>
+        <v>0.3568259950542443</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19.89079997810749</v>
+        <v>19.89079997857008</v>
       </c>
       <c r="B12">
-        <v>19361.26554025219</v>
+        <v>19361.26554018029</v>
       </c>
       <c r="C12">
-        <v>327.1370121350636</v>
+        <v>327.1370121447044</v>
       </c>
       <c r="D12">
-        <v>3227.852631655525</v>
+        <v>3227.852631793236</v>
       </c>
       <c r="E12">
-        <v>0.9240427440244939</v>
+        <v>0.9240427440384056</v>
       </c>
       <c r="F12">
-        <v>0.000163062594982712</v>
+        <v>0.0001630625950038364</v>
       </c>
       <c r="G12">
-        <v>0.3791959354247942</v>
+        <v>0.3791959354550685</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21.87987997591824</v>
+        <v>21.87987997642708</v>
       </c>
       <c r="B13">
-        <v>19111.45311221805</v>
+        <v>19111.45311213658</v>
       </c>
       <c r="C13">
-        <v>353.7525654999975</v>
+        <v>353.7525655109883</v>
       </c>
       <c r="D13">
-        <v>3854.144025219759</v>
+        <v>3854.14402538305</v>
       </c>
       <c r="E13">
-        <v>0.9003031264835403</v>
+        <v>0.9003031265008447</v>
       </c>
       <c r="F13">
-        <v>0.0002059775832992909</v>
+        <v>0.0002059775833259532</v>
       </c>
       <c r="G13">
-        <v>0.4009257693599905</v>
+        <v>0.4009257693917511</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>23.86895997372898</v>
+        <v>23.86895997428409</v>
       </c>
       <c r="B14">
-        <v>18868.05862484395</v>
+        <v>18868.05862475214</v>
       </c>
       <c r="C14">
-        <v>378.6953105294462</v>
+        <v>378.6953105419652</v>
       </c>
       <c r="D14">
-        <v>4521.729278764583</v>
+        <v>4521.729278955345</v>
       </c>
       <c r="E14">
-        <v>0.8705682179695097</v>
+        <v>0.8705682179887813</v>
       </c>
       <c r="F14">
-        <v>0.0002545306929828631</v>
+        <v>0.0002545306930158319</v>
       </c>
       <c r="G14">
-        <v>0.4221647764677774</v>
+        <v>0.4221647765009301</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>25.85803997153973</v>
+        <v>25.8580399721411</v>
       </c>
       <c r="B15">
-        <v>18632.70288864376</v>
+        <v>18632.70288854127</v>
       </c>
       <c r="C15">
-        <v>401.8039314086391</v>
+        <v>401.8039314227727</v>
       </c>
       <c r="D15">
-        <v>5226.388825877278</v>
+        <v>5226.388826097485</v>
       </c>
       <c r="E15">
-        <v>0.8357553578915663</v>
+        <v>0.8357553579093202</v>
       </c>
       <c r="F15">
-        <v>0.0003087405753324153</v>
+        <v>0.0003087405753724625</v>
       </c>
       <c r="G15">
-        <v>0.4430416322800402</v>
+        <v>0.4430416323144934</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>27.84711996935048</v>
+        <v>27.84711996999811</v>
       </c>
       <c r="B16">
-        <v>18406.75871393153</v>
+        <v>18406.75871381897</v>
       </c>
       <c r="C16">
-        <v>422.9733803672917</v>
+        <v>422.973380382912</v>
       </c>
       <c r="D16">
-        <v>5963.704959202006</v>
+        <v>5963.704959453386</v>
       </c>
       <c r="E16">
-        <v>0.7984614548801248</v>
+        <v>0.7984614548905421</v>
       </c>
       <c r="F16">
-        <v>0.0003685735987590908</v>
+        <v>0.0003685735988069762</v>
       </c>
       <c r="G16">
-        <v>0.4636698917327808</v>
+        <v>0.463669891768448</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>29.83619996716123</v>
+        <v>29.83619996785512</v>
       </c>
       <c r="B17">
-        <v>18190.89684387717</v>
+        <v>18190.89684375677</v>
       </c>
       <c r="C17">
-        <v>442.2490504419035</v>
+        <v>442.2490504585447</v>
       </c>
       <c r="D17">
-        <v>6729.24822264845</v>
+        <v>6729.248222931987</v>
       </c>
       <c r="E17">
-        <v>0.7621809182164232</v>
+        <v>0.762180918209847</v>
       </c>
       <c r="F17">
-        <v>0.0004339619870567715</v>
+        <v>0.0004339619871132197</v>
       </c>
       <c r="G17">
-        <v>0.4841480917400993</v>
+        <v>0.4841480917769168</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>31.82527996497198</v>
+        <v>31.82527996571212</v>
       </c>
       <c r="B18">
-        <v>17984.84331766075</v>
+        <v>17984.84331753732</v>
       </c>
       <c r="C18">
-        <v>459.8725919994098</v>
+        <v>459.872592016014</v>
       </c>
       <c r="D18">
-        <v>7518.888273568752</v>
+        <v>7518.888273883944</v>
       </c>
       <c r="E18">
-        <v>0.7297225922276033</v>
+        <v>0.7297225921913527</v>
       </c>
       <c r="F18">
-        <v>0.0005048289999788116</v>
+        <v>0.0005048290000444029</v>
       </c>
       <c r="G18">
-        <v>0.5045564325028584</v>
+        <v>0.5045564325408031</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>33.81435996278273</v>
+        <v>33.81435996356913</v>
       </c>
       <c r="B19">
-        <v>17787.56481108236</v>
+        <v>17787.56481096414</v>
       </c>
       <c r="C19">
-        <v>476.2327070840813</v>
+        <v>476.2327070988171</v>
       </c>
       <c r="D19">
-        <v>8329.083056150408</v>
+        <v>8329.08305649413</v>
       </c>
       <c r="E19">
-        <v>0.7022129355194412</v>
+        <v>0.7022129354354761</v>
       </c>
       <c r="F19">
-        <v>0.0005811207963600008</v>
+        <v>0.0005811207964350947</v>
       </c>
       <c r="G19">
-        <v>0.5249533934018724</v>
+        <v>0.5249533934409844</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>35.80343996059348</v>
+        <v>35.80343996142614</v>
       </c>
       <c r="B20">
-        <v>17597.72346493956</v>
+        <v>17597.72346483963</v>
       </c>
       <c r="C20">
-        <v>491.7558204206693</v>
+        <v>491.7558204305732</v>
       </c>
       <c r="D20">
-        <v>9157.019535879721</v>
+        <v>9157.01953624479</v>
       </c>
       <c r="E20">
-        <v>0.6793696393183718</v>
+        <v>0.6793696391618792</v>
       </c>
       <c r="F20">
-        <v>0.0006628276411748738</v>
+        <v>0.0006628276412594988</v>
       </c>
       <c r="G20">
-        <v>0.5453753496512499</v>
+        <v>0.5453753496916612</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>37.79251995840423</v>
+        <v>37.79251995928315</v>
       </c>
       <c r="B21">
-        <v>17414.05774143456</v>
+        <v>17414.05774137265</v>
       </c>
       <c r="C21">
-        <v>506.8183121524826</v>
+        <v>506.8183121529862</v>
       </c>
       <c r="D21">
-        <v>10000.5820686595</v>
+        <v>10000.582069032</v>
       </c>
       <c r="E21">
-        <v>0.6602681474872949</v>
+        <v>0.660268147217549</v>
       </c>
       <c r="F21">
-        <v>0.0007499910847511289</v>
+        <v>0.0007499910848445427</v>
       </c>
       <c r="G21">
-        <v>0.5658393341177859</v>
+        <v>0.5658393341597958</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>39.78159995621498</v>
+        <v>39.78159995714015</v>
       </c>
       <c r="B22">
-        <v>17235.55605399201</v>
+        <v>17235.55605399888</v>
       </c>
       <c r="C22">
-        <v>521.7106322136405</v>
+        <v>521.7106321974799</v>
       </c>
       <c r="D22">
-        <v>10858.21478854761</v>
+        <v>10858.21478890367</v>
       </c>
       <c r="E22">
-        <v>0.6439331541719008</v>
+        <v>0.643933153727866</v>
       </c>
       <c r="F22">
-        <v>0.0008426987147379677</v>
+        <v>0.0008426987148383335</v>
       </c>
       <c r="G22">
-        <v>0.5863476040639769</v>
+        <v>0.586347604108118</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>41.77067995402572</v>
+        <v>41.77067995499716</v>
       </c>
       <c r="B23">
-        <v>17061.47048730624</v>
+        <v>17061.47048742911</v>
       </c>
       <c r="C23">
-        <v>536.6403741888718</v>
+        <v>536.6403741446646</v>
       </c>
       <c r="D23">
-        <v>11728.76171807749</v>
+        <v>11728.76171837789</v>
       </c>
       <c r="E23">
-        <v>0.6295683643607891</v>
+        <v>0.6295683636498085</v>
       </c>
       <c r="F23">
-        <v>0.0009410740785173338</v>
+        <v>0.0009410740786210389</v>
       </c>
       <c r="G23">
-        <v>0.6068921521847954</v>
+        <v>0.6068921522319571</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>43.75975995183647</v>
+        <v>43.75975995285417</v>
       </c>
       <c r="B24">
-        <v>16891.26840224957</v>
+        <v>16891.26840256069</v>
       </c>
       <c r="C24">
-        <v>551.7494125747523</v>
+        <v>551.7494124847536</v>
       </c>
       <c r="D24">
-        <v>12611.33080933828</v>
+        <v>12611.33080952032</v>
       </c>
       <c r="E24">
-        <v>0.6166593114898647</v>
+        <v>0.6166593103777958</v>
       </c>
       <c r="F24">
-        <v>0.001045266767042942</v>
+        <v>0.001045266767143509</v>
       </c>
       <c r="G24">
-        <v>0.6274583448720701</v>
+        <v>0.6274583449236812</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>45.74883994964722</v>
+        <v>45.74883995071118</v>
       </c>
       <c r="B25">
-        <v>16724.55624432251</v>
+        <v>16724.55624493042</v>
       </c>
       <c r="C25">
-        <v>567.1367342439767</v>
+        <v>567.1367340810781</v>
       </c>
       <c r="D25">
-        <v>13505.19662212916</v>
+        <v>13505.19662209462</v>
       </c>
       <c r="E25">
-        <v>0.6048390970880529</v>
+        <v>0.6048390953886543</v>
       </c>
       <c r="F25">
-        <v>0.0011554445658725</v>
+        <v>0.001155444565958919</v>
       </c>
       <c r="G25">
-        <v>0.648027488387024</v>
+        <v>0.6480274884453143</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>47.73791994745797</v>
+        <v>47.73791994856818</v>
       </c>
       <c r="B26">
-        <v>16561.03964902359</v>
+        <v>16561.03965008712</v>
       </c>
       <c r="C26">
-        <v>582.8708810298215</v>
+        <v>582.8708807536998</v>
       </c>
       <c r="D26">
-        <v>14409.73574873168</v>
+        <v>14409.7357483299</v>
       </c>
       <c r="E26">
-        <v>0.5938788597123205</v>
+        <v>0.5938788571369744</v>
       </c>
       <c r="F26">
-        <v>0.001271787866013006</v>
+        <v>0.001271787866067247</v>
       </c>
       <c r="G26">
-        <v>0.6685785521522379</v>
+        <v>0.6685785522205969</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>49.72699994526872</v>
+        <v>49.7269999464252</v>
       </c>
       <c r="B27">
-        <v>16400.48612391637</v>
+        <v>16400.4861256724</v>
       </c>
       <c r="C27">
-        <v>599.0010692375452</v>
+        <v>599.0010687870823</v>
       </c>
       <c r="D27">
-        <v>15324.38402048262</v>
+        <v>15324.38401948552</v>
       </c>
       <c r="E27">
-        <v>0.5836800777036337</v>
+        <v>0.5836800738890939</v>
       </c>
       <c r="F27">
-        <v>0.001394485655603274</v>
+        <v>0.001394485655596469</v>
       </c>
       <c r="G27">
-        <v>0.6890893433260414</v>
+        <v>0.689089343409538</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>51.71607994307946</v>
+        <v>51.7160799442822</v>
       </c>
       <c r="B28">
-        <v>16242.68981162538</v>
+        <v>16242.68981440899</v>
       </c>
       <c r="C28">
-        <v>615.5674037781109</v>
+        <v>615.567403065573</v>
       </c>
       <c r="D28">
-        <v>16248.61248377295</v>
+        <v>16248.61248184098</v>
       </c>
       <c r="E28">
-        <v>0.5741936504830022</v>
+        <v>0.574193644940264</v>
       </c>
       <c r="F28">
-        <v>0.001523733203836976</v>
+        <v>0.001523733203723936</v>
       </c>
       <c r="G28">
-        <v>0.7095372218325384</v>
+        <v>0.7095372219386045</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>53.70515994089022</v>
+        <v>53.70515994213921</v>
       </c>
       <c r="B29">
-        <v>16087.4581289824</v>
+        <v>16087.45813326087</v>
       </c>
       <c r="C29">
-        <v>632.6050865047425</v>
+        <v>632.605085405955</v>
       </c>
       <c r="D29">
-        <v>17181.91567277641</v>
+        <v>17181.91566941449</v>
       </c>
       <c r="E29">
-        <v>0.5653756873084521</v>
+        <v>0.5653756793869782</v>
       </c>
       <c r="F29">
-        <v>0.001659730985128585</v>
+        <v>0.00165973098484031</v>
       </c>
       <c r="G29">
-        <v>0.7298995178489186</v>
+        <v>0.7298995179882058</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>55.69423993870097</v>
+        <v>55.69423993999622</v>
       </c>
       <c r="B30">
-        <v>15934.61035856123</v>
+        <v>15934.61036497769</v>
       </c>
       <c r="C30">
-        <v>650.1452807080732</v>
+        <v>650.1452790495701</v>
       </c>
       <c r="D30">
-        <v>18123.804370023</v>
+        <v>18123.80436452205</v>
       </c>
       <c r="E30">
-        <v>0.5572670048992818</v>
+        <v>0.5572671380960552</v>
       </c>
       <c r="F30">
-        <v>0.00180268401557584</v>
+        <v>0.001802684015009087</v>
       </c>
       <c r="G30">
-        <v>0.7501538356141668</v>
+        <v>0.7501538358016436</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>57.68331993651172</v>
+        <v>57.68331993785323</v>
       </c>
       <c r="B31">
-        <v>15783.95474824724</v>
+        <v>15783.95471865083</v>
       </c>
       <c r="C31">
-        <v>668.221786407706</v>
+        <v>668.221794696809</v>
       </c>
       <c r="D31">
-        <v>19073.80432808595</v>
+        <v>19073.80432723216</v>
       </c>
       <c r="E31">
-        <v>0.5498918500406877</v>
+        <v>0.5498919128372718</v>
       </c>
       <c r="F31">
-        <v>0.001952801963598955</v>
+        <v>0.0019528019638232</v>
       </c>
       <c r="G31">
-        <v>0.7702782152238371</v>
+        <v>0.7702782153130827</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>59.67239993432246</v>
+        <v>59.67239993571023</v>
       </c>
       <c r="B32">
-        <v>15635.2929908738</v>
+        <v>15635.29294429705</v>
       </c>
       <c r="C32">
-        <v>686.8702178404466</v>
+        <v>686.8702306942098</v>
       </c>
       <c r="D32">
-        <v>20031.45924929206</v>
+        <v>20031.45926345546</v>
       </c>
       <c r="E32">
-        <v>0.5432956796362522</v>
+        <v>0.5432954690401938</v>
       </c>
       <c r="F32">
-        <v>0.002110299914949617</v>
+        <v>0.00211029991762782</v>
       </c>
       <c r="G32">
-        <v>0.7902511952246249</v>
+        <v>0.7902511949968698</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>61.66147993213321</v>
+        <v>61.66147993356724</v>
       </c>
       <c r="B33">
-        <v>15488.41449012471</v>
+        <v>15488.4145004786</v>
       </c>
       <c r="C33">
-        <v>706.129993796315</v>
+        <v>706.129990429062</v>
       </c>
       <c r="D33">
-        <v>20996.33429220071</v>
+        <v>20996.33431327995</v>
       </c>
       <c r="E33">
-        <v>0.5375260252588554</v>
+        <v>0.5375260421697333</v>
       </c>
       <c r="F33">
-        <v>0.00227539927810019</v>
+        <v>0.002275399281839051</v>
       </c>
       <c r="G33">
-        <v>0.8100518616288196</v>
+        <v>0.8100518612571324</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>63.65055992994396</v>
+        <v>63.65055993142425</v>
       </c>
       <c r="B34">
-        <v>15343.09579965306</v>
+        <v>15343.09580543178</v>
       </c>
       <c r="C34">
-        <v>726.0449105234629</v>
+        <v>726.0449085268875</v>
       </c>
       <c r="D34">
-        <v>21968.02111320947</v>
+        <v>21968.02113101555</v>
       </c>
       <c r="E34">
-        <v>0.5326444081487273</v>
+        <v>0.5326444230295875</v>
       </c>
       <c r="F34">
-        <v>0.002448329133485629</v>
+        <v>0.002448329136527349</v>
       </c>
       <c r="G34">
-        <v>0.8296598621675145</v>
+        <v>0.8296598618648757</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>65.63963992775471</v>
+        <v>65.63963992928126</v>
       </c>
       <c r="B35">
-        <v>15199.09684101299</v>
+        <v>15199.09684276534</v>
       </c>
       <c r="C35">
-        <v>746.6646455355158</v>
+        <v>746.6646447373988</v>
       </c>
       <c r="D35">
-        <v>22946.14382258707</v>
+        <v>22946.14383890426</v>
       </c>
       <c r="E35">
-        <v>0.5287003126095348</v>
+        <v>0.5287002957733649</v>
       </c>
       <c r="F35">
-        <v>0.002629327912130236</v>
+        <v>0.002629327914790094</v>
       </c>
       <c r="G35">
-        <v>0.8490554007845991</v>
+        <v>0.8490554005145926</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>67.62871992556546</v>
+        <v>67.62871992713826</v>
       </c>
       <c r="B36">
-        <v>15056.16415781245</v>
+        <v>15056.1641641131</v>
       </c>
       <c r="C36">
-        <v>768.0442570768354</v>
+        <v>768.0442549815177</v>
       </c>
       <c r="D36">
-        <v>23930.36494656053</v>
+        <v>23930.36496131149</v>
       </c>
       <c r="E36">
-        <v>0.5257541551106819</v>
+        <v>0.5257541651198482</v>
       </c>
       <c r="F36">
-        <v>0.002818645194143239</v>
+        <v>0.002818645196402816</v>
       </c>
       <c r="G36">
-        <v>0.8682192342672321</v>
+        <v>0.8682192340306122</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>69.61779992337621</v>
+        <v>69.61779992499527</v>
       </c>
       <c r="B37">
-        <v>14914.02796023222</v>
+        <v>14914.02796382361</v>
       </c>
       <c r="C37">
-        <v>790.2454908949778</v>
+        <v>790.2454896262</v>
       </c>
       <c r="D37">
-        <v>24920.39130708537</v>
+        <v>24920.39131996322</v>
       </c>
       <c r="E37">
-        <v>0.5238492872774476</v>
+        <v>0.5238492506544642</v>
       </c>
       <c r="F37">
-        <v>0.003016543530055637</v>
+        <v>0.003016543531854906</v>
       </c>
       <c r="G37">
-        <v>0.8871326851164217</v>
+        <v>0.8871326849187349</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>71.60687992118696</v>
+        <v>71.60687992285227</v>
       </c>
       <c r="B38">
-        <v>14772.40673845975</v>
+        <v>14772.40675194877</v>
       </c>
       <c r="C38">
-        <v>813.3358723446271</v>
+        <v>813.335868165305</v>
       </c>
       <c r="D38">
-        <v>25915.97952300848</v>
+        <v>25915.9795327482</v>
       </c>
       <c r="E38">
-        <v>0.5230301938777077</v>
+        <v>0.5230302460596695</v>
       </c>
       <c r="F38">
-        <v>0.003223300969271928</v>
+        <v>0.00322330097034401</v>
       </c>
       <c r="G38">
-        <v>0.9057776241571115</v>
+        <v>0.9057776240217341</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>73.59595991899771</v>
+        <v>73.59595992070929</v>
       </c>
       <c r="B39">
-        <v>14631.00695634718</v>
+        <v>14631.00695572567</v>
       </c>
       <c r="C39">
-        <v>837.3892485777803</v>
+        <v>837.3892486575162</v>
       </c>
       <c r="D39">
-        <v>26916.94050531583</v>
+        <v>26916.94051270638</v>
       </c>
       <c r="E39">
-        <v>0.5233292998310937</v>
+        <v>0.5233293050554627</v>
       </c>
       <c r="F39">
-        <v>0.003439213069296255</v>
+        <v>0.003439213069819326</v>
       </c>
       <c r="G39">
-        <v>0.9241365125173184</v>
+        <v>0.9241365124280179</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>75.58503991680846</v>
+        <v>75.5850399185663</v>
       </c>
       <c r="B40">
-        <v>14489.52631175835</v>
+        <v>14489.52630972115</v>
       </c>
       <c r="C40">
-        <v>862.4852640501391</v>
+        <v>862.485264561898</v>
       </c>
       <c r="D40">
-        <v>27923.14338554848</v>
+        <v>27923.14339342192</v>
       </c>
       <c r="E40">
-        <v>0.5247610118739279</v>
+        <v>0.524761017083636</v>
       </c>
       <c r="F40">
-        <v>0.003664595077121695</v>
+        <v>0.003664595077711043</v>
       </c>
       <c r="G40">
-        <v>0.9421924452805827</v>
+        <v>0.9421924451841743</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>77.5741199146192</v>
+        <v>77.5741199164233</v>
       </c>
       <c r="B41">
-        <v>14347.65860773532</v>
+        <v>14347.6586042864</v>
       </c>
       <c r="C41">
-        <v>888.7083149014164</v>
+        <v>888.7083158464588</v>
       </c>
       <c r="D41">
-        <v>28934.51792420028</v>
+        <v>28934.51793306541</v>
       </c>
       <c r="E41">
-        <v>0.5273442222330517</v>
+        <v>0.5273441638265829</v>
       </c>
       <c r="F41">
-        <v>0.003899783982509185</v>
+        <v>0.00389978398327982</v>
       </c>
       <c r="G41">
-        <v>0.9599292190441244</v>
+        <v>0.959929218931822</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>79.56319991242995</v>
+        <v>79.5631999142803</v>
       </c>
       <c r="B42">
-        <v>14205.09253985835</v>
+        <v>14205.09255219614</v>
       </c>
       <c r="C42">
-        <v>916.1483255389699</v>
+        <v>916.1483216124867</v>
       </c>
       <c r="D42">
-        <v>29951.05627796416</v>
+        <v>29951.05628532069</v>
       </c>
       <c r="E42">
-        <v>0.5310624810700593</v>
+        <v>0.5310625000784255</v>
       </c>
       <c r="F42">
-        <v>0.004145140560917841</v>
+        <v>0.004145140561267587</v>
       </c>
       <c r="G42">
-        <v>0.9773314066416025</v>
+        <v>0.977331406557674</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>81.5522799102407</v>
+        <v>81.55227991213732</v>
       </c>
       <c r="B43">
-        <v>14061.52125087646</v>
+        <v>14061.52125807206</v>
       </c>
       <c r="C43">
-        <v>944.8981988650822</v>
+        <v>944.8981965564248</v>
       </c>
       <c r="D43">
-        <v>30972.81336147732</v>
+        <v>30972.81336547891</v>
       </c>
       <c r="E43">
-        <v>0.5358899115045445</v>
+        <v>0.5358899105200279</v>
       </c>
       <c r="F43">
-        <v>0.004401051186384184</v>
+        <v>0.004401051185870962</v>
       </c>
       <c r="G43">
-        <v>0.9943844498792316</v>
+        <v>0.9943844498542433</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>83.54135990805145</v>
+        <v>83.54135990999433</v>
       </c>
       <c r="B44">
-        <v>13916.64487928254</v>
+        <v>13916.64488674094</v>
       </c>
       <c r="C44">
-        <v>975.0533431963959</v>
+        <v>975.0533408101081</v>
       </c>
       <c r="D44">
-        <v>31999.90527472512</v>
+        <v>31999.90527620825</v>
       </c>
       <c r="E44">
-        <v>0.541774537327927</v>
+        <v>0.5417745350320713</v>
       </c>
       <c r="F44">
-        <v>0.004667929225276158</v>
+        <v>0.00466792922411277</v>
       </c>
       <c r="G44">
-        <v>1.011074774952168</v>
+        <v>1.01107477496977</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>85.5304399058622</v>
+        <v>85.53043990785133</v>
       </c>
       <c r="B45">
-        <v>13770.17761519526</v>
+        <v>13770.17762327093</v>
       </c>
       <c r="C45">
-        <v>1006.709726440683</v>
+        <v>1006.709723859171</v>
       </c>
       <c r="D45">
-        <v>33032.50637455484</v>
+        <v>33032.50637335707</v>
       </c>
       <c r="E45">
-        <v>0.5486534544258642</v>
+        <v>0.548653450853327</v>
       </c>
       <c r="F45">
-        <v>0.004946216065507525</v>
+        <v>0.004946216063655807</v>
       </c>
       <c r="G45">
-        <v>1.027389914902655</v>
+        <v>1.027389914963449</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>87.51951990367294</v>
+        <v>87.51951990570834</v>
       </c>
       <c r="B46">
-        <v>13621.85065468853</v>
+        <v>13621.85066372659</v>
       </c>
       <c r="C46">
-        <v>1039.963134229819</v>
+        <v>1039.963131335802</v>
       </c>
       <c r="D46">
-        <v>34070.84504238401</v>
+        <v>34070.8450382359</v>
       </c>
       <c r="E46">
-        <v>0.5564369586250559</v>
+        <v>0.5564369538172208</v>
       </c>
       <c r="F46">
-        <v>0.005236381725662101</v>
+        <v>0.005236381723051815</v>
       </c>
       <c r="G46">
-        <v>1.043318633641394</v>
+        <v>1.043318633747554</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>89.50859990148369</v>
+        <v>89.50859990356535</v>
       </c>
       <c r="B47">
-        <v>13471.41944511411</v>
+        <v>13471.41945544847</v>
       </c>
       <c r="C47">
-        <v>1074.906969447582</v>
+        <v>1074.906966124286</v>
       </c>
       <c r="D47">
-        <v>35115.19823751984</v>
+        <v>35115.19823002784</v>
       </c>
       <c r="E47">
-        <v>0.5650165457855705</v>
+        <v>0.5650165357886957</v>
       </c>
       <c r="F47">
-        <v>0.00553892498858649</v>
+        <v>0.005538924985112947</v>
       </c>
       <c r="G47">
-        <v>1.058851045462083</v>
+        <v>1.05885104561719</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>91.49767989929444</v>
+        <v>91.49767990142236</v>
       </c>
       <c r="B48">
-        <v>13318.66876762117</v>
+        <v>13318.66878065462</v>
       </c>
       <c r="C48">
-        <v>1111.630614243881</v>
+        <v>1111.630610018175</v>
       </c>
       <c r="D48">
-        <v>36165.88460450606</v>
+        <v>36165.88459299889</v>
       </c>
       <c r="E48">
-        <v>0.574265967188356</v>
+        <v>0.5742660410480185</v>
       </c>
       <c r="F48">
-        <v>0.005854372915565361</v>
+        <v>0.00585437291103868</v>
       </c>
       <c r="G48">
-        <v>1.073978729387845</v>
+        <v>1.073978729599109</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>93.48675989710519</v>
+        <v>93.48675989927936</v>
       </c>
       <c r="B49">
-        <v>13163.41753435473</v>
+        <v>13163.41752741683</v>
       </c>
       <c r="C49">
-        <v>1150.217756277236</v>
+        <v>1150.217758703006</v>
       </c>
       <c r="D49">
-        <v>37223.25664068857</v>
+        <v>37223.25662783028</v>
       </c>
       <c r="E49">
-        <v>0.58403912363832</v>
+        <v>0.5840391188737388</v>
       </c>
       <c r="F49">
-        <v>0.006183279798911488</v>
+        <v>0.006183279794166435</v>
       </c>
       <c r="G49">
-        <v>1.088694826506762</v>
+        <v>1.088694826732799</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>95.47583989491594</v>
+        <v>95.47583989713637</v>
       </c>
       <c r="B50">
-        <v>13005.5241549775</v>
+        <v>13005.52414932403</v>
       </c>
       <c r="C50">
-        <v>1190.74437749046</v>
+        <v>1190.74437948889</v>
       </c>
       <c r="D50">
-        <v>38287.69195228343</v>
+        <v>38287.69194097239</v>
       </c>
       <c r="E50">
-        <v>0.5941962735849493</v>
+        <v>0.5941962690737449</v>
       </c>
       <c r="F50">
-        <v>0.006526225487276561</v>
+        <v>0.00652622548322285</v>
       </c>
       <c r="G50">
-        <v>1.102994117398396</v>
+        <v>1.102994117597747</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>97.46491989272668</v>
+        <v>97.46491989499337</v>
       </c>
       <c r="B51">
-        <v>12844.88481789812</v>
+        <v>12844.88481346052</v>
       </c>
       <c r="C51">
-        <v>1233.278988802878</v>
+        <v>1233.278990392206</v>
       </c>
       <c r="D51">
-        <v>39359.58464736187</v>
+        <v>39359.58463716954</v>
       </c>
       <c r="E51">
-        <v>0.6045729409860271</v>
+        <v>0.6045729432730641</v>
       </c>
       <c r="F51">
-        <v>0.006883813354168534</v>
+        <v>0.006883813350682638</v>
       </c>
       <c r="G51">
-        <v>1.11687306390674</v>
+        <v>1.116873064085738</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>99.45399989053743</v>
+        <v>99.45399989285039</v>
       </c>
       <c r="B52">
-        <v>12681.44017717329</v>
+        <v>12681.4401721136</v>
       </c>
       <c r="C52">
-        <v>1277.879913868122</v>
+        <v>1277.879915680067</v>
       </c>
       <c r="D52">
-        <v>40439.33664058691</v>
+        <v>40439.33663140346</v>
       </c>
       <c r="E52">
-        <v>0.6150176769845805</v>
+        <v>0.6150176727182518</v>
       </c>
       <c r="F52">
-        <v>0.007256667807377546</v>
+        <v>0.007256667804432119</v>
       </c>
       <c r="G52">
-        <v>1.130329820243796</v>
+        <v>1.13032982040452</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>101.4430798883482</v>
+        <v>101.4430798907074</v>
       </c>
       <c r="B53">
-        <v>12515.1718306441</v>
+        <v>12515.17182673373</v>
       </c>
       <c r="C53">
-        <v>1324.595912465849</v>
+        <v>1324.595913892019</v>
       </c>
       <c r="D53">
-        <v>41527.34910032892</v>
+        <v>41527.34909314859</v>
       </c>
       <c r="E53">
-        <v>0.6253852501326116</v>
+        <v>0.6253852464555335</v>
       </c>
       <c r="F53">
-        <v>0.007645431397520889</v>
+        <v>0.007645431395113918</v>
       </c>
       <c r="G53">
-        <v>1.14336421303357</v>
+        <v>1.143364213181439</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>103.4321598861589</v>
+        <v>103.4321598885644</v>
       </c>
       <c r="B54">
-        <v>12346.10063907567</v>
+        <v>12346.10063615547</v>
       </c>
       <c r="C54">
-        <v>1373.466134867515</v>
+        <v>1373.466135951078</v>
       </c>
       <c r="D54">
-        <v>42624.01521307039</v>
+        <v>42624.01520653657</v>
       </c>
       <c r="E54">
-        <v>0.6355357497506157</v>
+        <v>0.6355357417900523</v>
       </c>
       <c r="F54">
-        <v>0.008050761928722561</v>
+        <v>0.008050761926729837</v>
       </c>
       <c r="G54">
-        <v>1.155977679616691</v>
+        <v>1.155977679753244</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>105.4212398839697</v>
+        <v>105.4212398864214</v>
       </c>
       <c r="B55">
-        <v>12174.28528770325</v>
+        <v>12174.28528693118</v>
       </c>
       <c r="C55">
-        <v>1424.519931218397</v>
+        <v>1424.519931533759</v>
       </c>
       <c r="D55">
-        <v>43729.71380895368</v>
+        <v>43729.71380261625</v>
       </c>
       <c r="E55">
-        <v>0.645354591955435</v>
+        <v>0.645354588588545</v>
       </c>
       <c r="F55">
-        <v>0.008473329463493041</v>
+        <v>0.008473329461748233</v>
       </c>
       <c r="G55">
-        <v>1.168173177183395</v>
+        <v>1.168173177314409</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>107.4103198817804</v>
+        <v>107.4103198842784</v>
       </c>
       <c r="B56">
-        <v>11999.81543920119</v>
+        <v>11999.81543933531</v>
       </c>
       <c r="C56">
-        <v>1477.778580124296</v>
+        <v>1477.778580109287</v>
       </c>
       <c r="D56">
-        <v>44844.80448801733</v>
+        <v>44844.80448143669</v>
       </c>
       <c r="E56">
-        <v>0.6547378391936728</v>
+        <v>0.6547378358495702</v>
       </c>
       <c r="F56">
-        <v>0.008913813500301071</v>
+        <v>0.008913813498638597</v>
       </c>
       <c r="G56">
-        <v>1.179955062121687</v>
+        <v>1.179955062252301</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>109.3993998795912</v>
+        <v>109.3993998821354</v>
       </c>
       <c r="B57">
-        <v>11822.80885547711</v>
+        <v>11822.80885651118</v>
       </c>
       <c r="C57">
-        <v>1533.255641094886</v>
+        <v>1533.255640743547</v>
       </c>
       <c r="D57">
-        <v>45969.62428992182</v>
+        <v>45969.62428283501</v>
       </c>
       <c r="E57">
-        <v>0.6635953198064277</v>
+        <v>0.6635953166221668</v>
       </c>
       <c r="F57">
-        <v>0.009372900422384081</v>
+        <v>0.009372900420703449</v>
       </c>
       <c r="G57">
-        <v>1.191328946531501</v>
+        <v>1.191328946664463</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>111.3884798774019</v>
+        <v>111.3884798799924</v>
       </c>
       <c r="B58">
-        <v>11643.4076760999</v>
+        <v>11643.40767799067</v>
       </c>
       <c r="C58">
-        <v>1590.957624772485</v>
+        <v>1590.957624092076</v>
       </c>
       <c r="D58">
-        <v>47104.48533849422</v>
+        <v>47104.48533064121</v>
       </c>
       <c r="E58">
-        <v>0.6718618248781529</v>
+        <v>0.6718618278646107</v>
       </c>
       <c r="F58">
-        <v>0.009851281071117145</v>
+        <v>0.009851281069317638</v>
       </c>
       <c r="G58">
-        <v>1.202301545292096</v>
+        <v>1.2023015454298</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>113.3775598752127</v>
+        <v>113.3775598778494</v>
       </c>
       <c r="B59">
-        <v>11461.77166969042</v>
+        <v>11461.77167076959</v>
       </c>
       <c r="C59">
-        <v>1650.885861744123</v>
+        <v>1650.885861366459</v>
       </c>
       <c r="D59">
-        <v>48249.67388795316</v>
+        <v>48249.67387930529</v>
       </c>
       <c r="E59">
-        <v>0.6794859749332769</v>
+        <v>0.6794859716749602</v>
       </c>
       <c r="F59">
-        <v>0.01034964868555131</v>
+        <v>0.0103496486836296</v>
       </c>
       <c r="G59">
-        <v>1.212880514448572</v>
+        <v>1.212880514590861</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>115.3666398730234</v>
+        <v>115.3666398757065</v>
       </c>
       <c r="B60">
-        <v>11278.07449517018</v>
+        <v>11278.07449712595</v>
       </c>
       <c r="C60">
-        <v>1713.037353390303</v>
+        <v>1713.037352664114</v>
       </c>
       <c r="D60">
-        <v>49405.45066646558</v>
+        <v>49405.45065699219</v>
       </c>
       <c r="E60">
-        <v>0.6864283454953296</v>
+        <v>0.6864283239067882</v>
       </c>
       <c r="F60">
-        <v>0.01086869724921287</v>
+        <v>0.01086869724716324</v>
       </c>
       <c r="G60">
-        <v>1.223074287257583</v>
+        <v>1.223074287404295</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>117.3557198708342</v>
+        <v>117.3557198735635</v>
       </c>
       <c r="B61">
-        <v>11092.50046976004</v>
+        <v>11092.50047754791</v>
       </c>
       <c r="C61">
-        <v>1777.405497387166</v>
+        <v>1777.405494332706</v>
       </c>
       <c r="D61">
-        <v>50572.05195722444</v>
+        <v>50572.05194600701</v>
       </c>
       <c r="E61">
-        <v>0.6926605351458545</v>
+        <v>0.6926605984449632</v>
       </c>
       <c r="F61">
-        <v>0.01140912007795971</v>
+        <v>0.01140912007537082</v>
       </c>
       <c r="G61">
-        <v>1.232891917316191</v>
+        <v>1.232891917475331</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>119.3447998686449</v>
+        <v>119.3447998714205</v>
       </c>
       <c r="B62">
-        <v>10905.24158892668</v>
+        <v>10905.24157959745</v>
       </c>
       <c r="C62">
-        <v>1843.980783360025</v>
+        <v>1843.980787179903</v>
       </c>
       <c r="D62">
-        <v>51749.6912657977</v>
+        <v>51749.69125427531</v>
       </c>
       <c r="E62">
-        <v>0.6981664860601123</v>
+        <v>0.6981664832628092</v>
       </c>
       <c r="F62">
-        <v>0.01197160863062272</v>
+        <v>0.01197160862819499</v>
       </c>
       <c r="G62">
-        <v>1.242342932147698</v>
+        <v>1.242342932305713</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>121.3338798664557</v>
+        <v>121.3338798692775</v>
       </c>
       <c r="B63">
-        <v>10716.49418932573</v>
+        <v>10716.49418074837</v>
       </c>
       <c r="C63">
-        <v>1912.751711258077</v>
+        <v>1912.751714823649</v>
       </c>
       <c r="D63">
-        <v>52938.56155239115</v>
+        <v>52938.5615426962</v>
       </c>
       <c r="E63">
-        <v>0.7029291003950359</v>
+        <v>0.7029290978574193</v>
       </c>
       <c r="F63">
-        <v>0.0125568515765322</v>
+        <v>0.0125568515753005</v>
       </c>
       <c r="G63">
-        <v>1.251437198486461</v>
+        <v>1.251437198624924</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>123.3229598642664</v>
+        <v>123.3229598671345</v>
       </c>
       <c r="B64">
-        <v>10526.45922996794</v>
+        <v>10526.45922207221</v>
       </c>
       <c r="C64">
-        <v>1983.704299761403</v>
+        <v>1983.704303095486</v>
       </c>
       <c r="D64">
-        <v>54138.83758268726</v>
+        <v>54138.83757465579</v>
       </c>
       <c r="E64">
-        <v>0.7069413647003085</v>
+        <v>0.7069413623884763</v>
       </c>
       <c r="F64">
-        <v>0.01316553393964748</v>
+        <v>0.01316553393953611</v>
       </c>
       <c r="G64">
-        <v>1.260184803393398</v>
+        <v>1.26018480351475</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>125.3120398620772</v>
+        <v>125.3120398649915</v>
       </c>
       <c r="B65">
-        <v>10335.33956593119</v>
+        <v>10335.33955865601</v>
       </c>
       <c r="C65">
-        <v>2056.822835927589</v>
+        <v>2056.822839049862</v>
       </c>
       <c r="D65">
-        <v>55350.67831219303</v>
+        <v>55350.67830567981</v>
       </c>
       <c r="E65">
-        <v>0.7101958083003169</v>
+        <v>0.7101958062421161</v>
       </c>
       <c r="F65">
-        <v>0.01379833629175648</v>
+        <v>0.01379833629269619</v>
       </c>
       <c r="G65">
-        <v>1.268595951102866</v>
+        <v>1.268595951209215</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>127.3011198598879</v>
+        <v>127.3011198628485</v>
       </c>
       <c r="B66">
-        <v>10143.34007197007</v>
+        <v>10143.34006524682</v>
       </c>
       <c r="C66">
-        <v>2132.08948075344</v>
+        <v>2132.089483692797</v>
       </c>
       <c r="D66">
-        <v>56574.22932720646</v>
+        <v>56574.22932220542</v>
       </c>
       <c r="E66">
-        <v>0.712684146107063</v>
+        <v>0.7126841441226047</v>
       </c>
       <c r="F66">
-        <v>0.01445593401157155</v>
+        <v>0.01445593401349753</v>
       </c>
       <c r="G66">
-        <v>1.276680874198031</v>
+        <v>1.276680874291929</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>129.2901998576987</v>
+        <v>129.2901998607055</v>
       </c>
       <c r="B67">
-        <v>9950.667862689961</v>
+        <v>9950.667856498731</v>
       </c>
       <c r="C67">
-        <v>2209.483800446857</v>
+        <v>2209.483803201206</v>
       </c>
       <c r="D67">
-        <v>57809.62497132558</v>
+        <v>57809.62496760062</v>
       </c>
       <c r="E67">
-        <v>0.7143916243610811</v>
+        <v>0.7143916225912785</v>
       </c>
       <c r="F67">
-        <v>0.01513899641769347</v>
+        <v>0.01513899642055227</v>
       </c>
       <c r="G67">
-        <v>1.284449760655393</v>
+        <v>1.284449760737683</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>131.2792798555094</v>
+        <v>131.2792798585625</v>
       </c>
       <c r="B68">
-        <v>9757.53404133486</v>
+        <v>9757.534035617598</v>
       </c>
       <c r="C68">
-        <v>2288.981565067998</v>
+        <v>2288.981567657544</v>
       </c>
       <c r="D68">
-        <v>59056.98996026025</v>
+        <v>59056.98995770724</v>
       </c>
       <c r="E68">
-        <v>0.7153131503580092</v>
+        <v>0.7153131487198895</v>
       </c>
       <c r="F68">
-        <v>0.0158481856470795</v>
+        <v>0.01584818565081621</v>
       </c>
       <c r="G68">
-        <v>1.291912696198897</v>
+        <v>1.291912696270962</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>133.2683598533202</v>
+        <v>133.2683598564195</v>
       </c>
       <c r="B69">
-        <v>9564.151087947421</v>
+        <v>9564.151082668523</v>
       </c>
       <c r="C69">
-        <v>2370.55542774758</v>
+        <v>2370.555430183133</v>
       </c>
       <c r="D69">
-        <v>60316.44084619883</v>
+        <v>60316.44084472586</v>
       </c>
       <c r="E69">
-        <v>0.7154227541026568</v>
+        <v>0.7154227525512623</v>
       </c>
       <c r="F69">
-        <v>0.01658415545498966</v>
+        <v>0.01658415545955417</v>
       </c>
       <c r="G69">
-        <v>1.299079617466652</v>
+        <v>1.299079617529688</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>135.2574398511309</v>
+        <v>135.2574398542765</v>
       </c>
       <c r="B70">
-        <v>9370.738503487446</v>
+        <v>9370.738498623465</v>
       </c>
       <c r="C70">
-        <v>2454.171814487599</v>
+        <v>2454.171816774674</v>
       </c>
       <c r="D70">
-        <v>61588.08684690565</v>
+        <v>61588.08684642816</v>
       </c>
       <c r="E70">
-        <v>0.7146997265860096</v>
+        <v>0.7146997251396532</v>
       </c>
       <c r="F70">
-        <v>0.01734754963916859</v>
+        <v>0.01734754964451331</v>
       </c>
       <c r="G70">
-        <v>1.30596027772535</v>
+        <v>1.305960277780409</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>137.2465198489417</v>
+        <v>137.2465198521335</v>
       </c>
       <c r="B71">
-        <v>9177.52138753868</v>
+        <v>9177.521383061225</v>
       </c>
       <c r="C71">
-        <v>2539.790838009146</v>
+        <v>2539.790840156118</v>
       </c>
       <c r="D71">
-        <v>62872.02988308569</v>
+        <v>62872.02988353116</v>
       </c>
       <c r="E71">
-        <v>0.7131087848484622</v>
+        <v>0.7131087897472328</v>
       </c>
       <c r="F71">
-        <v>0.0181389999582532</v>
+        <v>0.0181389999643324</v>
       </c>
       <c r="G71">
-        <v>1.312564224250066</v>
+        <v>1.312564224298109</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>139.2355998467524</v>
+        <v>139.2355998499905</v>
       </c>
       <c r="B72">
-        <v>8984.734378336472</v>
+        <v>8984.734372530173</v>
       </c>
       <c r="C72">
-        <v>2627.363585940507</v>
+        <v>2627.363588783876</v>
       </c>
       <c r="D72">
-        <v>64168.36402269462</v>
+        <v>64168.36402419527</v>
       </c>
       <c r="E72">
-        <v>0.7106114659304303</v>
+        <v>0.7106114644962105</v>
       </c>
       <c r="F72">
-        <v>0.01895912360979611</v>
+        <v>0.0189591236166977</v>
       </c>
       <c r="G72">
-        <v>1.318900784113757</v>
+        <v>1.318900784154323</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>141.2246798445632</v>
+        <v>141.2246798478475</v>
       </c>
       <c r="B73">
-        <v>8792.622512472104</v>
+        <v>8792.622507049071</v>
       </c>
       <c r="C73">
-        <v>2716.830625439012</v>
+        <v>2716.830628149475</v>
       </c>
       <c r="D73">
-        <v>65477.17402331017</v>
+        <v>65477.17402600933</v>
       </c>
       <c r="E73">
-        <v>0.7071405584713973</v>
+        <v>0.707140557116825</v>
       </c>
       <c r="F73">
-        <v>0.01980852003883647</v>
+        <v>0.01980852004665098</v>
       </c>
       <c r="G73">
-        <v>1.324979058842695</v>
+        <v>1.324979058875355</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>143.2137598423739</v>
+        <v>143.2137598457045</v>
       </c>
       <c r="B74">
-        <v>8601.448996944247</v>
+        <v>8601.448991882973</v>
       </c>
       <c r="C74">
-        <v>2808.116795493555</v>
+        <v>2808.116798076504</v>
       </c>
       <c r="D74">
-        <v>66798.53246439368</v>
+        <v>66798.53246823122</v>
       </c>
       <c r="E74">
-        <v>0.7026423470350551</v>
+        <v>0.7026423457483415</v>
       </c>
       <c r="F74">
-        <v>0.02068776668301792</v>
+        <v>0.02068776669170402</v>
       </c>
       <c r="G74">
-        <v>1.330807929137816</v>
+        <v>1.330807929163362</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>145.2028398401847</v>
+        <v>145.2028398435616</v>
       </c>
       <c r="B75">
-        <v>8411.491560572889</v>
+        <v>8411.491555855058</v>
       </c>
       <c r="C75">
-        <v>2901.131331201783</v>
+        <v>2901.13133366144</v>
       </c>
       <c r="D75">
-        <v>68132.49595688174</v>
+        <v>68132.49596180624</v>
       </c>
       <c r="E75">
-        <v>0.6970309443239682</v>
+        <v>0.6970309430819598</v>
       </c>
       <c r="F75">
-        <v>0.02159741389876465</v>
+        <v>0.02159741390828214</v>
       </c>
       <c r="G75">
-        <v>1.336396065071168</v>
+        <v>1.336396065090324</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>147.1919198379954</v>
+        <v>147.1919198414186</v>
       </c>
       <c r="B76">
-        <v>8223.051151573907</v>
+        <v>8223.051147187471</v>
       </c>
       <c r="C76">
-        <v>2995.761442490384</v>
+        <v>2995.761444827257</v>
       </c>
       <c r="D76">
-        <v>69479.10024346081</v>
+        <v>69479.10024941673</v>
       </c>
       <c r="E76">
-        <v>0.6902080594121097</v>
+        <v>0.6902080582127942</v>
       </c>
       <c r="F76">
-        <v>0.02253797886468434</v>
+        <v>0.02253797887499505</v>
       </c>
       <c r="G76">
-        <v>1.341751941713466</v>
+        <v>1.341751941726849</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>149.1809998358061</v>
+        <v>149.1809998392756</v>
       </c>
       <c r="B77">
-        <v>8036.455290846152</v>
+        <v>8036.455286779607</v>
       </c>
       <c r="C77">
-        <v>3091.868006586232</v>
+        <v>3091.868008800718</v>
       </c>
       <c r="D77">
-        <v>70838.35317612083</v>
+        <v>70838.35318305888</v>
       </c>
       <c r="E77">
-        <v>0.6820572952977612</v>
+        <v>0.6820572941311428</v>
       </c>
       <c r="F77">
-        <v>0.02350993760040369</v>
+        <v>0.0235099376114686</v>
       </c>
       <c r="G77">
-        <v>1.346883865224582</v>
+        <v>1.346883865232775</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>151.1700798336169</v>
+        <v>151.1700798371326</v>
       </c>
       <c r="B78">
-        <v>7852.062966899467</v>
+        <v>7852.062963144027</v>
       </c>
       <c r="C78">
-        <v>3189.279960362707</v>
+        <v>3189.279962453611</v>
       </c>
       <c r="D78">
-        <v>72210.22625388899</v>
+        <v>72210.22626176136</v>
       </c>
       <c r="E78">
-        <v>0.6724428175477107</v>
+        <v>0.6724428164068785</v>
       </c>
       <c r="F78">
-        <v>0.02451371602501306</v>
+        <v>0.02451371603679309</v>
       </c>
       <c r="G78">
-        <v>1.351799999125061</v>
+        <v>1.351799999128597</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>153.1591598314276</v>
+        <v>153.1591598349896</v>
       </c>
       <c r="B79">
-        <v>7670.269890711128</v>
+        <v>7670.269887259884</v>
       </c>
       <c r="C79">
-        <v>3287.787809010546</v>
+        <v>3287.787810975465</v>
       </c>
       <c r="D79">
-        <v>73594.6438245114</v>
+        <v>73594.64383327152</v>
       </c>
       <c r="E79">
-        <v>0.6612069420967976</v>
+        <v>0.6612069409772374</v>
       </c>
       <c r="F79">
-        <v>0.02554967841637325</v>
+        <v>0.02554967842882875</v>
       </c>
       <c r="G79">
-        <v>1.356508402621967</v>
+        <v>1.356508402621335</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>155.1482398292384</v>
+        <v>155.1482398328466</v>
       </c>
       <c r="B80">
-        <v>7491.514402714064</v>
+        <v>7491.514399561341</v>
       </c>
       <c r="C80">
-        <v>3387.136081716476</v>
+        <v>3387.136083551154</v>
       </c>
       <c r="D80">
-        <v>74991.47002227328</v>
+        <v>74991.47003186221</v>
       </c>
       <c r="E80">
-        <v>0.6481886743214675</v>
+        <v>0.6481886732119412</v>
       </c>
       <c r="F80">
-        <v>0.02661811384795582</v>
+        <v>0.0266181138610497</v>
       </c>
       <c r="G80">
-        <v>1.361017073179486</v>
+        <v>1.361017073175085</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>157.1373198270491</v>
+        <v>157.1373198307036</v>
       </c>
       <c r="B81">
-        <v>7316.278367797261</v>
+        <v>7316.278364940421</v>
       </c>
       <c r="C81">
-        <v>3487.018061152545</v>
+        <v>3487.018062852486</v>
       </c>
       <c r="D81">
-        <v>76400.49372810185</v>
+        <v>76400.49373848566</v>
       </c>
       <c r="E81">
-        <v>0.633191052120235</v>
+        <v>0.6331910510182776</v>
       </c>
       <c r="F81">
-        <v>0.02771922056913646</v>
+        <v>0.02771922058282287</v>
       </c>
       <c r="G81">
-        <v>1.365333992650573</v>
+        <v>1.365333992642877</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>159.1263998248599</v>
+        <v>159.1263998285606</v>
       </c>
       <c r="B82">
-        <v>7145.09689901503</v>
+        <v>7145.096896452122</v>
       </c>
       <c r="C82">
-        <v>3587.064760809305</v>
+        <v>3587.064762368338</v>
       </c>
       <c r="D82">
-        <v>77821.4109352534</v>
+        <v>77821.41094638483</v>
       </c>
       <c r="E82">
-        <v>0.6160388486118339</v>
+        <v>0.6160388475171554</v>
       </c>
       <c r="F82">
-        <v>0.02885308778493252</v>
+        <v>0.02885308779916774</v>
       </c>
       <c r="G82">
-        <v>1.369467179266012</v>
+        <v>1.369467179255416</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>161.1154798226706</v>
+        <v>161.1154798264176</v>
       </c>
       <c r="B83">
-        <v>6978.552481529686</v>
+        <v>6978.55247925885</v>
       </c>
       <c r="C83">
-        <v>3686.842788004341</v>
+        <v>3686.842789415877</v>
       </c>
       <c r="D83">
-        <v>79253.80521477861</v>
+        <v>79253.80522660904</v>
       </c>
       <c r="E83">
-        <v>0.5965750534375591</v>
+        <v>0.5965750523494938</v>
       </c>
       <c r="F83">
-        <v>0.03001967531777002</v>
+        <v>0.03001967533250832</v>
       </c>
       <c r="G83">
-        <v>1.373424741970305</v>
+        <v>1.373424741957181</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>163.1045598204814</v>
+        <v>163.1045598242746</v>
       </c>
       <c r="B84">
-        <v>6817.270047824513</v>
+        <v>6817.270045844086</v>
       </c>
       <c r="C84">
-        <v>3785.852110113986</v>
+        <v>3785.852111370987</v>
       </c>
       <c r="D84">
-        <v>80697.12804965055</v>
+        <v>80697.12806212986</v>
       </c>
       <c r="E84">
-        <v>0.574700783978096</v>
+        <v>0.5747007828995677</v>
       </c>
       <c r="F84">
-        <v>0.03121879257597877</v>
+        <v>0.03121879259117234</v>
       </c>
       <c r="G84">
-        <v>1.377214929883425</v>
+        <v>1.377214929868126</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>165.0936398182921</v>
+        <v>165.0936398221316</v>
       </c>
       <c r="B85">
-        <v>6661.901263028431</v>
+        <v>6661.901261335972</v>
       </c>
       <c r="C85">
-        <v>3883.531652775408</v>
+        <v>3883.531653871085</v>
       </c>
       <c r="D85">
-        <v>82150.6803720327</v>
+        <v>82150.68038510896</v>
       </c>
       <c r="E85">
-        <v>0.5504205598586098</v>
+        <v>0.5504205587996154</v>
       </c>
       <c r="F85">
-        <v>0.03245007806320397</v>
+        <v>0.0324500780788028</v>
       </c>
       <c r="G85">
-        <v>1.380846173219496</v>
+        <v>1.380846173202356</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>167.0827198161029</v>
+        <v>167.0827198199887</v>
       </c>
       <c r="B86">
-        <v>6513.096570402029</v>
+        <v>6513.096568992408</v>
       </c>
       <c r="C86">
-        <v>3979.275145480091</v>
+        <v>3979.275146409311</v>
       </c>
       <c r="D86">
-        <v>83613.59848014632</v>
+        <v>83613.59849376607</v>
       </c>
       <c r="E86">
-        <v>0.5238961751338488</v>
+        <v>0.5238961741076071</v>
       </c>
       <c r="F86">
-        <v>0.0337129823312716</v>
+        <v>0.03371298234722379</v>
       </c>
       <c r="G86">
-        <v>1.384327105397415</v>
+        <v>1.384327105378753</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>169.0717998139136</v>
+        <v>169.0717998178457</v>
       </c>
       <c r="B87">
-        <v>6371.462672625817</v>
+        <v>6371.462671490342</v>
       </c>
       <c r="C87">
-        <v>4072.460429704066</v>
+        <v>4072.460430464234</v>
       </c>
       <c r="D87">
-        <v>85084.84827777765</v>
+        <v>85084.84829188658</v>
       </c>
       <c r="E87">
-        <v>0.4954872249948888</v>
+        <v>0.4954872240136244</v>
       </c>
       <c r="F87">
-        <v>0.03500675818409468</v>
+        <v>0.03500675820034707</v>
       </c>
       <c r="G87">
-        <v>1.387666554839994</v>
+        <v>1.387666554820109</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>171.0608798117244</v>
+        <v>171.0608798157027</v>
       </c>
       <c r="B88">
-        <v>6237.509056804113</v>
+        <v>6237.509055930808</v>
       </c>
       <c r="C88">
-        <v>4162.491407400192</v>
+        <v>4162.491407991381</v>
       </c>
       <c r="D88">
-        <v>86563.23191991854</v>
+        <v>86563.23193446227</v>
       </c>
       <c r="E88">
-        <v>0.4657604551810211</v>
+        <v>0.465760454262197</v>
       </c>
       <c r="F88">
-        <v>0.03633046233201388</v>
+        <v>0.03633046234851281</v>
       </c>
       <c r="G88">
-        <v>1.390873495899928</v>
+        <v>1.390873495879099</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>173.0499598095352</v>
+        <v>173.0499598135597</v>
       </c>
       <c r="B89">
-        <v>6111.591991880991</v>
+        <v>6111.59199125316</v>
       </c>
       <c r="C89">
-        <v>4248.847495523402</v>
+        <v>4248.847495949283</v>
       </c>
       <c r="D89">
-        <v>88047.40882352965</v>
+        <v>88047.40883845153</v>
       </c>
       <c r="E89">
-        <v>0.4354439843267776</v>
+        <v>0.4354439834897866</v>
       </c>
       <c r="F89">
-        <v>0.03768297077599052</v>
+        <v>0.03768297079267897</v>
       </c>
       <c r="G89">
-        <v>1.393956953721114</v>
+        <v>1.393956953699599</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>175.0390398073459</v>
+        <v>175.0390398114167</v>
       </c>
       <c r="B90">
-        <v>5993.870901919527</v>
+        <v>5993.870901515237</v>
       </c>
       <c r="C90">
-        <v>4331.129697310589</v>
+        <v>4331.129697580119</v>
       </c>
       <c r="D90">
-        <v>89535.93295033203</v>
+        <v>89535.93296558141</v>
       </c>
       <c r="E90">
-        <v>0.4053292153070986</v>
+        <v>0.4053292145692431</v>
       </c>
       <c r="F90">
-        <v>0.03906301120003857</v>
+        <v>0.03906301121686581</v>
       </c>
       <c r="G90">
-        <v>1.396925870271495</v>
+        <v>1.396925870249528</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>177.0281198051566</v>
+        <v>177.0281198092737</v>
       </c>
       <c r="B91">
-        <v>5884.291257380517</v>
+        <v>5884.291257173159</v>
       </c>
       <c r="C91">
-        <v>4409.090522270035</v>
+        <v>4409.090522396845</v>
       </c>
       <c r="D91">
-        <v>91027.30186516134</v>
+        <v>91027.30188069154</v>
       </c>
       <c r="E91">
-        <v>0.3761514445357814</v>
+        <v>0.376151443892396</v>
       </c>
       <c r="F91">
-        <v>0.04046920878280488</v>
+        <v>0.0404692087997236</v>
       </c>
       <c r="G91">
-        <v>1.399788947203622</v>
+        <v>1.399788947181409</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>179.0171998029674</v>
+        <v>179.0171998071307</v>
       </c>
       <c r="B92">
-        <v>5782.599743350775</v>
+        <v>5782.59974331499</v>
       </c>
       <c r="C92">
-        <v>4482.639466361632</v>
+        <v>4482.639466359742</v>
       </c>
       <c r="D92">
-        <v>92520.00662292312</v>
+        <v>92520.00663869202</v>
       </c>
       <c r="E92">
-        <v>0.3484932115080751</v>
+        <v>0.3484932109601239</v>
       </c>
       <c r="F92">
-        <v>0.04190013458512554</v>
+        <v>0.04190013460209272</v>
       </c>
       <c r="G92">
-        <v>1.40255449129588</v>
+        <v>1.402554491273599</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>181.0062798007781</v>
+        <v>181.0062798049877</v>
       </c>
       <c r="B93">
-        <v>5688.385556958165</v>
+        <v>5688.385557068328</v>
       </c>
       <c r="C93">
-        <v>4551.825725423694</v>
+        <v>4551.825725308585</v>
       </c>
       <c r="D93">
-        <v>94012.5782816436</v>
+        <v>94012.57829761395</v>
       </c>
       <c r="E93">
-        <v>0.3227389597848506</v>
+        <v>0.3227389593262453</v>
       </c>
       <c r="F93">
-        <v>0.04335435341708042</v>
+        <v>0.04335435343405752</v>
       </c>
       <c r="G93">
-        <v>1.405230289134127</v>
+        <v>1.40523028911193</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>182.9953597985889</v>
+        <v>182.9953598028447</v>
       </c>
       <c r="B94">
-        <v>5601.133962065555</v>
+        <v>5601.133962297674</v>
       </c>
       <c r="C94">
-        <v>4616.806497051685</v>
+        <v>4616.806496838747</v>
       </c>
       <c r="D94">
-        <v>95503.62429370213</v>
+        <v>95503.62430984156</v>
       </c>
       <c r="E94">
-        <v>0.2990813190000789</v>
+        <v>0.2990813186222</v>
       </c>
       <c r="F94">
-        <v>0.0448304638366712</v>
+        <v>0.04483046385362447</v>
       </c>
       <c r="G94">
-        <v>1.407823524904203</v>
+        <v>1.407823524882216</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>184.9844397963996</v>
+        <v>184.9844398007017</v>
       </c>
       <c r="B95">
-        <v>5520.278145641228</v>
+        <v>5520.278145973626</v>
       </c>
       <c r="C95">
-        <v>4677.809129737524</v>
+        <v>4677.809129441369</v>
       </c>
       <c r="D95">
-        <v>96991.85909929205</v>
+        <v>96991.85911557593</v>
       </c>
       <c r="E95">
-        <v>0.277556814359076</v>
+        <v>0.2775568140515069</v>
       </c>
       <c r="F95">
-        <v>0.0463270823200141</v>
+        <v>0.04632708233691273</v>
       </c>
       <c r="G95">
-        <v>1.41034091053384</v>
+        <v>1.410340910512176</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>186.9735197942104</v>
+        <v>186.9735197985587</v>
       </c>
       <c r="B96">
-        <v>5445.241420164124</v>
+        <v>5445.241420577931</v>
       </c>
       <c r="C96">
-        <v>4735.105452820303</v>
+        <v>4735.105452454161</v>
       </c>
       <c r="D96">
-        <v>98476.09802072101</v>
+        <v>98476.09803712585</v>
       </c>
       <c r="E96">
-        <v>0.258096710726352</v>
+        <v>0.2580967104786475</v>
       </c>
       <c r="F96">
-        <v>0.0478429936116745</v>
+        <v>0.0478429936284941</v>
       </c>
       <c r="G96">
-        <v>1.412788193689407</v>
+        <v>1.412788193668149</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>188.9625997920211</v>
+        <v>188.9625997964157</v>
       </c>
       <c r="B97">
-        <v>5375.465680469037</v>
+        <v>5375.465680948188</v>
       </c>
       <c r="C97">
-        <v>4788.980724163082</v>
+        <v>4788.980723738604</v>
       </c>
       <c r="D97">
-        <v>99955.2782457687</v>
+        <v>99955.27826227475</v>
       </c>
       <c r="E97">
-        <v>0.240566756768835</v>
+        <v>0.2405667565714223</v>
       </c>
       <c r="F97">
-        <v>0.04937703059366082</v>
+        <v>0.04937703061038094</v>
       </c>
       <c r="G97">
-        <v>1.415170674373348</v>
+        <v>1.415170674352562</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>190.9516797898319</v>
+        <v>190.9516797942727</v>
       </c>
       <c r="B98">
-        <v>5310.429115871395</v>
+        <v>5310.429116402402</v>
       </c>
       <c r="C98">
-        <v>4839.718477801747</v>
+        <v>4839.718477329029</v>
       </c>
       <c r="D98">
-        <v>101428.4500178076</v>
+        <v>101428.4500343981</v>
       </c>
       <c r="E98">
-        <v>0.2248006105206413</v>
+        <v>0.2248006103651647</v>
       </c>
       <c r="F98">
-        <v>0.0509281186002128</v>
+        <v>0.05092811861681654</v>
       </c>
       <c r="G98">
-        <v>1.417493090422997</v>
+        <v>1.417493090402738</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>192.9407597876426</v>
+        <v>192.9407597921297</v>
       </c>
       <c r="B99">
-        <v>5249.654885782053</v>
+        <v>5249.65488635368</v>
       </c>
       <c r="C99">
-        <v>4887.589776121791</v>
+        <v>4887.589775609504</v>
       </c>
       <c r="D99">
-        <v>102894.7697250548</v>
+        <v>102894.7697417158</v>
       </c>
       <c r="E99">
-        <v>0.2106242187237925</v>
+        <v>0.2106242186030129</v>
       </c>
       <c r="F99">
-        <v>0.05249527314681995</v>
+        <v>0.05249527316329341</v>
       </c>
       <c r="G99">
-        <v>1.419759670915787</v>
+        <v>1.419759670896094</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>194.9298397854534</v>
+        <v>194.9298397899867</v>
       </c>
       <c r="B100">
-        <v>5192.713204434031</v>
+        <v>5192.713205036985</v>
       </c>
       <c r="C100">
-        <v>4932.847737465568</v>
+        <v>4932.847736921068</v>
       </c>
       <c r="D100">
-        <v>104353.4908867896</v>
+        <v>104353.4909035091</v>
       </c>
       <c r="E100">
-        <v>0.1978656802078103</v>
+        <v>0.1978656801156142</v>
       </c>
       <c r="F100">
-        <v>0.05407759388540388</v>
+        <v>0.05407759390173542</v>
       </c>
       <c r="G100">
-        <v>1.42197419328821</v>
+        <v>1.421974193269117</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>196.9189197832641</v>
+        <v>196.9189197878438</v>
       </c>
       <c r="B101">
-        <v>5139.220759071525</v>
+        <v>5139.220759698162</v>
       </c>
       <c r="C101">
-        <v>4975.724679658758</v>
+        <v>4975.724679088288</v>
       </c>
       <c r="D101">
-        <v>105803.955206262</v>
+        <v>105803.9552230301</v>
       </c>
       <c r="E101">
-        <v>0.1863644917513954</v>
+        <v>0.1863644916826979</v>
       </c>
       <c r="F101">
-        <v>0.05567426076418858</v>
+        <v>0.05567426078036924</v>
       </c>
       <c r="G101">
-        <v>1.424140030791587</v>
+        <v>1.424140030773118</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>198.9079997810749</v>
+        <v>198.9079997857008</v>
       </c>
       <c r="B102">
-        <v>5088.837628545542</v>
+        <v>5088.837629189581</v>
       </c>
       <c r="C102">
-        <v>5016.431560937916</v>
+        <v>5016.431560346743</v>
       </c>
       <c r="D102">
-        <v>107245.582844978</v>
+        <v>107245.582861786</v>
       </c>
       <c r="E102">
-        <v>0.1759750048870658</v>
+        <v>0.1759750048378841</v>
       </c>
       <c r="F102">
-        <v>0.0572845259918081</v>
+        <v>0.05728452600783089</v>
       </c>
       <c r="G102">
-        <v>1.426260203354989</v>
+        <v>1.426260203337161</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>200.8970797788856</v>
+        <v>200.8970797835578</v>
       </c>
       <c r="B103">
-        <v>5041.263267371833</v>
+        <v>5041.263268028059</v>
       </c>
       <c r="C103">
-        <v>5055.158712701224</v>
+        <v>5055.158712093843</v>
       </c>
       <c r="D103">
-        <v>108677.8635547662</v>
+        <v>108677.8635716066</v>
       </c>
       <c r="E103">
-        <v>0.1665673841176656</v>
+        <v>0.1665673840844326</v>
       </c>
       <c r="F103">
-        <v>0.05890770717122915</v>
+        <v>0.05890770718708854</v>
       </c>
       <c r="G103">
-        <v>1.428337421198414</v>
+        <v>1.42833742118124</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>202.8861597766964</v>
+        <v>202.8861597814148</v>
       </c>
       <c r="B104">
-        <v>4996.232230737628</v>
+        <v>4996.232231401792</v>
       </c>
       <c r="C104">
-        <v>5092.077226122586</v>
+        <v>5092.07722550276</v>
       </c>
       <c r="D104">
-        <v>110100.3485973339</v>
+        <v>110100.3486142005</v>
       </c>
       <c r="E104">
-        <v>0.1580267972755881</v>
+        <v>0.1580267972567622</v>
       </c>
       <c r="F104">
-        <v>0.06054318084825108</v>
+        <v>0.06054318086394283</v>
       </c>
       <c r="G104">
-        <v>1.430374123144431</v>
+        <v>1.43037412312792</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>204.8752397745071</v>
+        <v>204.8752397792718</v>
       </c>
       <c r="B105">
-        <v>4953.510118392536</v>
+        <v>4953.510119060797</v>
       </c>
       <c r="C105">
-        <v>5127.340536265571</v>
+        <v>5127.340535636796</v>
       </c>
       <c r="D105">
-        <v>111512.6434933086</v>
+        <v>111512.6435101956</v>
       </c>
       <c r="E105">
-        <v>0.1502525492029198</v>
+        <v>0.1502525491948464</v>
       </c>
       <c r="F105">
-        <v>0.06219037653631241</v>
+        <v>0.06219037655183353</v>
       </c>
       <c r="G105">
-        <v>1.432372510094</v>
+        <v>1.432372510078154</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>206.8643197723179</v>
+        <v>206.8643197771288</v>
       </c>
       <c r="B106">
-        <v>4912.889752746645</v>
+        <v>4912.889753416146</v>
       </c>
       <c r="C106">
-        <v>5161.086139771946</v>
+        <v>5161.086139136911</v>
       </c>
       <c r="D106">
-        <v>112914.4015872977</v>
+        <v>112914.4016042001</v>
       </c>
       <c r="E106">
-        <v>0.1431567156530757</v>
+        <v>0.1431567156538205</v>
       </c>
       <c r="F106">
-        <v>0.0638487712720127</v>
+        <v>0.06384877128736127</v>
       </c>
       <c r="G106">
-        <v>1.434334574123905</v>
+        <v>1.434334574108727</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>208.8533997701286</v>
+        <v>208.8533997749858</v>
       </c>
       <c r="B107">
-        <v>4874.18772628958</v>
+        <v>4874.187726957979</v>
       </c>
       <c r="C107">
-        <v>5193.43727794399</v>
+        <v>5193.437277304964</v>
       </c>
       <c r="D107">
-        <v>114305.3183869955</v>
+        <v>114305.3184039088</v>
       </c>
       <c r="E107">
-        <v>0.1366626618750487</v>
+        <v>0.1366626618830983</v>
       </c>
       <c r="F107">
-        <v>0.06551788471805869</v>
+        <v>0.06551788473323351</v>
       </c>
       <c r="G107">
-        <v>1.436262123671322</v>
+        <v>1.43626212365681</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>210.8424797679394</v>
+        <v>210.8424797728428</v>
       </c>
       <c r="B108">
-        <v>4837.241349506262</v>
+        <v>4837.241350171626</v>
       </c>
       <c r="C108">
-        <v>5224.504509414219</v>
+        <v>5224.504508773142</v>
       </c>
       <c r="D108">
-        <v>115685.1266069335</v>
+        <v>115685.1266238536</v>
       </c>
       <c r="E108">
-        <v>0.1307036395077701</v>
+        <v>0.1307036395218039</v>
       </c>
       <c r="F108">
-        <v>0.06719727479091664</v>
+        <v>0.06719727480591718</v>
       </c>
       <c r="G108">
-        <v>1.438156805300228</v>
+        <v>1.43815680528638</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>212.8315597657501</v>
+        <v>212.8315597706998</v>
       </c>
       <c r="B109">
-        <v>4801.905978118425</v>
+        <v>4801.905978779175</v>
       </c>
       <c r="C109">
-        <v>5254.387148401407</v>
+        <v>5254.387147759925</v>
       </c>
       <c r="D109">
-        <v>117053.5918403251</v>
+        <v>117053.5918572483</v>
       </c>
       <c r="E109">
-        <v>0.1252214819294089</v>
+        <v>0.1252214819483641</v>
       </c>
       <c r="F109">
-        <v>0.06888653377419164</v>
+        <v>0.06888653378901809</v>
       </c>
       <c r="G109">
-        <v>1.440020122513519</v>
+        <v>1.44002012250033</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>214.8206397635609</v>
+        <v>214.8206397685568</v>
       </c>
       <c r="B110">
-        <v>4768.0526930349</v>
+        <v>4768.052693689739</v>
       </c>
       <c r="C110">
-        <v>5283.174555620177</v>
+        <v>5283.174554979688</v>
       </c>
       <c r="D110">
-        <v>118410.5087839515</v>
+        <v>118410.5088008742</v>
       </c>
       <c r="E110">
-        <v>0.1201654464412143</v>
+        <v>0.1201654464642056</v>
       </c>
       <c r="F110">
-        <v>0.07058528487269379</v>
+        <v>0.07058528488734665</v>
       </c>
       <c r="G110">
-        <v>1.441853452026128</v>
+        <v>1.441853452013593</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>216.8097197613716</v>
+        <v>216.8097197664138</v>
       </c>
       <c r="B111">
-        <v>4735.566293314308</v>
+        <v>4735.566293962175</v>
       </c>
       <c r="C111">
-        <v>5310.947286655559</v>
+        <v>5310.947286017255</v>
       </c>
       <c r="D111">
-        <v>119755.6979458077</v>
+        <v>119755.6979627267</v>
       </c>
       <c r="E111">
-        <v>0.1154911957137027</v>
+        <v>0.1154911957400073</v>
       </c>
       <c r="F111">
-        <v>0.07229317916074758</v>
+        <v>0.07229317917522796</v>
       </c>
       <c r="G111">
-        <v>1.443658057864145</v>
+        <v>1.443658057852256</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>218.7987997591824</v>
+        <v>218.7987997642709</v>
       </c>
       <c r="B112">
-        <v>4704.343564491011</v>
+        <v>4704.34356513104</v>
       </c>
       <c r="C112">
-        <v>5337.77810618597</v>
+        <v>5337.778105550876</v>
       </c>
       <c r="D112">
-        <v>121089.0027721458</v>
+        <v>121089.0027890576</v>
       </c>
       <c r="E112">
-        <v>0.1111599136929283</v>
+        <v>0.1111599137219333</v>
       </c>
       <c r="F112">
-        <v>0.07400989288033909</v>
+        <v>0.07400989289464842</v>
       </c>
       <c r="G112">
-        <v>1.44543510360469</v>
+        <v>1.44543510359344</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>220.7878797569931</v>
+        <v>220.7878797621279</v>
       </c>
       <c r="B113">
-        <v>4674.291785913371</v>
+        <v>4674.291786544859</v>
       </c>
       <c r="C113">
-        <v>5363.73287991603</v>
+        <v>5363.732879285018</v>
       </c>
       <c r="D113">
-        <v>122410.287137688</v>
+        <v>122410.2871545897</v>
       </c>
       <c r="E113">
-        <v>0.1071375437147138</v>
+        <v>0.107137543745901</v>
       </c>
       <c r="F113">
-        <v>0.07573512504788581</v>
+        <v>0.0757351250620258</v>
       </c>
       <c r="G113">
-        <v>1.447185663026359</v>
+        <v>1.447185663015739</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>222.7769597548039</v>
+        <v>222.7769597599849</v>
       </c>
       <c r="B114">
-        <v>4645.327444055738</v>
+        <v>4645.327444678121</v>
       </c>
       <c r="C114">
-        <v>5388.871356992971</v>
+        <v>5388.87135636678</v>
       </c>
       <c r="D114">
-        <v>123719.4331498232</v>
+        <v>123719.4331667119</v>
       </c>
       <c r="E114">
-        <v>0.1033941447676316</v>
+        <v>0.1033941448005782</v>
       </c>
       <c r="F114">
-        <v>0.07746859533232671</v>
+        <v>0.0774685953462992</v>
       </c>
       <c r="G114">
-        <v>1.448910729400023</v>
+        <v>1.448910729390025</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>224.7660397526146</v>
+        <v>224.7660397578419</v>
       </c>
       <c r="B115">
-        <v>4617.375119862999</v>
+        <v>4617.375120475825</v>
       </c>
       <c r="C115">
-        <v>5413.247858047427</v>
+        <v>5413.247857426692</v>
       </c>
       <c r="D115">
-        <v>125016.3392244398</v>
+        <v>125016.3392413126</v>
       </c>
       <c r="E115">
-        <v>0.09990329080693322</v>
+        <v>0.0999032908412943</v>
       </c>
       <c r="F115">
-        <v>0.07921004217169347</v>
+        <v>0.07921004218550064</v>
       </c>
       <c r="G115">
-        <v>1.450611223613794</v>
+        <v>1.45061122360441</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>226.7551197504254</v>
+        <v>226.7551197556989</v>
       </c>
       <c r="B116">
-        <v>4590.366538488949</v>
+        <v>4590.366539091859</v>
       </c>
       <c r="C116">
-        <v>5436.911867434796</v>
+        <v>5436.911866820064</v>
       </c>
       <c r="D116">
-        <v>126300.9183955338</v>
+        <v>126300.9184123879</v>
       </c>
       <c r="E116">
-        <v>0.09664163001775147</v>
+        <v>0.09664163005322167</v>
       </c>
       <c r="F116">
-        <v>0.08095922109744523</v>
+        <v>0.08095922111108941</v>
       </c>
       <c r="G116">
-        <v>1.452288001301529</v>
+        <v>1.452288001292747</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>228.7441997482361</v>
+        <v>228.7441997535559</v>
       </c>
       <c r="B117">
-        <v>4564.23973818665</v>
+        <v>4564.239738779362</v>
       </c>
       <c r="C117">
-        <v>5459.908554345184</v>
+        <v>5459.908553736926</v>
       </c>
       <c r="D117">
-        <v>127573.0971740121</v>
+        <v>127573.0971908445</v>
       </c>
       <c r="E117">
-        <v>0.09358856610622952</v>
+        <v>0.093588566142564</v>
       </c>
       <c r="F117">
-        <v>0.08271590298021457</v>
+        <v>0.08271590299369845</v>
       </c>
       <c r="G117">
-        <v>1.453941859853014</v>
+        <v>1.453941859844824</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>230.7332797460469</v>
+        <v>230.7332797514129</v>
       </c>
       <c r="B118">
-        <v>4538.938325360867</v>
+        <v>4538.938325943164</v>
       </c>
       <c r="C118">
-        <v>5482.27927166062</v>
+        <v>5482.279271059238</v>
       </c>
       <c r="D118">
-        <v>128832.8135629712</v>
+        <v>128832.8135797792</v>
       </c>
       <c r="E118">
-        <v>0.0907256565807766</v>
+        <v>0.09072565661775339</v>
       </c>
       <c r="F118">
-        <v>0.08447987321948115</v>
+        <v>0.08447987323280728</v>
       </c>
       <c r="G118">
-        <v>1.455573542461767</v>
+        <v>1.455573542454159</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>232.7223597438576</v>
+        <v>232.7223597492699</v>
       </c>
       <c r="B119">
-        <v>4514.410892293508</v>
+        <v>4514.410892865238</v>
       </c>
       <c r="C119">
-        <v>5504.061913985192</v>
+        <v>5504.061913391017</v>
       </c>
       <c r="D119">
-        <v>130080.0161882187</v>
+        <v>130080.0162049998</v>
       </c>
       <c r="E119">
-        <v>0.08803657329015299</v>
+        <v>0.08803657332761627</v>
       </c>
       <c r="F119">
-        <v>0.08625093032079544</v>
+        <v>0.0862509303339665</v>
       </c>
       <c r="G119">
-        <v>1.457183743671947</v>
+        <v>1.457183743664912</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>234.7114397416684</v>
+        <v>234.7114397471269</v>
       </c>
       <c r="B120">
-        <v>4490.61044553751</v>
+        <v>4490.610446098556</v>
       </c>
       <c r="C120">
-        <v>5525.291299495578</v>
+        <v>5525.291298908905</v>
       </c>
       <c r="D120">
-        <v>131314.663309922</v>
+        <v>131314.6633266734</v>
       </c>
       <c r="E120">
-        <v>0.08550671812654669</v>
+        <v>0.08550671816434634</v>
       </c>
       <c r="F120">
-        <v>0.08802888479714062</v>
+        <v>0.08802888481015941</v>
       </c>
       <c r="G120">
-        <v>1.458773113801678</v>
+        <v>1.458773113795203</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>236.7005197394791</v>
+        <v>236.7005197449839</v>
       </c>
       <c r="B121">
-        <v>4467.493938204318</v>
+        <v>4467.493938754606</v>
       </c>
       <c r="C121">
-        <v>5545.999476636033</v>
+        <v>5545.999476057109</v>
       </c>
       <c r="D121">
-        <v>132536.7219121126</v>
+        <v>132536.7219288322</v>
       </c>
       <c r="E121">
-        <v>0.08312302830344252</v>
+        <v>0.08312302834143624</v>
       </c>
       <c r="F121">
-        <v>0.08981355821219812</v>
+        <v>0.08981355822506744</v>
       </c>
       <c r="G121">
-        <v>1.460342262791612</v>
+        <v>1.460342262785689</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>238.6895997372899</v>
+        <v>238.6895997428409</v>
       </c>
       <c r="B122">
-        <v>4445.021854893973</v>
+        <v>4445.021855433468</v>
       </c>
       <c r="C122">
-        <v>5566.216000395872</v>
+        <v>5566.215999824904</v>
       </c>
       <c r="D122">
-        <v>133746.1668920718</v>
+        <v>133746.1669087565</v>
       </c>
       <c r="E122">
-        <v>0.08087378864516094</v>
+        <v>0.08087378868323415</v>
       </c>
       <c r="F122">
-        <v>0.09160478231855156</v>
+        <v>0.09160478233127439</v>
       </c>
       <c r="G122">
-        <v>1.461891763638081</v>
+        <v>1.461891763632699</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>240.6786797351006</v>
+        <v>240.6786797406979</v>
       </c>
       <c r="B123">
-        <v>4423.157847372221</v>
+        <v>4423.157847900916</v>
       </c>
       <c r="C123">
-        <v>5585.968176821025</v>
+        <v>5585.968176258186</v>
       </c>
       <c r="D123">
-        <v>134942.980337722</v>
+        <v>134942.9803543694</v>
       </c>
       <c r="E123">
-        <v>0.07874846751853425</v>
+        <v>0.07874846755659803</v>
       </c>
       <c r="F123">
-        <v>0.0934023982807172</v>
+        <v>0.09340239829329658</v>
       </c>
       <c r="G123">
-        <v>1.463422155460781</v>
+        <v>1.463422155455929</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>242.6677597329113</v>
+        <v>242.6677597385549</v>
       </c>
       <c r="B124">
-        <v>4401.868414603021</v>
+        <v>4401.86841512093</v>
       </c>
       <c r="C124">
-        <v>5605.281279253923</v>
+        <v>5605.281278699355</v>
       </c>
       <c r="D124">
-        <v>136127.1508821525</v>
+        <v>136127.1508987602</v>
       </c>
       <c r="E124">
-        <v>0.07673757573947361</v>
+        <v>0.07673757577747038</v>
       </c>
       <c r="F124">
-        <v>0.09520625597325688</v>
+        <v>0.09520625598569574</v>
       </c>
       <c r="G124">
-        <v>1.464933946250593</v>
+        <v>1.464933946246261</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>244.6568397307221</v>
+        <v>244.6568397364119</v>
       </c>
       <c r="B125">
-        <v>4381.122620925292</v>
+        <v>4381.122621432445</v>
       </c>
       <c r="C125">
-        <v>5624.178740082961</v>
+        <v>5624.178739536784</v>
       </c>
       <c r="D125">
-        <v>137298.6731258494</v>
+        <v>137298.6731424152</v>
       </c>
       <c r="E125">
-        <v>0.07483254504109786</v>
+        <v>0.07483254507895351</v>
       </c>
       <c r="F125">
-        <v>0.09701621334540846</v>
+        <v>0.09701621335770973</v>
       </c>
       <c r="G125">
-        <v>1.466427615336892</v>
+        <v>1.46642761533307</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>246.6459197285328</v>
+        <v>246.645919734269</v>
       </c>
       <c r="B126">
-        <v>4360.891847085463</v>
+        <v>4360.891847581912</v>
       </c>
       <c r="C126">
-        <v>5642.682321267643</v>
+        <v>5642.682320729953</v>
       </c>
       <c r="D126">
-        <v>138457.5471185177</v>
+        <v>138457.547135039</v>
       </c>
       <c r="E126">
-        <v>0.07302562230434768</v>
+        <v>0.07302562234201256</v>
       </c>
       <c r="F126">
-        <v>0.09883213584480867</v>
+        <v>0.09883213585697537</v>
       </c>
       <c r="G126">
-        <v>1.467903615608099</v>
+        <v>1.467903615604778</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>248.6349997263436</v>
+        <v>248.634999732126</v>
       </c>
       <c r="B127">
-        <v>4341.149569864496</v>
+        <v>4341.149570350301</v>
       </c>
       <c r="C127">
-        <v>5660.812266209112</v>
+        <v>5660.812265679991</v>
       </c>
       <c r="D127">
-        <v>139603.7778934728</v>
+        <v>139603.7779099472</v>
       </c>
       <c r="E127">
-        <v>0.07130977759862357</v>
+        <v>0.07130977763604056</v>
       </c>
       <c r="F127">
-        <v>0.1006538958938273</v>
+        <v>0.1006538959058626</v>
       </c>
       <c r="G127">
-        <v>1.469362375514593</v>
+        <v>1.469362375511762</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>250.6240797241543</v>
+        <v>250.624079729983</v>
       </c>
       <c r="B128">
-        <v>4321.871166565852</v>
+        <v>4321.871167041095</v>
       </c>
       <c r="C128">
-        <v>5678.587435277449</v>
+        <v>5678.587434756953</v>
       </c>
       <c r="D128">
-        <v>140737.3750485032</v>
+        <v>140737.3750649286</v>
       </c>
       <c r="E128">
-        <v>0.06967862401099575</v>
+        <v>0.06967862404812586</v>
       </c>
       <c r="F128">
-        <v>0.102481372412821</v>
+        <v>0.1024813724247279</v>
       </c>
       <c r="G128">
-        <v>1.470804300879243</v>
+        <v>1.470804300876893</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>252.6131597219651</v>
+        <v>252.61315972784</v>
       </c>
       <c r="B129">
-        <v>4303.033741177436</v>
+        <v>4303.033741642204</v>
       </c>
       <c r="C129">
-        <v>5696.025426984869</v>
+        <v>5696.025426473043</v>
       </c>
       <c r="D129">
-        <v>141858.3523678939</v>
+        <v>141858.3523842678</v>
       </c>
       <c r="E129">
-        <v>0.06812634763695263</v>
+        <v>0.06812634767377673</v>
       </c>
       <c r="F129">
-        <v>0.1043144503853128</v>
+        <v>0.1043144503970943</v>
       </c>
       <c r="G129">
-        <v>1.472229776537474</v>
+        <v>1.472229776535595</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>254.6022397197758</v>
+        <v>254.602239725697</v>
       </c>
       <c r="B130">
-        <v>4284.615969460335</v>
+        <v>4284.615969914717</v>
       </c>
       <c r="C130">
-        <v>5713.142686540314</v>
+        <v>5713.142686037195</v>
       </c>
       <c r="D130">
-        <v>142966.7274809871</v>
+        <v>142966.7274973068</v>
       </c>
       <c r="E130">
-        <v>0.06664764627664808</v>
+        <v>0.06664764631313375</v>
       </c>
       <c r="F130">
-        <v>0.1061530204607091</v>
+        <v>0.1061530204723685</v>
       </c>
       <c r="G130">
-        <v>1.473639167825929</v>
+        <v>1.473639167824509</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>256.5913197175866</v>
+        <v>256.591319723554</v>
       </c>
       <c r="B131">
-        <v>4266.597960610855</v>
+        <v>4266.597961054952</v>
       </c>
       <c r="C131">
-        <v>5729.954603281784</v>
+        <v>5729.95460278739</v>
       </c>
       <c r="D131">
-        <v>144062.5215532399</v>
+        <v>144062.5215695032</v>
       </c>
       <c r="E131">
-        <v>0.06523768137494955</v>
+        <v>0.06523768141106999</v>
       </c>
       <c r="F131">
-        <v>0.1079969785906874</v>
+        <v>0.1079969786022277</v>
       </c>
       <c r="G131">
-        <v>1.475032821936361</v>
+        <v>1.475032821935392</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>258.5803997153973</v>
+        <v>258.580399721411</v>
       </c>
       <c r="B132">
-        <v>4248.961131915445</v>
+        <v>4248.961132349369</v>
       </c>
       <c r="C132">
-        <v>5746.475599899438</v>
+        <v>5746.47559941378</v>
       </c>
       <c r="D132">
-        <v>145145.7590064075</v>
+        <v>145145.7590226123</v>
       </c>
       <c r="E132">
-        <v>0.06389200978741696</v>
+        <v>0.06389200982321461</v>
       </c>
       <c r="F132">
-        <v>0.1098462256961135</v>
+        <v>0.1098462257075378</v>
       </c>
       <c r="G132">
-        <v>1.47641106914856</v>
+        <v>1.476411069148032</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>260.5694797132081</v>
+        <v>260.569479719268</v>
       </c>
       <c r="B133">
-        <v>4231.688101852504</v>
+        <v>4231.688102276347</v>
       </c>
       <c r="C133">
-        <v>5762.719207108606</v>
+        <v>5762.7192066317</v>
       </c>
       <c r="D133">
-        <v>146216.4672643076</v>
+        <v>146216.4672804515</v>
       </c>
       <c r="E133">
-        <v>0.06260656807926999</v>
+        <v>0.06260656811458581</v>
       </c>
       <c r="F133">
-        <v>0.1117006673607422</v>
+        <v>0.1117006673720535</v>
       </c>
       <c r="G133">
-        <v>1.477774223957061</v>
+        <v>1.477774223956964</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>262.5585597110189</v>
+        <v>262.558559717125</v>
       </c>
       <c r="B134">
-        <v>4214.762587438904</v>
+        <v>4214.762587852804</v>
       </c>
       <c r="C134">
-        <v>5778.698137880823</v>
+        <v>5778.698137412637</v>
       </c>
       <c r="D134">
-        <v>147274.6765216336</v>
+        <v>147274.6765377144</v>
       </c>
       <c r="E134">
-        <v>0.06137762612989473</v>
+        <v>0.06137762616492021</v>
       </c>
       <c r="F134">
-        <v>0.1135602135493355</v>
+        <v>0.1135602135605368</v>
       </c>
       <c r="G134">
-        <v>1.479122586101976</v>
+        <v>1.479122586102301</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>264.5476397088296</v>
+        <v>264.547639714982</v>
       </c>
       <c r="B135">
-        <v>4198.16931411942</v>
+        <v>4198.169314523466</v>
       </c>
       <c r="C135">
-        <v>5794.424352191915</v>
+        <v>5794.424351732471</v>
       </c>
       <c r="D135">
-        <v>148320.4195338077</v>
+        <v>148320.4195498232</v>
       </c>
       <c r="E135">
-        <v>0.06020175088712099</v>
+        <v>0.06020175092166891</v>
       </c>
       <c r="F135">
-        <v>0.1154247783485115</v>
+        <v>0.1154247783596059</v>
       </c>
       <c r="G135">
-        <v>1.480456441511929</v>
+        <v>1.480456441512668</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>266.5367197066403</v>
+        <v>266.536719712839</v>
       </c>
       <c r="B136">
-        <v>4181.893935455097</v>
+        <v>4181.893935849424</v>
       </c>
       <c r="C136">
-        <v>5809.909114653493</v>
+        <v>5809.909114202755</v>
       </c>
       <c r="D136">
-        <v>149353.7314254181</v>
+        <v>149353.7314413661</v>
       </c>
       <c r="E136">
-        <v>0.0590757799662754</v>
+        <v>0.05907578000046627</v>
       </c>
       <c r="F136">
-        <v>0.1172942797276322</v>
+        <v>0.1172942797386228</v>
       </c>
       <c r="G136">
-        <v>1.481776063169413</v>
+        <v>1.481776063170555</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>268.5257997044511</v>
+        <v>268.525799710696</v>
       </c>
       <c r="B137">
-        <v>4165.922959949015</v>
+        <v>4165.922960333728</v>
       </c>
       <c r="C137">
-        <v>5825.163047425339</v>
+        <v>5825.163046983298</v>
       </c>
       <c r="D137">
-        <v>150374.6495153398</v>
+        <v>150374.6495312176</v>
       </c>
       <c r="E137">
-        <v>0.05799679598693151</v>
+        <v>0.05799679602062962</v>
       </c>
       <c r="F137">
-        <v>0.1191686393178123</v>
+        <v>0.1191686393287022</v>
       </c>
       <c r="G137">
-        <v>1.483081711906345</v>
+        <v>1.483081711907881</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>270.5148797022619</v>
+        <v>270.5148797085531</v>
       </c>
       <c r="B138">
-        <v>4150.243684810079</v>
+        <v>4150.243685185316</v>
       </c>
       <c r="C138">
-        <v>5840.196178295412</v>
+        <v>5840.196177862021</v>
       </c>
       <c r="D138">
-        <v>151383.2131569479</v>
+        <v>151383.2131727539</v>
       </c>
       <c r="E138">
-        <v>0.0569621037272793</v>
+        <v>0.05696210376049641</v>
       </c>
       <c r="F138">
-        <v>0.1210477822074822</v>
+        <v>0.1210477822182743</v>
       </c>
       <c r="G138">
-        <v>1.484373637136353</v>
+        <v>1.484373637138274</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>272.5039597000726</v>
+        <v>272.5039597064101</v>
       </c>
       <c r="B139">
-        <v>4134.844135893032</v>
+        <v>4134.84413625893</v>
       </c>
       <c r="C139">
-        <v>5855.017984439066</v>
+        <v>5855.017984014281</v>
       </c>
       <c r="D139">
-        <v>152379.4635919492</v>
+        <v>152379.4636076805</v>
       </c>
       <c r="E139">
-        <v>0.05596920974883871</v>
+        <v>0.0559692097817091</v>
       </c>
       <c r="F139">
-        <v>0.1229316367530131</v>
+        <v>0.1229316367637106</v>
       </c>
       <c r="G139">
-        <v>1.485652077529812</v>
+        <v>1.48565207753211</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>274.4930396978833</v>
+        <v>274.4930397042671</v>
       </c>
       <c r="B140">
-        <v>4119.713013146895</v>
+        <v>4119.713013503556</v>
       </c>
       <c r="C140">
-        <v>5869.637429992569</v>
+        <v>5869.637429576382</v>
       </c>
       <c r="D140">
-        <v>153363.4441526522</v>
+        <v>153363.4441683059</v>
       </c>
       <c r="E140">
-        <v>0.05501580419208489</v>
+        <v>0.05501580422448932</v>
       </c>
       <c r="F140">
-        <v>0.1248201342739439</v>
+        <v>0.1248201342845501</v>
       </c>
       <c r="G140">
-        <v>1.486917262003899</v>
+        <v>1.486917262006563</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>276.4821196956941</v>
+        <v>276.4821197021241</v>
       </c>
       <c r="B141">
-        <v>4104.839640984887</v>
+        <v>4104.839641332444</v>
       </c>
       <c r="C141">
-        <v>5884.063001807081</v>
+        <v>5884.063001399441</v>
       </c>
       <c r="D141">
-        <v>154335.2002593011</v>
+        <v>154335.200274875</v>
       </c>
       <c r="E141">
-        <v>0.05409974448283111</v>
+        <v>0.0540997445148296</v>
       </c>
       <c r="F141">
-        <v>0.1267132088469186</v>
+        <v>0.1267132088574365</v>
       </c>
       <c r="G141">
-        <v>1.488169410416272</v>
+        <v>1.488169410419294</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>278.4711996935048</v>
+        <v>278.4711996999811</v>
       </c>
       <c r="B142">
-        <v>4090.213923059303</v>
+        <v>4090.213923397868</v>
       </c>
       <c r="C142">
-        <v>5898.302751287873</v>
+        <v>5898.302750888743</v>
       </c>
       <c r="D142">
-        <v>155294.7780479794</v>
+        <v>155294.7780634716</v>
       </c>
       <c r="E142">
-        <v>0.0532190366143114</v>
+        <v>0.0532190366458812</v>
       </c>
       <c r="F142">
-        <v>0.1286107976312024</v>
+        <v>0.1286107976416348</v>
       </c>
       <c r="G142">
-        <v>1.48940873274378</v>
+        <v>1.489408732747151</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>280.4602796913156</v>
+        <v>280.4602796978381</v>
       </c>
       <c r="B143">
-        <v>4075.826302096709</v>
+        <v>4075.826302426404</v>
       </c>
       <c r="C143">
-        <v>5912.364318102953</v>
+        <v>5912.364317712286</v>
       </c>
       <c r="D143">
-        <v>156242.225070273</v>
+        <v>156242.2250856812</v>
       </c>
       <c r="E143">
-        <v>0.05237183925561288</v>
+        <v>0.05237183928676224</v>
       </c>
       <c r="F143">
-        <v>0.1305128404216136</v>
+        <v>0.1305128404319635</v>
       </c>
       <c r="G143">
-        <v>1.490635430449024</v>
+        <v>1.490635430452736</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>282.4493596891263</v>
+        <v>282.4493596956951</v>
       </c>
       <c r="B144">
-        <v>4061.667718622444</v>
+        <v>4061.667718943389</v>
       </c>
       <c r="C144">
-        <v>5926.254961981154</v>
+        <v>5926.254961598907</v>
       </c>
       <c r="D144">
-        <v>157177.5901983231</v>
+        <v>157177.5902136455</v>
       </c>
       <c r="E144">
-        <v>0.0515564321458256</v>
+        <v>0.05155643217658282</v>
       </c>
       <c r="F144">
-        <v>0.132419279517217</v>
+        <v>0.1324192795274873</v>
       </c>
       <c r="G144">
-        <v>1.491849696938306</v>
+        <v>1.49184969694235</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>284.438439686937</v>
+        <v>284.4384396935521</v>
       </c>
       <c r="B145">
-        <v>4047.72957822968</v>
+        <v>4047.729578541985</v>
       </c>
       <c r="C145">
-        <v>5939.981586466996</v>
+        <v>5939.98158609313</v>
       </c>
       <c r="D145">
-        <v>158100.9235376164</v>
+        <v>158100.9235528507</v>
       </c>
       <c r="E145">
-        <v>0.05077119395816163</v>
+        <v>0.05077119398856442</v>
       </c>
       <c r="F145">
-        <v>0.1343300595990971</v>
+        <v>0.1343300596092906</v>
       </c>
       <c r="G145">
-        <v>1.493051717986421</v>
+        <v>1.49305171799079</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>286.4275196847478</v>
+        <v>286.4275196914091</v>
       </c>
       <c r="B146">
-        <v>4034.003724832851</v>
+        <v>4034.003725136619</v>
       </c>
       <c r="C146">
-        <v>5953.550757166654</v>
+        <v>5953.550756801138</v>
       </c>
       <c r="D146">
-        <v>159012.2763461145</v>
+        <v>159012.2763612587</v>
       </c>
       <c r="E146">
-        <v>0.05001463503238388</v>
+        <v>0.0500146350623492</v>
       </c>
       <c r="F146">
-        <v>0.136245127615034</v>
+        <v>0.1362451276251536</v>
       </c>
       <c r="G146">
-        <v>1.494241672134907</v>
+        <v>1.494241672139592</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>288.4165996825586</v>
+        <v>288.4165996892661</v>
       </c>
       <c r="B147">
-        <v>4020.482405071964</v>
+        <v>4020.482405367316</v>
       </c>
       <c r="C147">
-        <v>5966.968730583862</v>
+        <v>5966.968730226638</v>
       </c>
       <c r="D147">
-        <v>159911.7009598949</v>
+        <v>159911.700974947</v>
       </c>
       <c r="E147">
-        <v>0.04928535606012186</v>
+        <v>0.04928535608964109</v>
       </c>
       <c r="F147">
-        <v>0.1381644326720141</v>
+        <v>0.1381644326820627</v>
       </c>
       <c r="G147">
-        <v>1.495419731062069</v>
+        <v>1.495419731067061</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>290.4056796803693</v>
+        <v>290.4056796871232</v>
       </c>
       <c r="B148">
-        <v>4007.158243886212</v>
+        <v>4007.158244173273</v>
       </c>
       <c r="C148">
-        <v>5980.241471683861</v>
+        <v>5980.241471334867</v>
       </c>
       <c r="D148">
-        <v>160799.2507249077</v>
+        <v>160799.2507398659</v>
       </c>
       <c r="E148">
-        <v>0.04858204865815904</v>
+        <v>0.04858204868727956</v>
       </c>
       <c r="F148">
-        <v>0.1400879259362868</v>
+        <v>0.1400879259462672</v>
       </c>
       <c r="G148">
-        <v>1.496586059926269</v>
+        <v>1.496586059931563</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>292.39475967818</v>
+        <v>292.3947596849802</v>
       </c>
       <c r="B149">
-        <v>3994.024219932611</v>
+        <v>3994.024220211493</v>
       </c>
       <c r="C149">
-        <v>5993.374672386639</v>
+        <v>5993.374672045824</v>
       </c>
       <c r="D149">
-        <v>161674.9799338501</v>
+        <v>161674.9799487124</v>
       </c>
       <c r="E149">
-        <v>0.04790348823666619</v>
+        <v>0.04790348826534396</v>
       </c>
       <c r="F149">
-        <v>0.142015560539384</v>
+        <v>0.1420155605492991</v>
       </c>
       <c r="G149">
-        <v>1.497740817687287</v>
+        <v>1.497740817692873</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>294.3838396759908</v>
+        <v>294.3838396828372</v>
       </c>
       <c r="B150">
-        <v>3981.07364293269</v>
+        <v>3981.073643203516</v>
       </c>
       <c r="C150">
-        <v>6006.373768657831</v>
+        <v>6006.373768325127</v>
       </c>
       <c r="D150">
-        <v>162538.9437678999</v>
+        <v>162538.9437826642</v>
       </c>
       <c r="E150">
-        <v>0.04724852752468337</v>
+        <v>0.04724852755296038</v>
       </c>
       <c r="F150">
-        <v>0.1439472914900014</v>
+        <v>0.1439472914998539</v>
       </c>
       <c r="G150">
-        <v>1.498884157406566</v>
+        <v>1.498884157412436</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>296.3729196738016</v>
+        <v>296.3729196806942</v>
       </c>
       <c r="B151">
-        <v>3968.300132769542</v>
+        <v>3968.300133032426</v>
       </c>
       <c r="C151">
-        <v>6019.243956323099</v>
+        <v>6019.24395599845</v>
       </c>
       <c r="D151">
-        <v>163391.1982429065</v>
+        <v>163391.198257571</v>
       </c>
       <c r="E151">
-        <v>0.04661609068327961</v>
+        <v>0.04661609071119848</v>
       </c>
       <c r="F151">
-        <v>0.1458830755913002</v>
+        <v>0.1458830756010929</v>
       </c>
       <c r="G151">
-        <v>1.500016226528031</v>
+        <v>1.500016226534178</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>298.3619996716123</v>
+        <v>298.3619996785512</v>
       </c>
       <c r="B152">
-        <v>3955.697600176371</v>
+        <v>3955.697600431415</v>
       </c>
       <c r="C152">
-        <v>6031.990205718701</v>
+        <v>6031.990205402062</v>
       </c>
       <c r="D152">
-        <v>164231.8001596814</v>
+        <v>164231.8001742444</v>
       </c>
       <c r="E152">
-        <v>0.04600516794463112</v>
+        <v>0.04600516797222891</v>
       </c>
       <c r="F152">
-        <v>0.1478228713632319</v>
+        <v>0.1478228713729675</v>
       </c>
       <c r="G152">
-        <v>1.501137167140974</v>
+        <v>1.501137167147391</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>300.3510796694231</v>
+        <v>300.3510796764082</v>
       </c>
       <c r="B153">
-        <v>3943.260228874352</v>
+        <v>3943.260229121646</v>
       </c>
       <c r="C153">
-        <v>6044.6172752794</v>
+        <v>6044.617274970736</v>
       </c>
       <c r="D153">
-        <v>165060.8070580567</v>
+        <v>165060.8070725164</v>
       </c>
       <c r="E153">
-        <v>0.04541481072589816</v>
+        <v>0.04541481075300527</v>
       </c>
       <c r="F153">
-        <v>0.1497666389695189</v>
+        <v>0.1497666389792001</v>
       </c>
       <c r="G153">
-        <v>1.502247116226394</v>
+        <v>1.502247116233073</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>302.3401596672338</v>
+        <v>302.3401596742652</v>
       </c>
       <c r="B154">
-        <v>3930.982459031437</v>
+        <v>3930.982459271117</v>
       </c>
       <c r="C154">
-        <v>6057.129721554061</v>
+        <v>6057.129721253285</v>
       </c>
       <c r="D154">
-        <v>165878.2776272001</v>
+        <v>165878.2776415542</v>
       </c>
       <c r="E154">
-        <v>0.04484412716738177</v>
+        <v>0.04484412719422024</v>
       </c>
       <c r="F154">
-        <v>0.1517143399861351</v>
+        <v>0.1517143399957648</v>
       </c>
       <c r="G154">
-        <v>1.503346206328611</v>
+        <v>1.503346206335545</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>304.3292396650446</v>
+        <v>304.3292396721222</v>
       </c>
       <c r="B155">
-        <v>3918.858971927404</v>
+        <v>3918.858972159545</v>
       </c>
       <c r="C155">
-        <v>6069.531916079867</v>
+        <v>6069.531915786955</v>
       </c>
       <c r="D155">
-        <v>166684.2707769522</v>
+        <v>166684.2707911991</v>
       </c>
       <c r="E155">
-        <v>0.04429227805606457</v>
+        <v>0.0442922780825078</v>
       </c>
       <c r="F155">
-        <v>0.1536659376548486</v>
+        <v>0.1536659376644293</v>
       </c>
       <c r="G155">
-        <v>1.504434564908318</v>
+        <v>1.504434564915499</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>306.3183196628553</v>
+        <v>306.3183196699792</v>
       </c>
       <c r="B156">
-        <v>3906.884675720975</v>
+        <v>3906.88467594569</v>
       </c>
       <c r="C156">
-        <v>6081.828053917815</v>
+        <v>6081.828053632706</v>
       </c>
       <c r="D156">
-        <v>167478.8460084292</v>
+        <v>167478.8460225668</v>
       </c>
       <c r="E156">
-        <v>0.04375847309151164</v>
+        <v>0.04375847311758591</v>
       </c>
       <c r="F156">
-        <v>0.1556213966772744</v>
+        <v>0.155621396686809</v>
       </c>
       <c r="G156">
-        <v>1.50551231494137</v>
+        <v>1.505512314948793</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>308.3073996606661</v>
+        <v>308.3073996678362</v>
       </c>
       <c r="B157">
-        <v>3895.054692226436</v>
+        <v>3895.054692443826</v>
       </c>
       <c r="C157">
-        <v>6094.022163647795</v>
+        <v>6094.022163370431</v>
       </c>
       <c r="D157">
-        <v>168262.0634103649</v>
+        <v>168262.0634243917</v>
       </c>
       <c r="E157">
-        <v>0.04324196746690469</v>
+        <v>0.04324196749254869</v>
       </c>
       <c r="F157">
-        <v>0.1575806831468141</v>
+        <v>0.1575806831563051</v>
       </c>
       <c r="G157">
-        <v>1.50657957513915</v>
+        <v>1.506579575146805</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>310.2964796584768</v>
+        <v>310.2964796656932</v>
       </c>
       <c r="B158">
-        <v>3883.364344614556</v>
+        <v>3883.364344824742</v>
       </c>
       <c r="C158">
-        <v>6106.118116850439</v>
+        <v>6106.118116580741</v>
       </c>
       <c r="D158">
-        <v>169033.9836280453</v>
+        <v>169033.9836419595</v>
       </c>
       <c r="E158">
-        <v>0.04274205873212478</v>
+        <v>0.04274205875748655</v>
       </c>
       <c r="F158">
-        <v>0.1595437644944588</v>
+        <v>0.1595437645039089</v>
       </c>
       <c r="G158">
-        <v>1.507636460128752</v>
+        <v>1.507636460136632</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>312.2855596562875</v>
+        <v>312.2855596635502</v>
       </c>
       <c r="B159">
-        <v>3871.809145961572</v>
+        <v>3871.809146164632</v>
       </c>
       <c r="C159">
-        <v>6118.11963695848</v>
+        <v>6118.119636696413</v>
       </c>
       <c r="D159">
-        <v>169794.6678345823</v>
+        <v>169794.6678483824</v>
       </c>
       <c r="E159">
-        <v>0.04225808391398436</v>
+        <v>0.04225808393895784</v>
       </c>
       <c r="F159">
-        <v>0.1615106094376224</v>
+        <v>0.1615106094470342</v>
       </c>
       <c r="G159">
-        <v>1.508683080622679</v>
+        <v>1.508683080630778</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>314.2746396540983</v>
+        <v>314.2746396614072</v>
       </c>
       <c r="B160">
-        <v>3860.38478857671</v>
+        <v>3860.384788772753</v>
       </c>
       <c r="C160">
-        <v>6130.030307528306</v>
+        <v>6130.030307273802</v>
       </c>
       <c r="D160">
-        <v>170544.1777043574</v>
+        <v>170544.1777180419</v>
       </c>
       <c r="E160">
-        <v>0.04178941412284379</v>
+        <v>0.04178941414750667</v>
       </c>
       <c r="F160">
-        <v>0.1634811879318051</v>
+        <v>0.1634811879411814</v>
       </c>
       <c r="G160">
-        <v>1.509719543578737</v>
+        <v>1.50971954358705</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>316.2637196519091</v>
+        <v>316.2637196592642</v>
       </c>
       <c r="B161">
-        <v>3849.087134787789</v>
+        <v>3849.087134976902</v>
       </c>
       <c r="C161">
-        <v>6141.853579125916</v>
+        <v>6141.853578878929</v>
       </c>
       <c r="D161">
-        <v>171282.5753884224</v>
+        <v>171282.5754019896</v>
       </c>
       <c r="E161">
-        <v>0.0413354633614028</v>
+        <v>0.04133546338572116</v>
       </c>
       <c r="F161">
-        <v>0.1654554711247613</v>
+        <v>0.1654554711341043</v>
       </c>
       <c r="G161">
-        <v>1.510745952351183</v>
+        <v>1.510745952359702</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>318.2527996497198</v>
+        <v>318.2527996571212</v>
       </c>
       <c r="B162">
-        <v>3837.912205345395</v>
+        <v>3837.912205527674</v>
       </c>
       <c r="C162">
-        <v>6153.592779203073</v>
+        <v>6153.592778963543</v>
       </c>
       <c r="D162">
-        <v>172009.9234918885</v>
+        <v>172009.9235053372</v>
       </c>
       <c r="E162">
-        <v>0.0408956690979163</v>
+        <v>0.04089566912191541</v>
       </c>
       <c r="F162">
-        <v>0.1674334313134621</v>
+        <v>0.1674334313227743</v>
       </c>
       <c r="G162">
-        <v>1.511762406832565</v>
+        <v>1.511762406841282</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>320.2418796475305</v>
+        <v>320.2418796549782</v>
       </c>
       <c r="B163">
-        <v>3826.856173079033</v>
+        <v>3826.856173254568</v>
       </c>
       <c r="C163">
-        <v>6165.251116205766</v>
+        <v>6165.251115973643</v>
       </c>
       <c r="D163">
-        <v>172726.2850530393</v>
+        <v>172726.2850663678</v>
       </c>
       <c r="E163">
-        <v>0.04046950183327242</v>
+        <v>0.04046950185694176</v>
       </c>
       <c r="F163">
-        <v>0.169415041903327</v>
+        <v>0.169415041912611</v>
       </c>
       <c r="G163">
-        <v>1.512769003587765</v>
+        <v>1.512769003596675</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>322.2309596453413</v>
+        <v>322.2309596528352</v>
       </c>
       <c r="B164">
-        <v>3815.915353966844</v>
+        <v>3815.915354135725</v>
       </c>
       <c r="C164">
-        <v>6176.831686856207</v>
+        <v>6176.831686631435</v>
       </c>
       <c r="D164">
-        <v>173431.7235239632</v>
+        <v>173431.7235371701</v>
       </c>
       <c r="E164">
-        <v>0.04005646024122325</v>
+        <v>0.04005646026458692</v>
       </c>
       <c r="F164">
-        <v>0.1714002773693816</v>
+        <v>0.1714002773786399</v>
       </c>
       <c r="G164">
-        <v>1.513765835981266</v>
+        <v>1.513765835990363</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>324.2200396431521</v>
+        <v>324.2200396506923</v>
       </c>
       <c r="B165">
-        <v>3805.086199519149</v>
+        <v>3805.086199681461</v>
       </c>
       <c r="C165">
-        <v>6188.337482137748</v>
+        <v>6188.337481920279</v>
       </c>
       <c r="D165">
-        <v>174126.3027527471</v>
+        <v>174126.302765831</v>
       </c>
       <c r="E165">
-        <v>0.03965606861237209</v>
+        <v>0.039656068635407</v>
       </c>
       <c r="F165">
-        <v>0.1733891132196009</v>
+        <v>0.1733891132288359</v>
       </c>
       <c r="G165">
-        <v>1.514752994297125</v>
+        <v>1.514752994306402</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>326.2091196409628</v>
+        <v>326.2091196485493</v>
       </c>
       <c r="B166">
-        <v>3794.365289853001</v>
+        <v>3794.365290008836</v>
       </c>
       <c r="C166">
-        <v>6199.771392672199</v>
+        <v>6199.771392461972</v>
       </c>
       <c r="D166">
-        <v>174810.0869670617</v>
+        <v>174810.0869800214</v>
       </c>
       <c r="E166">
-        <v>0.03926787842196264</v>
+        <v>0.03926787844468999</v>
       </c>
       <c r="F166">
-        <v>0.1753815259601334</v>
+        <v>0.1753815259693476</v>
       </c>
       <c r="G166">
-        <v>1.515730565852551</v>
+        <v>1.515730565862003</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>328.1981996387735</v>
+        <v>328.1981996464063</v>
       </c>
       <c r="B167">
-        <v>3783.749326342896</v>
+        <v>3783.74932649234</v>
       </c>
       <c r="C167">
-        <v>6211.136214770288</v>
+        <v>6211.136214567249</v>
       </c>
       <c r="D167">
-        <v>175483.1407590922</v>
+        <v>175483.1407719261</v>
       </c>
       <c r="E167">
-        <v>0.03889146263938044</v>
+        <v>0.03889146266179429</v>
       </c>
       <c r="F167">
-        <v>0.1773774930624278</v>
+        <v>0.1773774930716236</v>
       </c>
       <c r="G167">
-        <v>1.51669863510517</v>
+        <v>1.516698635114789</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>330.1872796365843</v>
+        <v>330.1872796442633</v>
       </c>
       <c r="B168">
-        <v>3773.235125809889</v>
+        <v>3773.235125953029</v>
       </c>
       <c r="C168">
-        <v>6222.434654864826</v>
+        <v>6222.43465466892</v>
       </c>
       <c r="D168">
-        <v>176145.5290717049</v>
+        <v>176145.5290844119</v>
       </c>
       <c r="E168">
-        <v>0.03852641519777301</v>
+        <v>0.03852641521990254</v>
       </c>
       <c r="F168">
-        <v>0.1793769929320834</v>
+        <v>0.1793769929412633</v>
       </c>
       <c r="G168">
-        <v>1.517657283754525</v>
+        <v>1.517657283764306</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>332.1763596343951</v>
+        <v>332.1763596421203</v>
       </c>
       <c r="B169">
-        <v>3762.819614854096</v>
+        <v>3762.819614991011</v>
       </c>
       <c r="C169">
-        <v>6233.66933392487</v>
+        <v>6233.669333736049</v>
       </c>
       <c r="D169">
-        <v>176797.317185718</v>
+        <v>176797.3171982965</v>
       </c>
       <c r="E169">
-        <v>0.03817235176914598</v>
+        <v>0.0381723517909775</v>
       </c>
       <c r="F169">
-        <v>0.1813800048791774</v>
+        <v>0.1813800048883438</v>
       </c>
       <c r="G169">
-        <v>1.518606590838539</v>
+        <v>1.518606590848476</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>334.1654396322058</v>
+        <v>334.1654396399773</v>
       </c>
       <c r="B170">
-        <v>3752.499823977655</v>
+        <v>3752.499824108429</v>
       </c>
       <c r="C170">
-        <v>6244.842792259603</v>
+        <v>6244.842792077815</v>
       </c>
       <c r="D170">
-        <v>177438.5707082519</v>
+        <v>177438.5707207007</v>
       </c>
       <c r="E170">
-        <v>0.03782890757486761</v>
+        <v>0.03782890759645696</v>
       </c>
       <c r="F170">
-        <v>0.1833865090901244</v>
+        <v>0.1833865090992798</v>
       </c>
       <c r="G170">
-        <v>1.519546632824896</v>
+        <v>1.519546632834982</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>336.1545196300165</v>
+        <v>336.1545196378343</v>
       </c>
       <c r="B171">
-        <v>3742.272882299611</v>
+        <v>3742.272882424311</v>
       </c>
       <c r="C171">
-        <v>6255.95749376825</v>
+        <v>6255.957493593459</v>
       </c>
       <c r="D171">
-        <v>178069.3555621146</v>
+        <v>178069.3555744328</v>
       </c>
       <c r="E171">
-        <v>0.03749573469346301</v>
+        <v>0.03749573471472008</v>
       </c>
       <c r="F171">
-        <v>0.1853964866010353</v>
+        <v>0.1853964866101818</v>
       </c>
       <c r="G171">
-        <v>1.520477483697507</v>
+        <v>1.520477483707737</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>338.1435996278273</v>
+        <v>338.1435996356913</v>
       </c>
       <c r="B172">
-        <v>3732.136012998627</v>
+        <v>3732.136013117345</v>
       </c>
       <c r="C172">
-        <v>6267.015829459082</v>
+        <v>6267.015829291221</v>
       </c>
       <c r="D172">
-        <v>178689.7379761107</v>
+        <v>178689.7379882968</v>
       </c>
       <c r="E172">
-        <v>0.03717250544665889</v>
+        <v>0.03717250546763621</v>
       </c>
       <c r="F172">
-        <v>0.1874099192723647</v>
+        <v>0.1874099192815049</v>
       </c>
       <c r="G172">
-        <v>1.521399215038682</v>
+        <v>1.521399215049049</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>340.132679625638</v>
+        <v>340.1326796335483</v>
       </c>
       <c r="B173">
-        <v>3722.08652784029</v>
+        <v>3722.086527953104</v>
       </c>
       <c r="C173">
-        <v>6278.020122167934</v>
+        <v>6278.020122006951</v>
       </c>
       <c r="D173">
-        <v>179299.7844762704</v>
+        <v>179299.7844883237</v>
       </c>
       <c r="E173">
-        <v>0.03685890567573878</v>
+        <v>0.03685890569643867</v>
       </c>
       <c r="F173">
-        <v>0.1894267897649335</v>
+        <v>0.1894267897740696</v>
       </c>
       <c r="G173">
-        <v>1.522311896106855</v>
+        <v>1.522311896117355</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>342.1217596234488</v>
+        <v>342.1217596314053</v>
       </c>
       <c r="B174">
-        <v>3712.121823522137</v>
+        <v>3712.121823629123</v>
       </c>
       <c r="C174">
-        <v>6288.972629243727</v>
+        <v>6288.972629089573</v>
       </c>
       <c r="D174">
-        <v>179899.5618779188</v>
+        <v>179899.5618898379</v>
       </c>
       <c r="E174">
-        <v>0.03655463722330941</v>
+        <v>0.0365546372437371</v>
       </c>
       <c r="F174">
-        <v>0.1914470815171668</v>
+        <v>0.1914470815263011</v>
       </c>
       <c r="G174">
-        <v>1.523215593910344</v>
+        <v>1.523215593920969</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>344.1108396212595</v>
+        <v>344.1108396292623</v>
       </c>
       <c r="B175">
-        <v>3702.239377347742</v>
+        <v>3702.239377448974</v>
       </c>
       <c r="C175">
-        <v>6299.875546126235</v>
+        <v>6299.87554597886</v>
       </c>
       <c r="D175">
-        <v>180489.1372785019</v>
+        <v>180489.1372902858</v>
       </c>
       <c r="E175">
-        <v>0.03625941749940976</v>
+        <v>0.03625941751957196</v>
       </c>
       <c r="F175">
-        <v>0.1934707787233848</v>
+        <v>0.1934707787325195</v>
       </c>
       <c r="G175">
-        <v>1.524110373277595</v>
+        <v>1.524110373288341</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>346.0999196190703</v>
+        <v>346.0999196271193</v>
       </c>
       <c r="B176">
-        <v>3692.436743018098</v>
+        <v>3692.436743113652</v>
       </c>
       <c r="C176">
-        <v>6310.731009886649</v>
+        <v>6310.731009746003</v>
       </c>
       <c r="D176">
-        <v>181068.5780511856</v>
+        <v>181068.5780628332</v>
       </c>
       <c r="E176">
-        <v>0.0359729748081853</v>
+        <v>0.03597297482808398</v>
       </c>
       <c r="F176">
-        <v>0.1954978663132749</v>
+        <v>0.1954978663224125</v>
       </c>
       <c r="G176">
-        <v>1.524996296923677</v>
+        <v>1.524996296934538</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>348.088999616881</v>
+        <v>348.0889996249763</v>
       </c>
       <c r="B177">
-        <v>3682.711547686434</v>
+        <v>3682.711547776383</v>
       </c>
       <c r="C177">
-        <v>6321.541101352538</v>
+        <v>6321.54110121857</v>
       </c>
       <c r="D177">
-        <v>181637.9518391251</v>
+        <v>181637.9518506358</v>
       </c>
       <c r="E177">
-        <v>0.03569505329190627</v>
+        <v>0.03569505331154615</v>
       </c>
       <c r="F177">
-        <v>0.1975283299322973</v>
+        <v>0.1975283299414399</v>
       </c>
       <c r="G177">
-        <v>1.52587342551368</v>
+        <v>1.525873425524651</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>350.0780796146918</v>
+        <v>350.0780796228333</v>
       </c>
       <c r="B178">
-        <v>3673.061487676415</v>
+        <v>3673.061487760829</v>
       </c>
       <c r="C178">
-        <v>6332.307848913041</v>
+        <v>6332.307848785703</v>
       </c>
       <c r="D178">
-        <v>182197.3265504039</v>
+        <v>182197.3265617768</v>
       </c>
       <c r="E178">
-        <v>0.03542540846558179</v>
+        <v>0.03542540848496516</v>
       </c>
       <c r="F178">
-        <v>0.1995621559230935</v>
+        <v>0.1995621559322433</v>
       </c>
       <c r="G178">
-        <v>1.526741817722899</v>
+        <v>1.526741817733974</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>352.0671596125025</v>
+        <v>352.0671596206903</v>
       </c>
       <c r="B179">
-        <v>3663.484325407551</v>
+        <v>3663.484325486501</v>
       </c>
       <c r="C179">
-        <v>6343.03323096661</v>
+        <v>6343.033230845856</v>
       </c>
       <c r="D179">
-        <v>182746.7703536262</v>
+        <v>182746.77036486</v>
       </c>
       <c r="E179">
-        <v>0.03516380753256167</v>
+        <v>0.03516380755169436</v>
       </c>
       <c r="F179">
-        <v>0.2015993313079197</v>
+        <v>0.201599331317079</v>
       </c>
       <c r="G179">
-        <v>1.527601530293809</v>
+        <v>1.527601530304983</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>354.0562396103133</v>
+        <v>354.0562396185474</v>
       </c>
       <c r="B180">
-        <v>3653.977886235293</v>
+        <v>3653.97788630885</v>
       </c>
       <c r="C180">
-        <v>6353.719178545129</v>
+        <v>6353.719178430911</v>
       </c>
       <c r="D180">
-        <v>183286.3516740896</v>
+        <v>183286.3516851836</v>
       </c>
       <c r="E180">
-        <v>0.03491002879356325</v>
+        <v>0.03491002881244767</v>
       </c>
       <c r="F180">
-        <v>0.2036398437719281</v>
+        <v>0.2036398437810992</v>
       </c>
       <c r="G180">
-        <v>1.528452618090312</v>
+        <v>1.52845261810158</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>356.045319608124</v>
+        <v>356.0453196164044</v>
       </c>
       <c r="B181">
-        <v>3644.540055450886</v>
+        <v>3644.540055519118</v>
       </c>
       <c r="C181">
-        <v>6364.367577818201</v>
+        <v>6364.367577710471</v>
       </c>
       <c r="D181">
-        <v>183816.1391905279</v>
+        <v>183816.1392014812</v>
       </c>
       <c r="E181">
-        <v>0.03466386109461555</v>
+        <v>0.0346638611132558</v>
       </c>
       <c r="F181">
-        <v>0.2056836816473014</v>
+        <v>0.2056836816564865</v>
       </c>
       <c r="G181">
-        <v>1.529295134149276</v>
+        <v>1.529295134160631</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>358.0343996059348</v>
+        <v>358.0343996142614</v>
       </c>
       <c r="B182">
-        <v>3635.168775430472</v>
+        <v>3635.168775493446</v>
       </c>
       <c r="C182">
-        <v>6374.980272485785</v>
+        <v>6374.980272384495</v>
       </c>
       <c r="D182">
-        <v>184336.2018323877</v>
+        <v>184336.2018431994</v>
       </c>
       <c r="E182">
-        <v>0.03442510331119815</v>
+        <v>0.03442510332959813</v>
       </c>
       <c r="F182">
-        <v>0.2077308338982011</v>
+        <v>0.2077308339074023</v>
       </c>
       <c r="G182">
-        <v>1.530129129729508</v>
+        <v>1.530129129740946</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>360.0234796037455</v>
+        <v>360.0234796121184</v>
       </c>
       <c r="B183">
-        <v>3625.862042923659</v>
+        <v>3625.862042981442</v>
       </c>
       <c r="C183">
-        <v>6385.559066066803</v>
+        <v>6385.559065971906</v>
       </c>
       <c r="D183">
-        <v>184846.6087776177</v>
+        <v>184846.6087882872</v>
       </c>
       <c r="E183">
-        <v>0.03419356386601599</v>
+        <v>0.03419356388417742</v>
       </c>
       <c r="F183">
-        <v>0.209781290106495</v>
+        <v>0.2097812901157144</v>
       </c>
       <c r="G183">
-        <v>1.530954654358298</v>
+        <v>1.530954654369814</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>362.0125596015563</v>
+        <v>362.0125596099754</v>
       </c>
       <c r="B184">
-        <v>3616.617906472452</v>
+        <v>3616.617906525109</v>
       </c>
       <c r="C184">
-        <v>6396.105724090889</v>
+        <v>6396.105724002337</v>
       </c>
       <c r="D184">
-        <v>185347.4294509462</v>
+        <v>185347.4294614728</v>
       </c>
       <c r="E184">
-        <v>0.03396906027809352</v>
+        <v>0.03396906029602036</v>
       </c>
       <c r="F184">
-        <v>0.2118350404582294</v>
+        <v>0.2118350404674693</v>
       </c>
       <c r="G184">
-        <v>1.531771755875628</v>
+        <v>1.531771755887216</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>364.001639599367</v>
+        <v>364.0016396078324</v>
       </c>
       <c r="B185">
-        <v>3607.434463952087</v>
+        <v>3607.434463999685</v>
       </c>
       <c r="C185">
-        <v>6406.621976199912</v>
+        <v>6406.621976117662</v>
       </c>
       <c r="D185">
-        <v>185838.7335226247</v>
+        <v>185838.7335330074</v>
       </c>
       <c r="E185">
-        <v>0.03375141870720994</v>
+        <v>0.03375141872490671</v>
       </c>
       <c r="F185">
-        <v>0.2138920757308158</v>
+        <v>0.2138920757400785</v>
       </c>
       <c r="G185">
-        <v>1.532580480476174</v>
+        <v>1.53258048048783</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>365.9907195971778</v>
+        <v>365.9907196056894</v>
       </c>
       <c r="B186">
-        <v>3598.30986023503</v>
+        <v>3598.309860277631</v>
       </c>
       <c r="C186">
-        <v>6417.109518154344</v>
+        <v>6417.10951807835</v>
       </c>
       <c r="D186">
-        <v>186320.5909076154</v>
+        <v>186320.5909178535</v>
       </c>
       <c r="E186">
-        <v>0.03354047366109096</v>
+        <v>0.03354047367855889</v>
       </c>
       <c r="F186">
-        <v>0.2159523872809</v>
+        <v>0.2159523872901875</v>
       </c>
       <c r="G186">
-        <v>1.533380872749205</v>
+        <v>1.533380872760922</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>367.9797995949885</v>
+        <v>367.9797996035464</v>
       </c>
       <c r="B187">
-        <v>3589.242284934129</v>
+        <v>3589.242284971797</v>
       </c>
       <c r="C187">
-        <v>6427.570013795207</v>
+        <v>6427.570013725423</v>
       </c>
       <c r="D187">
-        <v>186793.0717652077</v>
+        <v>186793.0717753011</v>
       </c>
       <c r="E187">
-        <v>0.03333606752565321</v>
+        <v>0.03333606754289599</v>
       </c>
       <c r="F187">
-        <v>0.2180159670328915</v>
+        <v>0.2180159670422057</v>
       </c>
       <c r="G187">
-        <v>1.534172975716454</v>
+        <v>1.534172975728229</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>369.9688795927993</v>
+        <v>369.9688796014034</v>
       </c>
       <c r="B188">
-        <v>3580.229970272771</v>
+        <v>3580.229970305567</v>
       </c>
       <c r="C188">
-        <v>6438.00509690023</v>
+        <v>6438.005096836611</v>
       </c>
       <c r="D188">
-        <v>187256.2464990439</v>
+        <v>187256.2465089919</v>
       </c>
       <c r="E188">
-        <v>0.03313805025152529</v>
+        <v>0.03313805026854582</v>
       </c>
       <c r="F188">
-        <v>0.2200828074681276</v>
+        <v>0.2200828074774707</v>
       </c>
       <c r="G188">
-        <v>1.534956830868072</v>
+        <v>1.5349568308799</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>371.95795959061</v>
+        <v>371.9579595992604</v>
       </c>
       <c r="B189">
-        <v>3571.271189039776</v>
+        <v>3571.271189067763</v>
       </c>
       <c r="C189">
-        <v>6448.416372983129</v>
+        <v>6448.416372925632</v>
       </c>
       <c r="D189">
-        <v>187710.1857575386</v>
+        <v>187710.1857673404</v>
       </c>
       <c r="E189">
-        <v>0.03294627829258282</v>
+        <v>0.03294627830938256</v>
       </c>
       <c r="F189">
-        <v>0.2221529016146447</v>
+        <v>0.2221529016240188</v>
       </c>
       <c r="G189">
-        <v>1.535732478196731</v>
+        <v>1.535732478208606</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>373.9470395884208</v>
+        <v>373.9470395971175</v>
       </c>
       <c r="B190">
-        <v>3562.36425283127</v>
+        <v>3562.364252854508</v>
       </c>
       <c r="C190">
-        <v>6458.805420783029</v>
+        <v>6458.805420731605</v>
       </c>
       <c r="D190">
-        <v>188154.9604346681</v>
+        <v>188154.9604443236</v>
       </c>
       <c r="E190">
-        <v>0.03276061735571668</v>
+        <v>0.03276061737230113</v>
       </c>
       <c r="F190">
-        <v>0.2242262430374951</v>
+        <v>0.2242262430469023</v>
       </c>
       <c r="G190">
-        <v>1.536499956230071</v>
+        <v>1.536499956241989</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>375.9361195862315</v>
+        <v>375.9361195949745</v>
       </c>
       <c r="B191">
-        <v>3553.507509549151</v>
+        <v>3553.507509567699</v>
       </c>
       <c r="C191">
-        <v>6469.173794717503</v>
+        <v>6469.17379467211</v>
       </c>
       <c r="D191">
-        <v>188590.6416711484</v>
+        <v>188590.6416806572</v>
       </c>
       <c r="E191">
-        <v>0.03258093730350931</v>
+        <v>0.03258093731988057</v>
       </c>
       <c r="F191">
-        <v>0.2263028258297265</v>
+        <v>0.2263028258391689</v>
       </c>
       <c r="G191">
-        <v>1.537259302061228</v>
+        <v>1.537259302073184</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>377.9251995840423</v>
+        <v>377.9251995928315</v>
       </c>
       <c r="B192">
-        <v>3544.699342277613</v>
+        <v>3544.699342291531</v>
       </c>
       <c r="C192">
-        <v>6479.523025672497</v>
+        <v>6479.523025633091</v>
       </c>
       <c r="D192">
-        <v>189017.30085596</v>
+        <v>189017.3008653217</v>
       </c>
       <c r="E192">
-        <v>0.03240711542923885</v>
+        <v>0.0324071154453975</v>
       </c>
       <c r="F192">
-        <v>0.2283826446038833</v>
+        <v>0.2283826446133629</v>
       </c>
       <c r="G192">
-        <v>1.538010551377802</v>
+        <v>1.538010551389792</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>379.914279581853</v>
+        <v>379.9142795906885</v>
       </c>
       <c r="B193">
-        <v>3535.938167274277</v>
+        <v>3535.938167283623</v>
       </c>
       <c r="C193">
-        <v>6489.854622925188</v>
+        <v>6489.854622891725</v>
       </c>
       <c r="D193">
-        <v>189435.009628204</v>
+        <v>189435.0096374178</v>
       </c>
       <c r="E193">
-        <v>0.0322390350642244</v>
+        <v>0.03223903508017372</v>
       </c>
       <c r="F193">
-        <v>0.2304656944839733</v>
+        <v>0.2304656944934922</v>
       </c>
       <c r="G193">
-        <v>1.538753738489416</v>
+        <v>1.538753738501435</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>381.9033595796637</v>
+        <v>381.9033595885455</v>
       </c>
       <c r="B194">
-        <v>3527.222432337822</v>
+        <v>3527.222432342653</v>
       </c>
       <c r="C194">
-        <v>6500.170075639019</v>
+        <v>6500.170075611453</v>
       </c>
       <c r="D194">
-        <v>189843.8398792997</v>
+        <v>189843.8398883658</v>
       </c>
       <c r="E194">
-        <v>0.03207658545626717</v>
+        <v>0.03207658547201039</v>
       </c>
       <c r="F194">
-        <v>0.2325519710979961</v>
+        <v>0.2325519711075561</v>
       </c>
       <c r="G194">
-        <v>1.539488896353673</v>
+        <v>1.539488896365716</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>383.8924395774745</v>
+        <v>383.8924395864025</v>
       </c>
       <c r="B195">
-        <v>3518.55061520848</v>
+        <v>3518.550615208854</v>
       </c>
       <c r="C195">
-        <v>6510.470854353644</v>
+        <v>6510.470854331934</v>
       </c>
       <c r="D195">
-        <v>190243.8637555075</v>
+        <v>190243.8637644256</v>
       </c>
       <c r="E195">
-        <v>0.03191966155711434</v>
+        <v>0.03191966157265203</v>
       </c>
       <c r="F195">
-        <v>0.2346414705709665</v>
+        <v>0.2346414705805696</v>
       </c>
       <c r="G195">
-        <v>1.540216056600664</v>
+        <v>1.540216056612728</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>385.8815195752853</v>
+        <v>385.8815195842595</v>
       </c>
       <c r="B196">
-        <v>3509.921222025992</v>
+        <v>3509.921222021966</v>
       </c>
       <c r="C196">
-        <v>6520.758412437878</v>
+        <v>6520.758412421981</v>
       </c>
       <c r="D196">
-        <v>190635.1536607672</v>
+        <v>190635.1536695367</v>
       </c>
       <c r="E196">
-        <v>0.03176816382042637</v>
+        <v>0.03176816383576196</v>
       </c>
       <c r="F196">
-        <v>0.2367341895184261</v>
+        <v>0.2367341895280745</v>
       </c>
       <c r="G196">
-        <v>1.540935249556097</v>
+        <v>1.540935249568176</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>387.870599573096</v>
+        <v>387.8705995821165</v>
       </c>
       <c r="B197">
-        <v>3501.332785842182</v>
+        <v>3501.33278583381</v>
       </c>
       <c r="C197">
-        <v>6531.034187507721</v>
+        <v>6531.034187497594</v>
       </c>
       <c r="D197">
-        <v>191017.782259846</v>
+        <v>191017.7822684666</v>
       </c>
       <c r="E197">
-        <v>0.03162199801575314</v>
+        <v>0.03162199803088845</v>
       </c>
       <c r="F197">
-        <v>0.238830125040431</v>
+        <v>0.2388301250501266</v>
       </c>
       <c r="G197">
-        <v>1.541646504263054</v>
+        <v>1.541646504275143</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <v>389.8596795709067</v>
+        <v>389.8596795799735</v>
       </c>
       <c r="B198">
-        <v>3492.783865183813</v>
+        <v>3492.78386517115</v>
       </c>
       <c r="C198">
-        <v>6541.299602813536</v>
+        <v>6541.299602809136</v>
       </c>
       <c r="D198">
-        <v>191391.8224817906</v>
+        <v>191391.8224902624</v>
       </c>
       <c r="E198">
-        <v>0.03148107505526891</v>
+        <v>0.03148107507020629</v>
       </c>
       <c r="F198">
-        <v>0.2409292747160023</v>
+        <v>0.2409292747257472</v>
       </c>
       <c r="G198">
-        <v>1.542349848502459</v>
+        <v>1.542349848514555</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>391.8487595687175</v>
+        <v>391.8487595778305</v>
       </c>
       <c r="B199">
-        <v>3484.273042662302</v>
+        <v>3484.273042645404</v>
       </c>
       <c r="C199">
-        <v>6551.556068599484</v>
+        <v>6551.556068600767</v>
       </c>
       <c r="D199">
-        <v>191757.3475236777</v>
+        <v>191757.3475320008</v>
       </c>
       <c r="E199">
-        <v>0.03134531083151724</v>
+        <v>0.03134531084625911</v>
       </c>
       <c r="F199">
-        <v>0.2430316365980333</v>
+        <v>0.2430316366078291</v>
       </c>
       <c r="G199">
-        <v>1.543045308812266</v>
+        <v>1.543045308824364</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>393.8378395665283</v>
+        <v>393.8378395756876</v>
       </c>
       <c r="B200">
-        <v>3475.798923627286</v>
+        <v>3475.798923606205</v>
       </c>
       <c r="C200">
-        <v>6561.80498343781</v>
+        <v>6561.804983444737</v>
       </c>
       <c r="D200">
-        <v>192114.4308546568</v>
+        <v>192114.4308628308</v>
       </c>
       <c r="E200">
-        <v>0.03121462606890474</v>
+        <v>0.03121462608345285</v>
       </c>
       <c r="F200">
-        <v>0.2451372092086394</v>
+        <v>0.2451372092184882</v>
       </c>
       <c r="G200">
-        <v>1.543732910505425</v>
+        <v>1.543732910517521</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>395.826919564339</v>
+        <v>395.8269195735446</v>
       </c>
       <c r="B201">
-        <v>3467.360134860341</v>
+        <v>3467.36013483513</v>
       </c>
       <c r="C201">
-        <v>6572.047735541657</v>
+        <v>6572.047735554183</v>
       </c>
       <c r="D201">
-        <v>192463.1462202831</v>
+        <v>192463.146228308</v>
       </c>
       <c r="E201">
-        <v>0.03108894633964992</v>
+        <v>0.03108894635401583</v>
       </c>
       <c r="F201">
-        <v>0.2472459915349478</v>
+        <v>0.2472459915448516</v>
       </c>
       <c r="G201">
-        <v>1.544412677686649</v>
+        <v>1.544412677698739</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <v>397.8159995621497</v>
+        <v>397.8159995714016</v>
       </c>
       <c r="B202">
-        <v>3458.955323264389</v>
+        <v>3458.9553232351</v>
       </c>
       <c r="C202">
-        <v>6582.285704112151</v>
+        <v>6582.28570413024</v>
       </c>
       <c r="D202">
-        <v>192803.567647138</v>
+        <v>192803.5676550138</v>
       </c>
       <c r="E202">
-        <v>0.03096820132407593</v>
+        <v>0.03096820133824122</v>
       </c>
       <c r="F202">
-        <v>0.2493579830253251</v>
+        <v>0.2493579830352858</v>
       </c>
       <c r="G202">
-        <v>1.545084633267996</v>
+        <v>1.545084633280076</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>399.8050795599605</v>
+        <v>399.8050795692586</v>
       </c>
       <c r="B203">
-        <v>3450.583154753089</v>
+        <v>3450.583154719775</v>
       </c>
       <c r="C203">
-        <v>6592.520260458398</v>
+        <v>6592.520260482005</v>
       </c>
       <c r="D203">
-        <v>193135.76944773</v>
+        <v>193135.7694554567</v>
       </c>
       <c r="E203">
-        <v>0.03085232581146526</v>
+        <v>0.03085232582544269</v>
       </c>
       <c r="F203">
-        <v>0.2514731835860108</v>
+        <v>0.2514731835960302</v>
       </c>
       <c r="G203">
-        <v>1.545748798983358</v>
+        <v>1.545748798995422</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>401.7941595577713</v>
+        <v>401.7941595671156</v>
       </c>
       <c r="B204">
-        <v>3442.242312869633</v>
+        <v>3442.242312832347</v>
       </c>
       <c r="C204">
-        <v>6602.752769489536</v>
+        <v>6602.752769518619</v>
       </c>
       <c r="D204">
-        <v>193459.826225681</v>
+        <v>193459.8262332589</v>
       </c>
       <c r="E204">
-        <v>0.03074125777130975</v>
+        <v>0.03074125778509966</v>
       </c>
       <c r="F204">
-        <v>0.2535915935781845</v>
+        <v>0.2535915935882646</v>
       </c>
       <c r="G204">
-        <v>1.546405195401806</v>
+        <v>1.546405195413851</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>403.783239555582</v>
+        <v>403.7832395649726</v>
       </c>
       <c r="B205">
-        <v>3433.931497926995</v>
+        <v>3433.931497885787</v>
       </c>
       <c r="C205">
-        <v>6612.984590566357</v>
+        <v>6612.984590600874</v>
       </c>
       <c r="D205">
-        <v>193775.8128811871</v>
+        <v>193775.8128886162</v>
       </c>
       <c r="E205">
-        <v>0.03063494126840384</v>
+        <v>0.03063494128200763</v>
       </c>
       <c r="F205">
-        <v>0.2557132138154132</v>
+        <v>0.2557132138255557</v>
       </c>
       <c r="G205">
-        <v>1.547053841939929</v>
+        <v>1.547053841951951</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>405.7723195533927</v>
+        <v>405.7723195628296</v>
       </c>
       <c r="B206">
-        <v>3425.649425360078</v>
+        <v>3425.649425315001</v>
       </c>
       <c r="C206">
-        <v>6623.217079388957</v>
+        <v>6623.217079428868</v>
       </c>
       <c r="D206">
-        <v>194083.8046167678</v>
+        <v>194083.8046240477</v>
       </c>
       <c r="E206">
-        <v>0.03053332313895498</v>
+        <v>0.03053332315237454</v>
       </c>
       <c r="F206">
-        <v>0.25783804556156</v>
+        <v>0.2578380455717671</v>
       </c>
       <c r="G206">
-        <v>1.547694756872995</v>
+        <v>1.54769475688499</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>407.7613995512035</v>
+        <v>407.7613995606866</v>
       </c>
       <c r="B207">
-        <v>3417.394824976472</v>
+        <v>3417.394824927575</v>
       </c>
       <c r="C207">
-        <v>6633.451588758392</v>
+        <v>6633.451588803654</v>
       </c>
       <c r="D207">
-        <v>194383.8769432954</v>
+        <v>194383.876950427</v>
       </c>
       <c r="E207">
-        <v>0.03043635433633321</v>
+        <v>0.03043635434956928</v>
       </c>
       <c r="F207">
-        <v>0.2599660905291157</v>
+        <v>0.259966090539389</v>
       </c>
       <c r="G207">
-        <v>1.548327957345024</v>
+        <v>1.548327957356987</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <v>409.7504795490142</v>
+        <v>409.7504795585436</v>
       </c>
       <c r="B208">
-        <v>3409.166439843385</v>
+        <v>3409.166439790718</v>
       </c>
       <c r="C208">
-        <v>6643.689469827757</v>
+        <v>6643.68946987833</v>
       </c>
       <c r="D208">
-        <v>194676.105686301</v>
+        <v>194676.105693284</v>
       </c>
       <c r="E208">
-        <v>0.0303439906835341</v>
+        <v>0.03034399069658706</v>
       </c>
       <c r="F208">
-        <v>0.2620973508778664</v>
+        <v>0.262097350888208</v>
       </c>
       <c r="G208">
-        <v>1.548953459378001</v>
+        <v>1.548953459389929</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>411.739559546825</v>
+        <v>411.7395595564006</v>
       </c>
       <c r="B209">
-        <v>3400.963024971163</v>
+        <v>3400.963024914776</v>
       </c>
       <c r="C209">
-        <v>6653.932073642472</v>
+        <v>6653.932073698314</v>
       </c>
       <c r="D209">
-        <v>194960.5669925643</v>
+        <v>194960.5669993995</v>
       </c>
       <c r="E209">
-        <v>0.03025619082826293</v>
+        <v>0.03025619084113019</v>
       </c>
       <c r="F209">
-        <v>0.264231829214024</v>
+        <v>0.2642318292244352</v>
       </c>
       <c r="G209">
-        <v>1.549571277879944</v>
+        <v>1.549571277891833</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>413.7286395446357</v>
+        <v>413.7286395542576</v>
       </c>
       <c r="B210">
-        <v>3392.783346549628</v>
+        <v>3392.783346489573</v>
       </c>
       <c r="C210">
-        <v>6664.180751990107</v>
+        <v>6664.180752051176</v>
       </c>
       <c r="D210">
-        <v>195237.3373369894</v>
+        <v>195237.3373436772</v>
       </c>
       <c r="E210">
-        <v>0.03017291850360345</v>
+        <v>0.03017291851629539</v>
       </c>
       <c r="F210">
-        <v>0.2663695285897376</v>
+        <v>0.2663695286002205</v>
       </c>
       <c r="G210">
-        <v>1.550181426652017</v>
+        <v>1.550181426663863</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>415.7177195424465</v>
+        <v>415.7177195521146</v>
       </c>
       <c r="B211">
-        <v>3384.626180573266</v>
+        <v>3384.62618050959</v>
       </c>
       <c r="C211">
-        <v>6674.436859066197</v>
+        <v>6674.43685913245</v>
       </c>
       <c r="D211">
-        <v>195506.4935297678</v>
+        <v>195506.4935363086</v>
       </c>
       <c r="E211">
-        <v>0.03009414088107626</v>
+        <v>0.03009414089357754</v>
       </c>
       <c r="F211">
-        <v>0.2685104525030295</v>
+        <v>0.2685104525135858</v>
       </c>
       <c r="G211">
-        <v>1.550783918394617</v>
+        <v>1.550783918406415</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>417.7067995402572</v>
+        <v>417.7067995499716</v>
       </c>
       <c r="B212">
-        <v>3376.490311911648</v>
+        <v>3376.490311844404</v>
       </c>
       <c r="C212">
-        <v>6684.701752588094</v>
+        <v>6684.701752659486</v>
       </c>
       <c r="D212">
-        <v>195768.1127238372</v>
+        <v>195768.112730231</v>
       </c>
       <c r="E212">
-        <v>0.03001982704124533</v>
+        <v>0.03001982705358047</v>
       </c>
       <c r="F212">
-        <v>0.2706546048981719</v>
+        <v>0.2706546049088037</v>
       </c>
       <c r="G212">
-        <v>1.551378764712396</v>
+        <v>1.551378764724143</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>419.695879538068</v>
+        <v>419.6958795478286</v>
       </c>
       <c r="B213">
-        <v>3368.374533793337</v>
+        <v>3368.374533722569</v>
       </c>
       <c r="C213">
-        <v>6694.976794389269</v>
+        <v>6694.976794465763</v>
       </c>
       <c r="D213">
-        <v>196022.2724226191</v>
+        <v>196022.2724288668</v>
       </c>
       <c r="E213">
-        <v>0.02994995333514907</v>
+        <v>0.02994995334730732</v>
       </c>
       <c r="F213">
-        <v>0.2728019901663624</v>
+        <v>0.2728019901770711</v>
       </c>
       <c r="G213">
-        <v>1.551965976118562</v>
+        <v>1.551965976130256</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>421.6849595358787</v>
+        <v>421.6849595456856</v>
       </c>
       <c r="B214">
-        <v>3360.277645840322</v>
+        <v>3360.277645766078</v>
       </c>
       <c r="C214">
-        <v>6705.263352931939</v>
+        <v>6705.263353013495</v>
       </c>
       <c r="D214">
-        <v>196269.0504880635</v>
+        <v>196269.0504941651</v>
       </c>
       <c r="E214">
-        <v>0.02988449783995757</v>
+        <v>0.02988449785193992</v>
       </c>
       <c r="F214">
-        <v>0.2749526131468827</v>
+        <v>0.2749526131576703</v>
       </c>
       <c r="G214">
-        <v>1.552545562038044</v>
+        <v>1.552545562049679</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>423.6740395336895</v>
+        <v>423.6740395435426</v>
       </c>
       <c r="B215">
-        <v>3352.198453601372</v>
+        <v>3352.198453523702</v>
       </c>
       <c r="C215">
-        <v>6715.562803888147</v>
+        <v>6715.562803974724</v>
       </c>
       <c r="D215">
-        <v>196508.5251490108</v>
+        <v>196508.5251549668</v>
       </c>
       <c r="E215">
-        <v>0.0298234425520686</v>
+        <v>0.02982344256387499</v>
       </c>
       <c r="F215">
-        <v>0.2771064791287832</v>
+        <v>0.2771064791396515</v>
       </c>
       <c r="G215">
-        <v>1.553117530809435</v>
+        <v>1.553117530821007</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>425.6631195315002</v>
+        <v>425.6631195413997</v>
       </c>
       <c r="B216">
-        <v>3344.135767492479</v>
+        <v>3344.135767411429</v>
       </c>
       <c r="C216">
-        <v>6725.876531517229</v>
+        <v>6725.876531608785</v>
       </c>
       <c r="D216">
-        <v>196740.7750098496</v>
+        <v>196740.7750156606</v>
       </c>
       <c r="E216">
-        <v>0.02976677347157149</v>
+        <v>0.02976677348320193</v>
       </c>
       <c r="F216">
-        <v>0.2792635938528748</v>
+        <v>0.2792635938638254</v>
       </c>
       <c r="G216">
-        <v>1.553681889686233</v>
+        <v>1.55368188969774</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>427.652199529311</v>
+        <v>427.6521995392567</v>
       </c>
       <c r="B217">
-        <v>3336.088401714475</v>
+        <v>3336.088401630094</v>
       </c>
       <c r="C217">
-        <v>6736.20593009896</v>
+        <v>6736.20593019545</v>
       </c>
       <c r="D217">
-        <v>196965.8790594948</v>
+        <v>196965.8790651616</v>
       </c>
       <c r="E217">
-        <v>0.02971448011208267</v>
+        <v>0.02971448012353842</v>
       </c>
       <c r="F217">
-        <v>0.2814239635141831</v>
+        <v>0.2814239635252178</v>
       </c>
       <c r="G217">
-        <v>1.554238644837025</v>
+        <v>1.554238644848462</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>429.6412795271218</v>
+        <v>429.6412795371137</v>
       </c>
       <c r="B218">
-        <v>3328.055173303155</v>
+        <v>3328.05517321549</v>
       </c>
       <c r="C218">
-        <v>6746.552405216993</v>
+        <v>6746.552405318374</v>
       </c>
       <c r="D218">
-        <v>197183.916680687</v>
+        <v>197183.9166862109</v>
       </c>
       <c r="E218">
-        <v>0.02966655604134021</v>
+        <v>0.02966655605262173</v>
       </c>
       <c r="F218">
-        <v>0.2835875947648439</v>
+        <v>0.283587594775964</v>
       </c>
       <c r="G218">
-        <v>1.554787801344673</v>
+        <v>1.554787801356039</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>431.6303595249325</v>
+        <v>431.6303595349707</v>
       </c>
       <c r="B219">
-        <v>3320.034901033259</v>
+        <v>3320.034900942358</v>
       </c>
       <c r="C219">
-        <v>6756.91737526051</v>
+        <v>6756.917375366741</v>
       </c>
       <c r="D219">
-        <v>197394.967659628</v>
+        <v>197394.967665009</v>
       </c>
       <c r="E219">
-        <v>0.02962299853579649</v>
+        <v>0.02962299854690259</v>
       </c>
       <c r="F219">
-        <v>0.2857544947174514</v>
+        <v>0.2857544947286591</v>
       </c>
       <c r="G219">
-        <v>1.55532936320451</v>
+        <v>1.555329363215799</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
-        <v>433.6194395227432</v>
+        <v>433.6194395328277</v>
       </c>
       <c r="B220">
-        <v>3312.02640441583</v>
+        <v>3312.026404321741</v>
       </c>
       <c r="C220">
-        <v>6767.302272828445</v>
+        <v>6767.302272939481</v>
       </c>
       <c r="D220">
-        <v>197599.1121959512</v>
+        <v>197599.1122011908</v>
       </c>
       <c r="E220">
-        <v>0.02958380871980051</v>
+        <v>0.02958380873073287</v>
       </c>
       <c r="F220">
-        <v>0.2879246709488812</v>
+        <v>0.2879246709601779</v>
       </c>
       <c r="G220">
-        <v>1.555863333321469</v>
+        <v>1.555863333332679</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <v>435.608519520554</v>
+        <v>435.6085195306847</v>
       </c>
       <c r="B221">
-        <v>3304.028502657949</v>
+        <v>3304.028502560718</v>
       </c>
       <c r="C221">
-        <v>6777.708546209525</v>
+        <v>6777.708546325323</v>
       </c>
       <c r="D221">
-        <v>197796.4309130474</v>
+        <v>197796.4309181464</v>
       </c>
       <c r="E221">
-        <v>0.02954899159446119</v>
+        <v>0.02954899160521913</v>
       </c>
       <c r="F221">
-        <v>0.2900981315045778</v>
+        <v>0.290098131515965</v>
       </c>
       <c r="G221">
-        <v>1.556389713506224</v>
+        <v>1.556389713517352</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
-        <v>437.5975995183647</v>
+        <v>437.5975995285417</v>
       </c>
       <c r="B222">
-        <v>3296.040013614657</v>
+        <v>3296.040013514332</v>
       </c>
       <c r="C222">
-        <v>6788.137660899524</v>
+        <v>6788.137661020044</v>
       </c>
       <c r="D222">
-        <v>197987.0048687466</v>
+        <v>197987.0048737052</v>
       </c>
       <c r="E222">
-        <v>0.02951855609229794</v>
+        <v>0.02951855610288186</v>
       </c>
       <c r="F222">
-        <v>0.2922748849033316</v>
+        <v>0.2922748849148114</v>
       </c>
       <c r="G222">
-        <v>1.556908504470259</v>
+        <v>1.5569085044813</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
-        <v>439.5866795161755</v>
+        <v>439.5866795263987</v>
       </c>
       <c r="B223">
-        <v>3288.059752726116</v>
+        <v>3288.059752622743</v>
       </c>
       <c r="C223">
-        <v>6798.591101165651</v>
+        <v>6798.59110129085</v>
       </c>
       <c r="D223">
-        <v>198170.9155663707</v>
+        <v>198170.9155711898</v>
       </c>
       <c r="E223">
-        <v>0.02949251513739726</v>
+        <v>0.02949251514780632</v>
       </c>
       <c r="F223">
-        <v>0.2944549401425552</v>
+        <v>0.2944549401541292</v>
       </c>
       <c r="G223">
-        <v>1.557419705819883</v>
+        <v>1.557419705830835</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
-        <v>441.5757595139862</v>
+        <v>441.5757595242557</v>
       </c>
       <c r="B224">
-        <v>3280.086531938494</v>
+        <v>3280.086531832123</v>
       </c>
       <c r="C224">
-        <v>6809.070371660899</v>
+        <v>6809.070371790733</v>
       </c>
       <c r="D224">
-        <v>198348.2449661711</v>
+        <v>198348.2449708515</v>
       </c>
       <c r="E224">
-        <v>0.02947088571560296</v>
+        <v>0.02947088572583585</v>
       </c>
       <c r="F224">
-        <v>0.2966383067040745</v>
+        <v>0.2966383067157443</v>
       </c>
       <c r="G224">
-        <v>1.557923316049157</v>
+        <v>1.557923316060016</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225">
-        <v>443.5648395117969</v>
+        <v>443.5648395221127</v>
       </c>
       <c r="B225">
-        <v>3272.119158605885</v>
+        <v>3272.119158496561</v>
       </c>
       <c r="C225">
-        <v>6819.576999092922</v>
+        <v>6819.576999227347</v>
       </c>
       <c r="D225">
-        <v>198519.0754971595</v>
+        <v>198519.0755017024</v>
       </c>
       <c r="E225">
-        <v>0.02945368895527645</v>
+        <v>0.02945368896533583</v>
       </c>
       <c r="F225">
-        <v>0.2988249945604522</v>
+        <v>0.2988249945722193</v>
       </c>
       <c r="G225">
-        <v>1.558419332531706</v>
+        <v>1.558419332542469</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
-        <v>445.5539195096077</v>
+        <v>445.5539195199697</v>
       </c>
       <c r="B226">
-        <v>3264.156434370387</v>
+        <v>3264.156434258159</v>
       </c>
       <c r="C226">
-        <v>6830.112533952326</v>
+        <v>6830.112534091299</v>
       </c>
       <c r="D226">
-        <v>198683.4900693484</v>
+        <v>198683.4900737547</v>
       </c>
       <c r="E226">
-        <v>0.02944095021874989</v>
+        <v>0.02944095022863269</v>
       </c>
       <c r="F226">
-        <v>0.3010150141818617</v>
+        <v>0.3010150141937278</v>
       </c>
       <c r="G226">
-        <v>1.558907751511392</v>
+        <v>1.558907751522056</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
-        <v>447.5429995074185</v>
+        <v>447.5429995178267</v>
       </c>
       <c r="B227">
-        <v>3256.197154017461</v>
+        <v>3256.197153902376</v>
       </c>
       <c r="C227">
-        <v>6840.678552305346</v>
+        <v>6840.678552448818</v>
       </c>
       <c r="D227">
-        <v>198841.5720864162</v>
+        <v>198841.572090687</v>
       </c>
       <c r="E227">
-        <v>0.0294326992056146</v>
+        <v>0.02943269921532115</v>
       </c>
       <c r="F227">
-        <v>0.3032083765435302</v>
+        <v>0.3032083765554968</v>
       </c>
       <c r="G227">
-        <v>1.559388568091818</v>
+        <v>1.559388568102379</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
-        <v>449.5320795052292</v>
+        <v>449.5320795156837</v>
       </c>
       <c r="B228">
-        <v>3248.240104303364</v>
+        <v>3248.24010418547</v>
       </c>
       <c r="C228">
-        <v>6851.276657656576</v>
+        <v>6851.276657804504</v>
       </c>
       <c r="D228">
-        <v>198993.4054588104</v>
+        <v>198993.4054629469</v>
       </c>
       <c r="E228">
-        <v>0.02942897030358404</v>
+        <v>0.02942897031311325</v>
       </c>
       <c r="F228">
-        <v>0.3054050931337737</v>
+        <v>0.3054050931458424</v>
       </c>
       <c r="G228">
-        <v>1.559861776224629</v>
+        <v>1.559861776235084</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
-        <v>451.5211595030399</v>
+        <v>451.5211595135407</v>
       </c>
       <c r="B229">
-        <v>3240.28406268773</v>
+        <v>3240.284062567076</v>
       </c>
       <c r="C229">
-        <v>6861.908482974311</v>
+        <v>6861.90848312665</v>
       </c>
       <c r="D229">
-        <v>199139.0746173094</v>
+        <v>199139.0746213119</v>
       </c>
       <c r="E229">
-        <v>0.02942980177349356</v>
+        <v>0.02942980178284408</v>
       </c>
       <c r="F229">
-        <v>0.3076051759626617</v>
+        <v>0.3076051759748346</v>
       </c>
       <c r="G229">
-        <v>1.560327368696532</v>
+        <v>1.560327368706878</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230">
-        <v>453.5102395008507</v>
+        <v>453.5102395113977</v>
       </c>
       <c r="B230">
-        <v>3232.327796286481</v>
+        <v>3232.327796163115</v>
       </c>
       <c r="C230">
-        <v>6872.575692450911</v>
+        <v>6872.575692607609</v>
       </c>
       <c r="D230">
-        <v>199278.6645270535</v>
+        <v>199278.6645309241</v>
       </c>
       <c r="E230">
-        <v>0.02943523728553796</v>
+        <v>0.02943523729470949</v>
       </c>
       <c r="F230">
-        <v>0.3098086375712902</v>
+        <v>0.3098086375835683</v>
       </c>
       <c r="G230">
-        <v>1.560785337115115</v>
+        <v>1.560785337125349</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231">
-        <v>455.4993194986615</v>
+        <v>455.4993195092547</v>
       </c>
       <c r="B231">
-        <v>3224.37006040942</v>
+        <v>3224.370060283389</v>
       </c>
       <c r="C231">
-        <v>6883.279983864378</v>
+        <v>6883.279984025387</v>
       </c>
       <c r="D231">
-        <v>199412.2607020745</v>
+        <v>199412.2607058144</v>
       </c>
       <c r="E231">
-        <v>0.02944532518611246</v>
+        <v>0.02944532519510378</v>
       </c>
       <c r="F231">
-        <v>0.3120154910417253</v>
+        <v>0.3120154910541101</v>
       </c>
       <c r="G231">
-        <v>1.561235671893317</v>
+        <v>1.561235671903436</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
-        <v>457.4883994964722</v>
+        <v>457.4883995071118</v>
       </c>
       <c r="B232">
-        <v>3216.409597296036</v>
+        <v>3216.409597167389</v>
       </c>
       <c r="C232">
-        <v>6894.023090709579</v>
+        <v>6894.023090874853</v>
       </c>
       <c r="D232">
-        <v>199539.949220337</v>
+        <v>199539.9492239474</v>
       </c>
       <c r="E232">
-        <v>0.02946011885277893</v>
+        <v>0.02946011886158903</v>
       </c>
       <c r="F232">
-        <v>0.3142257500076692</v>
+        <v>0.3142257500201623</v>
       </c>
       <c r="G232">
-        <v>1.561678362232472</v>
+        <v>1.561678362242473</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
-        <v>459.4774794942829</v>
+        <v>459.4774795049688</v>
       </c>
       <c r="B233">
-        <v>3208.445134755338</v>
+        <v>3208.445134624124</v>
       </c>
       <c r="C233">
-        <v>6904.806784500307</v>
+        <v>6904.8067846698</v>
       </c>
       <c r="D233">
-        <v>199661.8167393169</v>
+        <v>199661.8167427985</v>
       </c>
       <c r="E233">
-        <v>0.02947967676923709</v>
+        <v>0.02947967677786402</v>
       </c>
       <c r="F233">
-        <v>0.3164394286658425</v>
+        <v>0.3164394286784458</v>
       </c>
       <c r="G233">
-        <v>1.562113396103956</v>
+        <v>1.562113396113835</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234">
-        <v>461.4665594920937</v>
+        <v>461.4665595028258</v>
       </c>
       <c r="B234">
-        <v>3200.475384785428</v>
+        <v>3200.475384651696</v>
       </c>
       <c r="C234">
-        <v>6915.632877141113</v>
+        <v>6915.632877314772</v>
       </c>
       <c r="D234">
-        <v>199777.9505121357</v>
+        <v>199777.9505154905</v>
       </c>
       <c r="E234">
-        <v>0.02950406325674183</v>
+        <v>0.02950406326518351</v>
       </c>
       <c r="F234">
-        <v>0.3186565417881204</v>
+        <v>0.3186565418008351</v>
       </c>
       <c r="G234">
-        <v>1.56254076022935</v>
+        <v>1.562540760239106</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
-        <v>463.4556394899045</v>
+        <v>463.4556395006828</v>
       </c>
       <c r="B235">
-        <v>3192.499041995332</v>
+        <v>3192.499041859134</v>
       </c>
       <c r="C235">
-        <v>6926.50322361599</v>
+        <v>6926.503223793768</v>
       </c>
       <c r="D235">
-        <v>199888.4384042866</v>
+        <v>199888.4384075155</v>
       </c>
       <c r="E235">
-        <v>0.02953334739695896</v>
+        <v>0.02953334740521556</v>
       </c>
       <c r="F235">
-        <v>0.3208771047344849</v>
+        <v>0.3208771047473128</v>
       </c>
       <c r="G235">
-        <v>1.562960440059033</v>
+        <v>1.56296044006866</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
-        <v>465.4447194877152</v>
+        <v>465.4447194985398</v>
       </c>
       <c r="B236">
-        <v>3184.514782318039</v>
+        <v>3184.514782179423</v>
       </c>
       <c r="C236">
-        <v>6937.419724322122</v>
+        <v>6937.419724503963</v>
       </c>
       <c r="D236">
-        <v>199993.368910962</v>
+        <v>199993.3689140672</v>
       </c>
       <c r="E236">
-        <v>0.02956760594955067</v>
+        <v>0.0295676059565492</v>
       </c>
       <c r="F236">
-        <v>0.3231011334667838</v>
+        <v>0.323101133479726</v>
       </c>
       <c r="G236">
-        <v>1.563372419749216</v>
+        <v>1.563372419758713</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237">
-        <v>467.433799485526</v>
+        <v>467.4337994963968</v>
       </c>
       <c r="B237">
-        <v>3176.521260934771</v>
+        <v>3176.521260794077</v>
       </c>
       <c r="C237">
-        <v>6948.384328544128</v>
+        <v>6948.384328729579</v>
       </c>
       <c r="D237">
-        <v>200092.8311750328</v>
+        <v>200092.8311780158</v>
       </c>
       <c r="E237">
-        <v>0.02960692039704602</v>
+        <v>0.02960692040492724</v>
       </c>
       <c r="F237">
-        <v>0.3253286445634347</v>
+        <v>0.3253286445764927</v>
       </c>
       <c r="G237">
-        <v>1.563776682137153</v>
+        <v>1.563776682146518</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238">
-        <v>469.4228794833367</v>
+        <v>469.4228794942538</v>
       </c>
       <c r="B238">
-        <v>3168.51711099817</v>
+        <v>3168.51711085516</v>
       </c>
       <c r="C238">
-        <v>6959.399036877014</v>
+        <v>6959.399037066421</v>
       </c>
       <c r="D238">
-        <v>200186.9150056905</v>
+        <v>200186.9150085528</v>
       </c>
       <c r="E238">
-        <v>0.02965137819508933</v>
+        <v>0.02965137820277741</v>
       </c>
       <c r="F238">
-        <v>0.3275596552350579</v>
+        <v>0.3275596552482328</v>
       </c>
       <c r="G238">
-        <v>1.564173208714582</v>
+        <v>1.564173208723813</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239">
-        <v>471.4119594811474</v>
+        <v>471.4119594921108</v>
       </c>
       <c r="B239">
-        <v>3160.500942017488</v>
+        <v>3160.500941872213</v>
       </c>
       <c r="C239">
-        <v>6970.465904168651</v>
+        <v>6970.465904361959</v>
       </c>
       <c r="D239">
-        <v>200275.7108977933</v>
+        <v>200275.7109005365</v>
       </c>
       <c r="E239">
-        <v>0.02970107452328418</v>
+        <v>0.02970107453077552</v>
       </c>
       <c r="F239">
-        <v>0.3297941833409894</v>
+        <v>0.3297941833542827</v>
       </c>
       <c r="G239">
-        <v>1.564561979599516</v>
+        <v>1.564561979608609</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
-        <v>473.4010394789582</v>
+        <v>473.4010394899678</v>
       </c>
       <c r="B240">
-        <v>3152.471337770427</v>
+        <v>3152.471337622941</v>
       </c>
       <c r="C240">
-        <v>6981.587043180867</v>
+        <v>6981.587043378021</v>
       </c>
       <c r="D240">
-        <v>200359.3100519476</v>
+        <v>200359.3100545732</v>
       </c>
       <c r="E240">
-        <v>0.02975611209614416</v>
+        <v>0.02975611210343727</v>
       </c>
       <c r="F240">
-        <v>0.3320322474068489</v>
+        <v>0.3320322474202621</v>
       </c>
       <c r="G240">
-        <v>1.564942973506038</v>
+        <v>1.564942973514991</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241">
-        <v>475.390119476769</v>
+        <v>475.3901194878248</v>
       </c>
       <c r="B241">
-        <v>3144.426854266106</v>
+        <v>3144.426854116461</v>
       </c>
       <c r="C241">
-        <v>6992.764628246797</v>
+        <v>6992.764628447745</v>
       </c>
       <c r="D241">
-        <v>200437.8043953707</v>
+        <v>200437.8043978798</v>
       </c>
       <c r="E241">
-        <v>0.02981660023639488</v>
+        <v>0.02981660024348613</v>
       </c>
       <c r="F241">
-        <v>0.3342738666432836</v>
+        <v>0.3342738666568186</v>
       </c>
       <c r="G241">
-        <v>1.565316167711853</v>
+        <v>1.565316167720662</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242">
-        <v>477.3791994745797</v>
+        <v>477.3791994856819</v>
       </c>
       <c r="B242">
-        <v>3136.366017958539</v>
+        <v>3136.366017806789</v>
       </c>
       <c r="C242">
-        <v>7004.000898644613</v>
+        <v>7004.000898849296</v>
       </c>
       <c r="D242">
-        <v>200511.2866035652</v>
+        <v>200511.2866059593</v>
       </c>
       <c r="E242">
-        <v>0.02988265646985241</v>
+        <v>0.02988265647674031</v>
       </c>
       <c r="F242">
-        <v>0.3365190609658328</v>
+        <v>0.3365190609794911</v>
       </c>
       <c r="G242">
-        <v>1.565681538023755</v>
+        <v>1.565681538032417</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243">
-        <v>479.3682794723904</v>
+        <v>479.3682794835389</v>
       </c>
       <c r="B243">
-        <v>3128.28732352896</v>
+        <v>3128.28732337516</v>
       </c>
       <c r="C243">
-        <v>7015.298162645831</v>
+        <v>7015.298162854188</v>
       </c>
       <c r="D243">
-        <v>200579.8501228509</v>
+        <v>200579.850125132</v>
       </c>
       <c r="E243">
-        <v>0.02995440660889004</v>
+        <v>0.02995440661557044</v>
       </c>
       <c r="F243">
-        <v>0.3387678510159854</v>
+        <v>0.3387678510297684</v>
       </c>
       <c r="G243">
-        <v>1.566039058740871</v>
+        <v>1.566039058749384</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244">
-        <v>481.3573594702012</v>
+        <v>481.3573594813959</v>
       </c>
       <c r="B244">
-        <v>3120.189231645572</v>
+        <v>3120.189231489778</v>
       </c>
       <c r="C244">
-        <v>7026.658801673423</v>
+        <v>7026.658801885392</v>
       </c>
       <c r="D244">
-        <v>200643.5891938029</v>
+        <v>200643.5891959728</v>
       </c>
       <c r="E244">
-        <v>0.03003198525052384</v>
+        <v>0.0300319852569922</v>
       </c>
       <c r="F244">
-        <v>0.3410202581835455</v>
+        <v>0.3410202581974542</v>
       </c>
       <c r="G244">
-        <v>1.566388702615464</v>
+        <v>1.566388702623826</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245">
-        <v>483.346439468012</v>
+        <v>483.3464394792529</v>
       </c>
       <c r="B245">
-        <v>3112.070166588643</v>
+        <v>3112.070166430911</v>
       </c>
       <c r="C245">
-        <v>7038.085273712286</v>
+        <v>7038.085273927795</v>
       </c>
       <c r="D245">
-        <v>200702.5990010196</v>
+        <v>200702.5990030812</v>
       </c>
       <c r="E245">
-        <v>0.03011553638571443</v>
+        <v>0.03011553639196732</v>
       </c>
       <c r="F245">
-        <v>0.3432763045268483</v>
+        <v>0.3432763045408834</v>
       </c>
       <c r="G245">
-        <v>1.566730441034552</v>
+        <v>1.566730441042762</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246">
-        <v>485.3355194658227</v>
+        <v>485.3355194771099</v>
       </c>
       <c r="B246">
-        <v>3103.928513710878</v>
+        <v>3103.928513551265</v>
       </c>
       <c r="C246">
-        <v>7049.580113509295</v>
+        <v>7049.580113728279</v>
       </c>
       <c r="D246">
-        <v>200756.9752403669</v>
+        <v>200756.9752423223</v>
       </c>
       <c r="E246">
-        <v>0.03020521369019966</v>
+        <v>0.03020521369623234</v>
       </c>
       <c r="F246">
-        <v>0.3455360120407831</v>
+        <v>0.3455360120549459</v>
       </c>
       <c r="G246">
-        <v>1.56706424554427</v>
+        <v>1.567064245552326</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247">
-        <v>487.3245994636334</v>
+        <v>487.3245994749669</v>
       </c>
       <c r="B247">
-        <v>3095.762616819167</v>
+        <v>3095.762616657733</v>
       </c>
       <c r="C247">
-        <v>7061.145947895234</v>
+        <v>7061.145948117624</v>
       </c>
       <c r="D247">
-        <v>200806.8158169419</v>
+        <v>200806.8158187928</v>
       </c>
       <c r="E247">
-        <v>0.0303011815221347</v>
+        <v>0.03030118152794372</v>
       </c>
       <c r="F247">
-        <v>0.3477994046166876</v>
+        <v>0.3477994046309794</v>
       </c>
       <c r="G247">
-        <v>1.567390083813091</v>
+        <v>1.567390083820991</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248">
-        <v>489.3136794614442</v>
+        <v>489.3136794728239</v>
       </c>
       <c r="B248">
-        <v>3087.570775286621</v>
+        <v>3087.570775123427</v>
       </c>
       <c r="C248">
-        <v>7072.78549796467</v>
+        <v>7072.785498190394</v>
       </c>
       <c r="D248">
-        <v>200852.2183439069</v>
+        <v>200852.2183456559</v>
       </c>
       <c r="E248">
-        <v>0.0304036153299323</v>
+        <v>0.03040361533551232</v>
       </c>
       <c r="F248">
-        <v>0.3500665068539019</v>
+        <v>0.3500665068683231</v>
       </c>
       <c r="G248">
-        <v>1.56770792202699</v>
+        <v>1.567707922034731</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249">
-        <v>491.302759459255</v>
+        <v>491.3027594706809</v>
       </c>
       <c r="B249">
-        <v>3079.351241054355</v>
+        <v>3079.351240889463</v>
       </c>
       <c r="C249">
-        <v>7084.501583240439</v>
+        <v>7084.50158346942</v>
       </c>
       <c r="D249">
-        <v>200893.2813581345</v>
+        <v>200893.2813597835</v>
       </c>
       <c r="E249">
-        <v>0.03051270243794634</v>
+        <v>0.03051270244329158</v>
       </c>
       <c r="F249">
-        <v>0.3523373442328003</v>
+        <v>0.3523373442473522</v>
       </c>
       <c r="G249">
-        <v>1.568017724590612</v>
+        <v>1.568017724598194</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250">
-        <v>493.2918394570657</v>
+        <v>493.2918394685379</v>
       </c>
       <c r="B250">
-        <v>3071.102215420857</v>
+        <v>3071.102215254328</v>
       </c>
       <c r="C250">
-        <v>7096.297127806723</v>
+        <v>7096.297128038894</v>
       </c>
       <c r="D250">
-        <v>200930.1043499897</v>
+        <v>200930.1043515403</v>
       </c>
       <c r="E250">
-        <v>0.03062864273060616</v>
+        <v>0.03062864273559576</v>
       </c>
       <c r="F250">
-        <v>0.3546119431467967</v>
+        <v>0.354611943161481</v>
       </c>
       <c r="G250">
-        <v>1.568319454070338</v>
+        <v>1.568319454077757</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251">
-        <v>495.2809194548764</v>
+        <v>495.2809194663949</v>
       </c>
       <c r="B251">
-        <v>3062.821845646405</v>
+        <v>3062.821845478334</v>
       </c>
       <c r="C251">
-        <v>7108.175166835415</v>
+        <v>7108.175167070654</v>
       </c>
       <c r="D251">
-        <v>200962.7877944242</v>
+        <v>200962.7877958783</v>
       </c>
       <c r="E251">
-        <v>0.03075164987250813</v>
+        <v>0.03075164987736689</v>
       </c>
       <c r="F251">
-        <v>0.3568903309363476</v>
+        <v>0.3568903309511656</v>
       </c>
       <c r="G251">
-        <v>1.568613071133695</v>
+        <v>1.568613071140949</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252">
-        <v>497.2699994526872</v>
+        <v>497.269999464252</v>
       </c>
       <c r="B252">
-        <v>3054.508221227638</v>
+        <v>3054.50822105806</v>
       </c>
       <c r="C252">
-        <v>7120.138853725568</v>
+        <v>7120.138853963841</v>
       </c>
       <c r="D252">
-        <v>200991.4331834623</v>
+        <v>200991.4331848221</v>
       </c>
       <c r="E252">
-        <v>0.03088195171720914</v>
+        <v>0.03088195172181501</v>
       </c>
       <c r="F252">
-        <v>0.3591725359251058</v>
+        <v>0.3591725359400584</v>
       </c>
       <c r="G252">
-        <v>1.568898534484868</v>
+        <v>1.568898534491955</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253">
-        <v>499.2590794504979</v>
+        <v>499.259079462109</v>
       </c>
       <c r="B253">
-        <v>3046.159370061611</v>
+        <v>3046.159369890594</v>
       </c>
       <c r="C253">
-        <v>7132.191467553106</v>
+        <v>7132.191467794322</v>
       </c>
       <c r="D253">
-        <v>201016.1430601591</v>
+        <v>201016.1430614274</v>
       </c>
       <c r="E253">
-        <v>0.03101979178567711</v>
+        <v>0.03101979179002409</v>
       </c>
       <c r="F253">
-        <v>0.361458587458361</v>
+        <v>0.3614585874734486</v>
       </c>
       <c r="G253">
-        <v>1.569175800796048</v>
+        <v>1.569175800802968</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254">
-        <v>501.2481594483087</v>
+        <v>501.248159459966</v>
       </c>
       <c r="B254">
-        <v>3037.773254210149</v>
+        <v>3037.773254037761</v>
       </c>
       <c r="C254">
-        <v>7144.336421260722</v>
+        <v>7144.336421504804</v>
       </c>
       <c r="D254">
-        <v>201037.0210541214</v>
+        <v>201037.0210552998</v>
       </c>
       <c r="E254">
-        <v>0.03116543015775871</v>
+        <v>0.03116543016183936</v>
       </c>
       <c r="F254">
-        <v>0.3637485159439251</v>
+        <v>0.3637485159591495</v>
       </c>
       <c r="G254">
-        <v>1.569444824634369</v>
+        <v>1.569444824641118</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255">
-        <v>503.2372394461194</v>
+        <v>503.237239457823</v>
       </c>
       <c r="B255">
-        <v>3029.347765423203</v>
+        <v>3029.347765249516</v>
       </c>
       <c r="C255">
-        <v>7156.577270375157</v>
+        <v>7156.577270622016</v>
       </c>
       <c r="D255">
-        <v>201054.1719186853</v>
+        <v>201054.1719197759</v>
       </c>
       <c r="E255">
-        <v>0.03131914518268848</v>
+        <v>0.0313191451864946</v>
       </c>
       <c r="F255">
-        <v>0.3660423528956487</v>
+        <v>0.3660423529110112</v>
       </c>
       <c r="G255">
-        <v>1.569705558384084</v>
+        <v>1.569705558390661</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256">
-        <v>505.2263194439302</v>
+        <v>505.22631945568</v>
       </c>
       <c r="B256">
-        <v>3020.88072019977</v>
+        <v>3020.880720024858</v>
       </c>
       <c r="C256">
-        <v>7168.91772259034</v>
+        <v>7168.917722839882</v>
       </c>
       <c r="D256">
-        <v>201067.7015698568</v>
+        <v>201067.701570862</v>
       </c>
       <c r="E256">
-        <v>0.03148123366309299</v>
+        <v>0.03148123366661489</v>
       </c>
       <c r="F256">
-        <v>0.3683401309797704</v>
+        <v>0.3683401309952717</v>
       </c>
       <c r="G256">
-        <v>1.569957952163636</v>
+        <v>1.569957952170039</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257">
-        <v>507.2153994417409</v>
+        <v>507.215399453537</v>
       </c>
       <c r="B257">
-        <v>3012.369854799069</v>
+        <v>3012.369854623008</v>
       </c>
       <c r="C257">
-        <v>7181.361647633729</v>
+        <v>7181.361647885859</v>
       </c>
       <c r="D257">
-        <v>201077.7171271172</v>
+        <v>201077.7171280393</v>
       </c>
       <c r="E257">
-        <v>0.03165201396636317</v>
+        <v>0.03165201396959348</v>
       </c>
       <c r="F257">
-        <v>0.3706418840642575</v>
+        <v>0.3706418840798986</v>
       </c>
       <c r="G257">
-        <v>1.570201953737353</v>
+        <v>1.570201953743581</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258">
-        <v>509.2044794395517</v>
+        <v>509.204479451394</v>
       </c>
       <c r="B258">
-        <v>3003.812819410567</v>
+        <v>3003.812819233432</v>
       </c>
       <c r="C258">
-        <v>7193.913088590524</v>
+        <v>7193.913088845141</v>
       </c>
       <c r="D258">
-        <v>201084.326956214</v>
+        <v>201084.3269570553</v>
       </c>
       <c r="E258">
-        <v>0.03183182639484852</v>
+        <v>0.03183182639777921</v>
       </c>
       <c r="F258">
-        <v>0.3729476472713971</v>
+        <v>0.3729476472871791</v>
       </c>
       <c r="G258">
-        <v>1.570437508421321</v>
+        <v>1.570437508427371</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259">
-        <v>511.1935594373624</v>
+        <v>511.193559449251</v>
       </c>
       <c r="B259">
-        <v>2995.207172223919</v>
+        <v>2995.207172045792</v>
       </c>
       <c r="C259">
-        <v>7206.579068063389</v>
+        <v>7206.579068320396</v>
       </c>
       <c r="D259">
-        <v>201087.4254092637</v>
+        <v>201087.4254100403</v>
       </c>
       <c r="E259">
-        <v>0.03202103449789246</v>
+        <v>0.0320210345005045</v>
       </c>
       <c r="F259">
-        <v>0.3752577388514592</v>
+        <v>0.3752577388673835</v>
       </c>
       <c r="G259">
-        <v>1.570663968230586</v>
+        <v>1.570663968236459</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260">
-        <v>513.1826394351732</v>
+        <v>513.182639447108</v>
       </c>
       <c r="B260">
-        <v>2986.550373144211</v>
+        <v>2986.550372965176</v>
       </c>
       <c r="C260">
-        <v>7219.361213021217</v>
+        <v>7219.361213280496</v>
       </c>
       <c r="D260">
-        <v>201087.3570943746</v>
+        <v>201087.3570950889</v>
       </c>
       <c r="E260">
-        <v>0.03222002781444585</v>
+        <v>0.03222002781674042</v>
       </c>
       <c r="F260">
-        <v>0.3775719156469797</v>
+        <v>0.3775719156630467</v>
       </c>
       <c r="G260">
-        <v>1.570881863828229</v>
+        <v>1.570881863833924</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261">
-        <v>515.1717194329839</v>
+        <v>515.171719444965</v>
       </c>
       <c r="B261">
-        <v>2977.83977676574</v>
+        <v>2977.839776585881</v>
       </c>
       <c r="C261">
-        <v>7232.264161932821</v>
+        <v>7232.264162194255</v>
       </c>
       <c r="D261">
-        <v>201084.2343971435</v>
+        <v>201084.2343977979</v>
       </c>
       <c r="E261">
-        <v>0.03242922568181639</v>
+        <v>0.03242922568377691</v>
       </c>
       <c r="F261">
-        <v>0.3798902168992249</v>
+        <v>0.3798902169154352</v>
       </c>
       <c r="G261">
-        <v>1.571091132522978</v>
+        <v>1.571091132528494</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262">
-        <v>517.1607994307947</v>
+        <v>517.1607994428221</v>
       </c>
       <c r="B262">
-        <v>2969.072624316107</v>
+        <v>2969.072624135514</v>
       </c>
       <c r="C262">
-        <v>7245.292780680437</v>
+        <v>7245.2927809439</v>
       </c>
       <c r="D262">
-        <v>201078.1711364177</v>
+        <v>201078.1711370148</v>
       </c>
       <c r="E262">
-        <v>0.03264907828401122</v>
+        <v>0.03264907828562573</v>
       </c>
       <c r="F262">
-        <v>0.3822126833607715</v>
+        <v>0.3822126833771254</v>
       </c>
       <c r="G262">
-        <v>1.571291708713267</v>
+        <v>1.571291708718604</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263">
-        <v>519.1498794286055</v>
+        <v>519.149879440679</v>
       </c>
       <c r="B263">
-        <v>2960.246035316899</v>
+        <v>2960.246035135665</v>
       </c>
       <c r="C263">
-        <v>7258.452179147599</v>
+        <v>7258.452179412961</v>
       </c>
       <c r="D263">
-        <v>201069.2826188401</v>
+        <v>201069.2826193822</v>
       </c>
       <c r="E263">
-        <v>0.0328800694195778</v>
+        <v>0.0328800694208262</v>
       </c>
       <c r="F263">
-        <v>0.3845393573709935</v>
+        <v>0.3845393573874915</v>
       </c>
       <c r="G263">
-        <v>1.57148352375174</v>
+        <v>1.571483523756897</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264">
-        <v>521.1389594264161</v>
+        <v>521.1389594385361</v>
       </c>
       <c r="B264">
-        <v>2951.356998496091</v>
+        <v>2951.356998314313</v>
       </c>
       <c r="C264">
-        <v>7271.747729329509</v>
+        <v>7271.747729596631</v>
       </c>
       <c r="D264">
-        <v>201057.6856963976</v>
+        <v>201057.6856968873</v>
       </c>
       <c r="E264">
-        <v>0.03312271970280083</v>
+        <v>0.03312271970367488</v>
       </c>
       <c r="F264">
-        <v>0.3868702829371377</v>
+        <v>0.3868702829537801</v>
       </c>
       <c r="G264">
-        <v>1.571666505799759</v>
+        <v>1.571666505804738</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265">
-        <v>523.1280394242269</v>
+        <v>523.128039436393</v>
       </c>
       <c r="B265">
-        <v>2942.402361835009</v>
+        <v>2942.402361652786</v>
       </c>
       <c r="C265">
-        <v>7285.185085188727</v>
+        <v>7285.185085457464</v>
       </c>
       <c r="D265">
-        <v>201043.4988272029</v>
+        <v>201043.4988276427</v>
       </c>
       <c r="E265">
-        <v>0.03337758971844545</v>
+        <v>0.03337758971892656</v>
       </c>
       <c r="F265">
-        <v>0.3892055058215315</v>
+        <v>0.3892055058383184</v>
       </c>
       <c r="G265">
-        <v>1.571840579670958</v>
+        <v>1.571840579675756</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266">
-        <v>525.1171194220377</v>
+        <v>525.1171194342501</v>
       </c>
       <c r="B266">
-        <v>2933.37882176242</v>
+        <v>2933.378821579857</v>
       </c>
       <c r="C266">
-        <v>7298.770204290887</v>
+        <v>7298.770204561086</v>
       </c>
       <c r="D266">
-        <v>201026.842139757</v>
+        <v>201026.8421401494</v>
       </c>
       <c r="E266">
-        <v>0.03364528402989973</v>
+        <v>0.03364528402997054</v>
       </c>
       <c r="F266">
-        <v>0.3915450736354827</v>
+        <v>0.3915450736524143</v>
       </c>
       <c r="G266">
-        <v>1.572005666662836</v>
+        <v>1.572005666667455</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267">
-        <v>527.1061994198484</v>
+        <v>527.106199432107</v>
       </c>
       <c r="B267">
-        <v>2924.282911265035</v>
+        <v>2924.282911082241</v>
       </c>
       <c r="C267">
-        <v>7312.509371626128</v>
+        <v>7312.509371897627</v>
       </c>
       <c r="D267">
-        <v>201007.8375009646</v>
+        <v>201007.8375013121</v>
       </c>
       <c r="E267">
-        <v>0.03392645539787942</v>
+        <v>0.03392645539752433</v>
       </c>
       <c r="F267">
-        <v>0.3938890359405136</v>
+        <v>0.39388903595759</v>
       </c>
       <c r="G267">
-        <v>1.572161684375285</v>
+        <v>1.572161684379725</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268">
-        <v>529.0952794176592</v>
+        <v>529.0952794299641</v>
       </c>
       <c r="B268">
-        <v>2915.110986857489</v>
+        <v>2915.110986674578</v>
       </c>
       <c r="C268">
-        <v>7326.409225771677</v>
+        <v>7326.409226044308</v>
       </c>
       <c r="D268">
-        <v>200986.6085881989</v>
+        <v>200986.6085885039</v>
       </c>
       <c r="E268">
-        <v>0.03422180937583354</v>
+        <v>0.03422180937502978</v>
       </c>
       <c r="F268">
-        <v>0.3962374443576571</v>
+        <v>0.3962374443748783</v>
       </c>
       <c r="G268">
-        <v>1.572308546514751</v>
+        <v>1.572308546519012</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269">
-        <v>531.0843594154699</v>
+        <v>531.084359427821</v>
       </c>
       <c r="B269">
-        <v>2905.859214309973</v>
+        <v>2905.859214127065</v>
       </c>
       <c r="C269">
-        <v>7340.476787626892</v>
+        <v>7340.476787900475</v>
       </c>
       <c r="D269">
-        <v>200963.2809657418</v>
+        <v>200963.280966007</v>
       </c>
       <c r="E269">
-        <v>0.03453210981892881</v>
+        <v>0.03453210981765729</v>
       </c>
       <c r="F269">
-        <v>0.3985903526856105</v>
+        <v>0.3985903527029765</v>
       </c>
       <c r="G269">
-        <v>1.572446162682627</v>
+        <v>1.572446162686709</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270">
-        <v>533.0734394132807</v>
+        <v>533.0734394256781</v>
       </c>
       <c r="B270">
-        <v>2896.523552886526</v>
+        <v>2896.523552703744</v>
       </c>
       <c r="C270">
-        <v>7354.7194921831</v>
+        <v>7354.719492457441</v>
       </c>
       <c r="D270">
-        <v>200937.9821659557</v>
+        <v>200937.9821661835</v>
       </c>
       <c r="E270">
-        <v>0.03485818501752367</v>
+        <v>0.03485818501576779</v>
       </c>
       <c r="F270">
-        <v>0.4009478170286541</v>
+        <v>0.4009478170461648</v>
       </c>
       <c r="G270">
-        <v>1.572574438146298</v>
+        <v>1.572574438150201</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271">
-        <v>535.0625194110914</v>
+        <v>535.062519423535</v>
       </c>
       <c r="B271">
-        <v>2887.09973792515</v>
+        <v>2887.099737742625</v>
       </c>
       <c r="C271">
-        <v>7369.145223688316</v>
+        <v>7369.14522396322</v>
       </c>
       <c r="D271">
-        <v>200910.8417755833</v>
+        <v>200910.8417757761</v>
       </c>
       <c r="E271">
-        <v>0.03520093415037581</v>
+        <v>0.03520093414809403</v>
       </c>
       <c r="F271">
-        <v>0.4033098959353939</v>
+        <v>0.4033098959530489</v>
       </c>
       <c r="G271">
-        <v>1.572693273590946</v>
+        <v>1.572693273594673</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272">
-        <v>537.0515994089021</v>
+        <v>537.0515994213921</v>
       </c>
       <c r="B272">
-        <v>2877.583261673334</v>
+        <v>2877.583261491204</v>
       </c>
       <c r="C272">
-        <v>7383.762354455169</v>
+        <v>7383.762354730416</v>
       </c>
       <c r="D272">
-        <v>200881.9915276107</v>
+        <v>200881.9915277713</v>
       </c>
       <c r="E272">
-        <v>0.03556133541265518</v>
+        <v>0.03556133540982703</v>
       </c>
       <c r="F272">
-        <v>0.4056766505494706</v>
+        <v>0.4056766505672697</v>
       </c>
       <c r="G272">
-        <v>1.572802564850123</v>
+        <v>1.572802564853675</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273">
-        <v>539.0406794067129</v>
+        <v>539.040679419249</v>
       </c>
       <c r="B273">
-        <v>2867.969351926174</v>
+        <v>2867.969351744585</v>
       </c>
       <c r="C273">
-        <v>7398.579788138279</v>
+        <v>7398.579788413644</v>
       </c>
       <c r="D273">
-        <v>200851.5653991828</v>
+        <v>200851.5653993135</v>
       </c>
       <c r="E273">
-        <v>0.03594045463198799</v>
+        <v>0.03594045462858458</v>
       </c>
       <c r="F273">
-        <v>0.4080481447735912</v>
+        <v>0.4080481447915341</v>
       </c>
       <c r="G273">
-        <v>1.572902202612688</v>
+        <v>1.572902202616065</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274">
-        <v>541.0297594045237</v>
+        <v>541.0297594171061</v>
       </c>
       <c r="B274">
-        <v>2858.252948335188</v>
+        <v>2858.252948154293</v>
       </c>
       <c r="C274">
-        <v>7413.607007841698</v>
+        <v>7413.607008116933</v>
       </c>
       <c r="D274">
-        <v>200819.6997161144</v>
+        <v>200819.6997162176</v>
       </c>
       <c r="E274">
-        <v>0.03633945514945069</v>
+        <v>0.03633945514539941</v>
       </c>
       <c r="F274">
-        <v>0.4104244454484237</v>
+        <v>0.4104244454665095</v>
       </c>
       <c r="G274">
-        <v>1.572992072103394</v>
+        <v>1.572992072106598</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275">
-        <v>543.0188394023344</v>
+        <v>543.0188394149631</v>
       </c>
       <c r="B275">
-        <v>2848.428676045812</v>
+        <v>2848.428675865784</v>
       </c>
       <c r="C275">
-        <v>7428.85412976214</v>
+        <v>7428.854130036968</v>
       </c>
       <c r="D275">
-        <v>200786.5332646183</v>
+        <v>200786.5332646967</v>
       </c>
       <c r="E275">
-        <v>0.0367596097721055</v>
+        <v>0.03675960976744966</v>
       </c>
       <c r="F275">
-        <v>0.4128056225480805</v>
+        <v>0.4128056225663083</v>
       </c>
       <c r="G275">
-        <v>1.573072052734085</v>
+        <v>1.573072052737119</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276">
-        <v>545.0079194001452</v>
+        <v>545.0079194128201</v>
       </c>
       <c r="B276">
-        <v>2838.490816103577</v>
+        <v>2838.490815924577</v>
       </c>
       <c r="C276">
-        <v>7444.331963444088</v>
+        <v>7444.331963718245</v>
       </c>
       <c r="D276">
-        <v>200752.2074109495</v>
+        <v>200752.2074110052</v>
       </c>
       <c r="E276">
-        <v>0.03720231280668571</v>
+        <v>0.03720231280134544</v>
       </c>
       <c r="F276">
-        <v>0.4151917493942335</v>
+        <v>0.415191749412603</v>
       </c>
       <c r="G276">
-        <v>1.573142017721909</v>
+        <v>1.573142017724773</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277">
-        <v>546.9969993979558</v>
+        <v>546.9969994106772</v>
       </c>
       <c r="B277">
-        <v>2828.433272607003</v>
+        <v>2828.433272429212</v>
       </c>
       <c r="C277">
-        <v>7460.052078926527</v>
+        <v>7460.052079199715</v>
       </c>
       <c r="D277">
-        <v>200716.8662297645</v>
+        <v>200716.8662298</v>
       </c>
       <c r="E277">
-        <v>0.03766909644907487</v>
+        <v>0.037669096443011</v>
       </c>
       <c r="F277">
-        <v>0.4175829028911017</v>
+        <v>0.4175829029096116</v>
       </c>
       <c r="G277">
-        <v>1.573201833670595</v>
+        <v>1.573201833673293</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278">
-        <v>548.9860793957666</v>
+        <v>548.9860794085341</v>
       </c>
       <c r="B278">
-        <v>2818.249535429643</v>
+        <v>2818.249535253255</v>
       </c>
       <c r="C278">
-        <v>7476.02688289584</v>
+        <v>7476.026883167736</v>
       </c>
       <c r="D278">
-        <v>200680.6566421083</v>
+        <v>200680.6566421259</v>
       </c>
       <c r="E278">
-        <v>0.03816164740725013</v>
+        <v>0.03816164740041213</v>
       </c>
       <c r="F278">
-        <v>0.4199791637839447</v>
+        <v>0.4199791638025939</v>
       </c>
       <c r="G278">
-        <v>1.573251360110194</v>
+        <v>1.573251360112728</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279">
-        <v>550.9751593935774</v>
+        <v>550.9751594063912</v>
       </c>
       <c r="B279">
-        <v>2807.932638448164</v>
+        <v>2807.932638273385</v>
       </c>
       <c r="C279">
-        <v>7492.269704288386</v>
+        <v>7492.269704558644</v>
       </c>
       <c r="D279">
-        <v>200643.7285640667</v>
+        <v>200643.7285640688</v>
       </c>
       <c r="E279">
-        <v>0.03868182729879343</v>
+        <v>0.03868182729112855</v>
       </c>
       <c r="F279">
-        <v>0.4223806169441117</v>
+        <v>0.4223806169628988</v>
       </c>
       <c r="G279">
-        <v>1.573290448989906</v>
+        <v>1.573290448992279</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280">
-        <v>552.9642393913881</v>
+        <v>552.9642394042481</v>
       </c>
       <c r="B280">
-        <v>2797.475112256011</v>
+        <v>2797.475112083061</v>
       </c>
       <c r="C280">
-        <v>7508.794891333586</v>
+        <v>7508.79489160183</v>
       </c>
       <c r="D280">
-        <v>200606.2350672636</v>
+        <v>200606.2350672523</v>
       </c>
       <c r="E280">
-        <v>0.03923169606736711</v>
+        <v>0.03923169605883574</v>
       </c>
       <c r="F280">
-        <v>0.4247873516840243</v>
+        <v>0.4247873517029478</v>
       </c>
       <c r="G280">
-        <v>1.573318944118123</v>
+        <v>1.573318944120339</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281">
-        <v>554.9533193891989</v>
+        <v>554.9533194021052</v>
       </c>
       <c r="B281">
-        <v>2786.868930546497</v>
+        <v>2786.868930375606</v>
       </c>
       <c r="C281">
-        <v>7525.617921793822</v>
+        <v>7525.617922059657</v>
       </c>
       <c r="D281">
-        <v>200568.332552536</v>
+        <v>200568.3325525136</v>
       </c>
       <c r="E281">
-        <v>0.03981354027886774</v>
+        <v>0.03981354026938589</v>
       </c>
       <c r="F281">
-        <v>0.4271994621060791</v>
+        <v>0.4271994621251373</v>
       </c>
       <c r="G281">
-        <v>1.573336680542713</v>
+        <v>1.573336680544776</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282">
-        <v>556.9423993870097</v>
+        <v>556.9423993999621</v>
       </c>
       <c r="B282">
-        <v>2776.105448846098</v>
+        <v>2776.105448677521</v>
       </c>
       <c r="C282">
-        <v>7542.755529046408</v>
+        <v>7542.755529309389</v>
       </c>
       <c r="D282">
-        <v>200530.1809382883</v>
+        <v>200530.1809382568</v>
       </c>
       <c r="E282">
-        <v>0.04042990368565478</v>
+        <v>0.04042990367516044</v>
       </c>
       <c r="F282">
-        <v>0.4296170474901111</v>
+        <v>0.4296170475093022</v>
       </c>
       <c r="G282">
-        <v>1.573343483863463</v>
+        <v>1.573343483865377</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283">
-        <v>558.9314793848204</v>
+        <v>558.9314793978192</v>
       </c>
       <c r="B283">
-        <v>2765.175334984799</v>
+        <v>2765.175334818805</v>
       </c>
       <c r="C283">
-        <v>7560.22584565325</v>
+        <v>7560.225845912903</v>
       </c>
       <c r="D283">
-        <v>200491.9438652226</v>
+        <v>200491.9438651841</v>
       </c>
       <c r="E283">
-        <v>0.04108362688457075</v>
+        <v>0.04108362687298562</v>
       </c>
       <c r="F283">
-        <v>0.4320402127247777</v>
+        <v>0.4320402127440992</v>
       </c>
       <c r="G283">
-        <v>1.573339169467346</v>
+        <v>1.573339169469115</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284">
-        <v>560.9205593826312</v>
+        <v>560.9205593956762</v>
       </c>
       <c r="B284">
-        <v>2754.068488845</v>
+        <v>2754.06848868188</v>
       </c>
       <c r="C284">
-        <v>7578.048569127031</v>
+        <v>7578.048569382835</v>
       </c>
       <c r="D284">
-        <v>200453.7889193618</v>
+        <v>200453.7889193183</v>
       </c>
       <c r="E284">
-        <v>0.04177789188243185</v>
+        <v>0.04177789186966526</v>
       </c>
       <c r="F284">
-        <v>0.4344690687891607</v>
+        <v>0.43446906880861</v>
       </c>
       <c r="G284">
-        <v>1.573323541675682</v>
+        <v>1.573323541677313</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285">
-        <v>562.9096393804419</v>
+        <v>562.9096393935332</v>
       </c>
       <c r="B285">
-        <v>2742.773950062262</v>
+        <v>2742.773949902331</v>
       </c>
       <c r="C285">
-        <v>7596.245153006294</v>
+        <v>7596.24515325768</v>
       </c>
       <c r="D285">
-        <v>200415.8878755579</v>
+        <v>200415.8878755111</v>
       </c>
       <c r="E285">
-        <v>0.04251627564815414</v>
+        <v>0.04251627563411071</v>
       </c>
       <c r="F285">
-        <v>0.4369037332923519</v>
+        <v>0.4369037333119262</v>
       </c>
       <c r="G285">
-        <v>1.573296392789615</v>
+        <v>1.573296392791113</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286">
-        <v>564.8987193782526</v>
+        <v>564.8987193913902</v>
       </c>
       <c r="B286">
-        <v>2731.279791248385</v>
+        <v>2731.279791091983</v>
       </c>
       <c r="C286">
-        <v>7614.839028319994</v>
+        <v>7614.83902856634</v>
       </c>
       <c r="D286">
-        <v>200378.4169640207</v>
+        <v>200378.4169639724</v>
       </c>
       <c r="E286">
-        <v>0.04330281492478117</v>
+        <v>0.0433028149093708</v>
       </c>
       <c r="F286">
-        <v>0.4393443310799663</v>
+        <v>0.4393443310996626</v>
       </c>
       <c r="G286">
-        <v>1.573257502018367</v>
+        <v>1.573257502019739</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287">
-        <v>566.8877993760634</v>
+        <v>566.8877993892472</v>
       </c>
       <c r="B287">
-        <v>2719.572993692731</v>
+        <v>2719.572993540223</v>
       </c>
       <c r="C287">
-        <v>7633.855861807257</v>
+        <v>7633.855862047887</v>
       </c>
       <c r="D287">
-        <v>200341.5571628278</v>
+        <v>200341.5571627795</v>
       </c>
       <c r="E287">
-        <v>0.04414208362524816</v>
+        <v>0.04414208360833025</v>
       </c>
       <c r="F287">
-        <v>0.4417909949187001</v>
+        <v>0.4417909949385146</v>
       </c>
       <c r="G287">
-        <v>1.573206634270874</v>
+        <v>1.573206634272127</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288">
-        <v>568.8768793738741</v>
+        <v>568.8768793871042</v>
       </c>
       <c r="B288">
-        <v>2707.63930213981</v>
+        <v>2707.639301991599</v>
       </c>
       <c r="C288">
-        <v>7653.323858199731</v>
+        <v>7653.323858433889</v>
       </c>
       <c r="D288">
-        <v>200305.4945199234</v>
+        <v>200305.4945198765</v>
       </c>
       <c r="E288">
-        <v>0.045039287614674</v>
+        <v>0.0450392875961075</v>
       </c>
       <c r="F288">
-        <v>0.4442438662722519</v>
+        <v>0.4442438662921808</v>
       </c>
       <c r="G288">
-        <v>1.573143538787583</v>
+        <v>1.573143538788726</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289">
-        <v>570.8659593716849</v>
+        <v>570.8659593849612</v>
       </c>
       <c r="B289">
-        <v>2695.463053942741</v>
+        <v>2695.463053799266</v>
       </c>
       <c r="C289">
-        <v>7673.274116438987</v>
+        <v>7673.274116665839</v>
       </c>
       <c r="D289">
-        <v>200270.4205087773</v>
+        <v>200270.4205087329</v>
       </c>
       <c r="E289">
-        <v>0.04600037928836713</v>
+        <v>0.04600037926799828</v>
       </c>
       <c r="F289">
-        <v>0.4467030961847868</v>
+        <v>0.4467030962048254</v>
       </c>
       <c r="G289">
-        <v>1.573067947584249</v>
+        <v>1.57306794758529</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290">
-        <v>572.8550393694957</v>
+        <v>572.8550393828182</v>
       </c>
       <c r="B290">
-        <v>2683.026977240854</v>
+        <v>2683.026977102596</v>
       </c>
       <c r="C290">
-        <v>7693.734556893695</v>
+        <v>7693.734557112813</v>
       </c>
       <c r="D290">
-        <v>200236.4297415505</v>
+        <v>200236.4297414999</v>
       </c>
       <c r="E290">
-        <v>0.04703220522679954</v>
+        <v>0.04703220520443851</v>
       </c>
       <c r="F290">
-        <v>0.4491683847017536</v>
+        <v>0.4491683847219162</v>
       </c>
       <c r="G290">
-        <v>1.572980476619954</v>
+        <v>1.572980476620864</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291">
-        <v>574.8441193673063</v>
+        <v>574.8441193806752</v>
       </c>
       <c r="B291">
-        <v>2670.311949219176</v>
+        <v>2670.311949086668</v>
       </c>
       <c r="C291">
-        <v>7714.749430098642</v>
+        <v>7714.74943030906</v>
       </c>
       <c r="D291">
-        <v>200203.7972493893</v>
+        <v>200203.7972493344</v>
       </c>
       <c r="E291">
-        <v>0.0481426778401197</v>
+        <v>0.04814267781556242</v>
       </c>
       <c r="F291">
-        <v>0.4516403420172871</v>
+        <v>0.4516403420375701</v>
       </c>
       <c r="G291">
-        <v>1.57287996121574</v>
+        <v>1.572879961216526</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292">
-        <v>576.8331993651171</v>
+        <v>576.8331993785322</v>
       </c>
       <c r="B292">
-        <v>2657.296707964299</v>
+        <v>2657.296707838127</v>
       </c>
       <c r="C292">
-        <v>7736.361338268647</v>
+        <v>7736.361338469289</v>
       </c>
       <c r="D292">
-        <v>200172.7312742969</v>
+        <v>200172.7312742393</v>
       </c>
       <c r="E292">
-        <v>0.04934099234146528</v>
+        <v>0.0493409923144657</v>
       </c>
       <c r="F292">
-        <v>0.4541191526091646</v>
+        <v>0.4541191526295641</v>
       </c>
       <c r="G292">
-        <v>1.572766073602105</v>
+        <v>1.572766073602775</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293">
-        <v>578.8222793629279</v>
+        <v>578.8222793763892</v>
       </c>
       <c r="B293">
-        <v>2643.957505662093</v>
+        <v>2643.95750554291</v>
       </c>
       <c r="C293">
-        <v>7758.618029717741</v>
+        <v>7758.618029907402</v>
       </c>
       <c r="D293">
-        <v>200143.4472010947</v>
+        <v>200143.4472010358</v>
       </c>
       <c r="E293">
-        <v>0.05063790934018269</v>
+        <v>0.05063790931045981</v>
       </c>
       <c r="F293">
-        <v>0.4566050154562353</v>
+        <v>0.4566050154767473</v>
       </c>
       <c r="G293">
-        <v>1.572638460132396</v>
+        <v>1.572638460132957</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294">
-        <v>580.8113593607386</v>
+        <v>580.8113593742463</v>
       </c>
       <c r="B294">
-        <v>2630.267685397133</v>
+        <v>2630.267685285667</v>
       </c>
       <c r="C294">
-        <v>7781.573287984663</v>
+        <v>7781.573288161989</v>
       </c>
       <c r="D294">
-        <v>200116.1681681818</v>
+        <v>200116.1681681231</v>
       </c>
       <c r="E294">
-        <v>0.05204611173013492</v>
+        <v>0.05204611169735349</v>
       </c>
       <c r="F294">
-        <v>0.4590981458302005</v>
+        <v>0.4590981458508203</v>
       </c>
       <c r="G294">
-        <v>1.572496738144445</v>
+        <v>1.572496738144907</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295">
-        <v>582.8004393585494</v>
+        <v>582.8004393721033</v>
       </c>
       <c r="B295">
-        <v>2616.197161468329</v>
+        <v>2616.197161365398</v>
       </c>
       <c r="C295">
-        <v>7805.28797240953</v>
+        <v>7805.287972573077</v>
       </c>
       <c r="D295">
-        <v>200091.1271289426</v>
+        <v>200091.127128887</v>
       </c>
       <c r="E295">
-        <v>0.05358066575001307</v>
+        <v>0.05358066571378545</v>
       </c>
       <c r="F295">
-        <v>0.4615987747756369</v>
+        <v>0.4615987747963651</v>
       </c>
       <c r="G295">
-        <v>1.572340497285798</v>
+        <v>1.572340497286161</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296">
-        <v>584.7895193563601</v>
+        <v>584.7895193699603</v>
       </c>
       <c r="B296">
-        <v>2601.711775058177</v>
+        <v>2601.711774964704</v>
       </c>
       <c r="C296">
-        <v>7829.831417944663</v>
+        <v>7829.831418092707</v>
       </c>
       <c r="D296">
-        <v>200068.5609342095</v>
+        <v>200068.5609341584</v>
       </c>
       <c r="E296">
-        <v>0.05525962184370419</v>
+        <v>0.05525962180356662</v>
       </c>
       <c r="F296">
-        <v>0.4641071526641388</v>
+        <v>0.4641071526849708</v>
       </c>
       <c r="G296">
-        <v>1.572169293168837</v>
+        <v>1.572169293169109</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297">
-        <v>586.7785993541709</v>
+        <v>586.7785993678173</v>
       </c>
       <c r="B297">
-        <v>2586.772487461049</v>
+        <v>2586.772487378079</v>
       </c>
       <c r="C297">
-        <v>7855.283198309091</v>
+        <v>7855.283198439653</v>
       </c>
       <c r="D297">
-        <v>200048.7198166636</v>
+        <v>200048.7198166186</v>
       </c>
       <c r="E297">
-        <v>0.05710481598202587</v>
+        <v>0.05710481593741728</v>
       </c>
       <c r="F297">
-        <v>0.4666235572840046</v>
+        <v>0.4666235573049348</v>
       </c>
       <c r="G297">
-        <v>1.571982632280258</v>
+        <v>1.57198263228045</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298">
-        <v>588.7676793519817</v>
+        <v>588.7676793656743</v>
       </c>
       <c r="B298">
-        <v>2571.334356676337</v>
+        <v>2571.334356605068</v>
       </c>
       <c r="C298">
-        <v>7881.735243775209</v>
+        <v>7881.735243886007</v>
       </c>
       <c r="D298">
-        <v>200031.865117836</v>
+        <v>200031.8651177981</v>
       </c>
       <c r="E298">
-        <v>0.05914294354213877</v>
+        <v>0.05914294349237252</v>
       </c>
       <c r="F298">
-        <v>0.4691482938554721</v>
+        <v>0.4691482938764943</v>
       </c>
       <c r="G298">
-        <v>1.571779972636855</v>
+        <v>1.571779972636979</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299">
-        <v>590.7567593497923</v>
+        <v>590.7567593635313</v>
       </c>
       <c r="B299">
-        <v>2555.345223681245</v>
+        <v>2555.345223623058</v>
       </c>
       <c r="C299">
-        <v>7909.294628449275</v>
+        <v>7909.294628537655</v>
       </c>
       <c r="D299">
-        <v>200018.2704926926</v>
+        <v>200018.2704926631</v>
       </c>
       <c r="E299">
-        <v>0.06140703126244037</v>
+        <v>0.0614070312066788</v>
       </c>
       <c r="F299">
-        <v>0.4716816994268602</v>
+        <v>0.4716816994479678</v>
       </c>
       <c r="G299">
-        <v>1.571560716126888</v>
+        <v>1.571560716126958</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300">
-        <v>592.7458393476031</v>
+        <v>592.7458393613883</v>
       </c>
       <c r="B300">
-        <v>2538.7440007646</v>
+        <v>2538.744000721101</v>
       </c>
       <c r="C300">
-        <v>7938.087209814808</v>
+        <v>7938.087209877651</v>
       </c>
       <c r="D300">
-        <v>200008.2233261382</v>
+        <v>200008.2233261178</v>
       </c>
       <c r="E300">
-        <v>0.06393849237194071</v>
+        <v>0.06393849230915022</v>
       </c>
       <c r="F300">
-        <v>0.4742241483011128</v>
+        <v>0.474224148322298</v>
       </c>
       <c r="G300">
-        <v>1.571324199066906</v>
+        <v>1.571324199066935</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301">
-        <v>594.7349193454139</v>
+        <v>594.7349193592453</v>
       </c>
       <c r="B301">
-        <v>2521.458404262049</v>
+        <v>2521.458404235124</v>
       </c>
       <c r="C301">
-        <v>7968.262460347548</v>
+        <v>7968.262460381176</v>
       </c>
       <c r="D301">
-        <v>200002.0264164552</v>
+        <v>200002.0264164449</v>
       </c>
       <c r="E301">
-        <v>0.06679005234854758</v>
+        <v>0.06679005227745172</v>
       </c>
       <c r="F301">
-        <v>0.4767760588206204</v>
+        <v>0.4767760588418751</v>
       </c>
       <c r="G301">
-        <v>1.571069680408454</v>
+        <v>1.571069680408459</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302">
-        <v>596.7239993432246</v>
+        <v>596.7239993571023</v>
       </c>
       <c r="B302">
-        <v>2503.40189632052</v>
+        <v>2503.401896312397</v>
       </c>
       <c r="C302">
         <v>8000</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="F302">
-        <v>0.4793379019743859</v>
+        <v>0.4793379019956995</v>
       </c>
       <c r="G302">
         <v>1.570796326794897</v>
